--- a/apps/Utils/data.xlsx
+++ b/apps/Utils/data.xlsx
@@ -7,7 +7,9 @@
     <sheet state="visible" name="성우금형(제작)" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="성우금형(연마)" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'성우금형(제작)'!$A$1:$Z$141</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
@@ -83,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="95">
   <si>
     <t>x</t>
   </si>
@@ -211,6 +213,9 @@
     <t>열처리비</t>
   </si>
   <si>
+    <t>와이어비</t>
+  </si>
+  <si>
     <t>KP4</t>
   </si>
   <si>
@@ -230,6 +235,9 @@
   </si>
   <si>
     <t>악세사리</t>
+  </si>
+  <si>
+    <t>소재비 밀링비 열처리비 추가해주세요!!</t>
   </si>
   <si>
     <t>각도형</t>
@@ -371,7 +379,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$₩-412]#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -383,6 +391,15 @@
     </font>
     <font/>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -410,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -462,7 +479,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6521,7 +6544,9 @@
       <c r="L1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="4"/>
+      <c r="M1" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -6547,22 +6572,22 @@
         <v>84.8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6">
         <v>140000.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" s="5">
         <v>1000.0</v>
@@ -6571,6 +6596,9 @@
         <v>1000.0</v>
       </c>
       <c r="L2" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M2" s="7">
         <v>1000.0</v>
       </c>
     </row>
@@ -6591,17 +6619,17 @@
         <v>123300.0</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="J3" s="5">
         <v>1000.0</v>
       </c>
@@ -6609,6 +6637,9 @@
         <v>1000.0</v>
       </c>
       <c r="L3" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M3" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -6629,16 +6660,16 @@
         <v>23800.0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" s="5">
         <v>1000.0</v>
@@ -6647,6 +6678,9 @@
         <v>1000.0</v>
       </c>
       <c r="L4" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M4" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -6667,16 +6701,16 @@
         <v>35000.0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5" s="5">
         <v>1000.0</v>
@@ -6685,6 +6719,9 @@
         <v>1000.0</v>
       </c>
       <c r="L5" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M5" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -6705,16 +6742,16 @@
         <v>13600.0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" s="5">
         <v>1000.0</v>
@@ -6723,6 +6760,9 @@
         <v>1000.0</v>
       </c>
       <c r="L6" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M6" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -6743,16 +6783,16 @@
         <v>75000.0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7" s="5">
         <v>1000.0</v>
@@ -6762,6 +6802,13 @@
       </c>
       <c r="L7" s="5">
         <v>1000.0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -6781,16 +6828,16 @@
         <v>10000.0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="5">
         <v>1000.0</v>
@@ -6799,6 +6846,9 @@
         <v>1000.0</v>
       </c>
       <c r="L8" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M8" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -6819,16 +6869,16 @@
         <v>24800.0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" s="5">
         <v>1000.0</v>
@@ -6837,6 +6887,9 @@
         <v>1000.0</v>
       </c>
       <c r="L9" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M9" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -6857,16 +6910,16 @@
         <v>34500.0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" s="5">
         <v>1000.0</v>
@@ -6875,6 +6928,9 @@
         <v>1000.0</v>
       </c>
       <c r="L10" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M10" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -6895,17 +6951,17 @@
         <v>123300.0</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="J11" s="5">
         <v>1000.0</v>
       </c>
@@ -6913,6 +6969,9 @@
         <v>1000.0</v>
       </c>
       <c r="L11" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M11" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -6933,16 +6992,16 @@
         <v>169200.0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" s="5">
         <v>1000.0</v>
@@ -6951,6 +7010,9 @@
         <v>1000.0</v>
       </c>
       <c r="L12" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M12" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -6971,16 +7033,16 @@
         <v>116100.0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" s="5">
         <v>1000.0</v>
@@ -6989,6 +7051,9 @@
         <v>1000.0</v>
       </c>
       <c r="L13" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M13" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7009,16 +7074,16 @@
         <v>23800.0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="5">
         <v>1000.0</v>
@@ -7027,6 +7092,9 @@
         <v>1000.0</v>
       </c>
       <c r="L14" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M14" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7047,16 +7115,16 @@
         <v>13500.0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J15" s="5">
         <v>1000.0</v>
@@ -7065,6 +7133,9 @@
         <v>1000.0</v>
       </c>
       <c r="L15" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M15" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7085,16 +7156,16 @@
         <v>24800.0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" s="5">
         <v>1000.0</v>
@@ -7103,6 +7174,9 @@
         <v>1000.0</v>
       </c>
       <c r="L16" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M16" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7123,16 +7197,16 @@
         <v>34500.0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J17" s="5">
         <v>1000.0</v>
@@ -7141,6 +7215,9 @@
         <v>1000.0</v>
       </c>
       <c r="L17" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M17" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7155,22 +7232,22 @@
         <v>58.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="6">
         <v>62800.0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J18" s="5">
         <v>1000.0</v>
@@ -7179,6 +7256,9 @@
         <v>1000.0</v>
       </c>
       <c r="L18" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M18" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7199,16 +7279,16 @@
         <v>75000.0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19" s="5">
         <v>1000.0</v>
@@ -7217,6 +7297,9 @@
         <v>1000.0</v>
       </c>
       <c r="L19" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M19" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7237,16 +7320,16 @@
         <v>75000.0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J20" s="5">
         <v>1000.0</v>
@@ -7255,6 +7338,9 @@
         <v>1000.0</v>
       </c>
       <c r="L20" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M20" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7275,16 +7361,16 @@
         <v>10000.0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J21" s="5">
         <v>1000.0</v>
@@ -7293,6 +7379,9 @@
         <v>1000.0</v>
       </c>
       <c r="L21" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M21" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7313,13 +7402,13 @@
         <v>75000.0</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J22" s="5">
         <v>1000.0</v>
@@ -7328,6 +7417,9 @@
         <v>1000.0</v>
       </c>
       <c r="L22" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M22" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7348,13 +7440,13 @@
         <v>173000.0</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23" s="5">
         <v>1000.0</v>
@@ -7363,6 +7455,9 @@
         <v>1000.0</v>
       </c>
       <c r="L23" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M23" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7377,19 +7472,19 @@
         <v>94.8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="6">
         <v>224000.0</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J24" s="5">
         <v>1000.0</v>
@@ -7398,6 +7493,9 @@
         <v>1000.0</v>
       </c>
       <c r="L24" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M24" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7418,13 +7516,13 @@
         <v>35000.0</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="I25" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J25" s="5">
         <v>1000.0</v>
@@ -7433,6 +7531,9 @@
         <v>1000.0</v>
       </c>
       <c r="L25" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M25" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7453,13 +7554,13 @@
         <v>16000.0</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26" s="5">
         <v>1000.0</v>
@@ -7468,6 +7569,9 @@
         <v>1000.0</v>
       </c>
       <c r="L26" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M26" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7488,13 +7592,13 @@
         <v>42000.0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J27" s="5">
         <v>1000.0</v>
@@ -7503,6 +7607,9 @@
         <v>1000.0</v>
       </c>
       <c r="L27" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M27" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7523,13 +7630,13 @@
         <v>12000.0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J28" s="5">
         <v>1000.0</v>
@@ -7538,6 +7645,9 @@
         <v>1000.0</v>
       </c>
       <c r="L28" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M28" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7558,13 +7668,13 @@
         <v>12000.0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J29" s="5">
         <v>1000.0</v>
@@ -7573,6 +7683,9 @@
         <v>1000.0</v>
       </c>
       <c r="L29" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M29" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7593,13 +7706,13 @@
         <v>79000.0</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J30" s="5">
         <v>1000.0</v>
@@ -7608,6 +7721,9 @@
         <v>1000.0</v>
       </c>
       <c r="L30" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M30" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7628,13 +7744,13 @@
         <v>76000.0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J31" s="5">
         <v>1000.0</v>
@@ -7643,6 +7759,9 @@
         <v>1000.0</v>
       </c>
       <c r="L31" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M31" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7663,13 +7782,13 @@
         <v>76000.0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J32" s="5">
         <v>1000.0</v>
@@ -7678,6 +7797,9 @@
         <v>1000.0</v>
       </c>
       <c r="L32" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M32" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7698,13 +7820,13 @@
         <v>135000.0</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J33" s="5">
         <v>1000.0</v>
@@ -7713,6 +7835,9 @@
         <v>1000.0</v>
       </c>
       <c r="L33" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M33" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7727,19 +7852,19 @@
         <v>39.8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="6">
         <v>179000.0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J34" s="5">
         <v>1000.0</v>
@@ -7748,6 +7873,9 @@
         <v>1000.0</v>
       </c>
       <c r="L34" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M34" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7768,13 +7896,13 @@
         <v>42000.0</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="I35" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J35" s="5">
         <v>1000.0</v>
@@ -7783,6 +7911,9 @@
         <v>1000.0</v>
       </c>
       <c r="L35" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M35" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7803,13 +7934,13 @@
         <v>95000.0</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J36" s="5">
         <v>1000.0</v>
@@ -7818,6 +7949,9 @@
         <v>1000.0</v>
       </c>
       <c r="L36" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M36" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7838,13 +7972,13 @@
         <v>95000.0</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J37" s="5">
         <v>1000.0</v>
@@ -7853,6 +7987,9 @@
         <v>1000.0</v>
       </c>
       <c r="L37" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M37" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7873,13 +8010,13 @@
         <v>38000.0</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J38" s="5">
         <v>1000.0</v>
@@ -7888,6 +8025,9 @@
         <v>1000.0</v>
       </c>
       <c r="L38" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M38" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7908,13 +8048,13 @@
         <v>29000.0</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J39" s="5">
         <v>1000.0</v>
@@ -7923,6 +8063,9 @@
         <v>1000.0</v>
       </c>
       <c r="L39" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M39" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7943,13 +8086,13 @@
         <v>10000.0</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J40" s="5">
         <v>1000.0</v>
@@ -7958,6 +8101,9 @@
         <v>1000.0</v>
       </c>
       <c r="L40" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M40" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -7978,13 +8124,13 @@
         <v>14000.0</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J41" s="5">
         <v>1000.0</v>
@@ -7993,6 +8139,9 @@
         <v>1000.0</v>
       </c>
       <c r="L41" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M41" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8013,16 +8162,16 @@
         <v>140000.0</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42" s="5">
         <v>1000.0</v>
@@ -8031,6 +8180,9 @@
         <v>1000.0</v>
       </c>
       <c r="L42" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M42" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8051,14 +8203,14 @@
         <v>123300.0</v>
       </c>
       <c r="F43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="J43" s="5">
         <v>1000.0</v>
       </c>
@@ -8066,6 +8218,9 @@
         <v>1000.0</v>
       </c>
       <c r="L43" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M43" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8080,19 +8235,19 @@
         <v>83.0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E44" s="6">
         <v>62800.0</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J44" s="5">
         <v>1000.0</v>
@@ -8101,6 +8256,9 @@
         <v>1000.0</v>
       </c>
       <c r="L44" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M44" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8121,13 +8279,13 @@
         <v>75000.0</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J45" s="5">
         <v>1000.0</v>
@@ -8136,6 +8294,9 @@
         <v>1000.0</v>
       </c>
       <c r="L45" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M45" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8156,13 +8317,13 @@
         <v>75000.0</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J46" s="5">
         <v>1000.0</v>
@@ -8171,6 +8332,9 @@
         <v>1000.0</v>
       </c>
       <c r="L46" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M46" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8191,13 +8355,13 @@
         <v>23800.0</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J47" s="5">
         <v>1000.0</v>
@@ -8206,6 +8370,9 @@
         <v>1000.0</v>
       </c>
       <c r="L47" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M47" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8226,13 +8393,13 @@
         <v>35000.0</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J48" s="5">
         <v>1000.0</v>
@@ -8241,6 +8408,9 @@
         <v>1000.0</v>
       </c>
       <c r="L48" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M48" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8261,13 +8431,13 @@
         <v>13600.0</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J49" s="5">
         <v>1000.0</v>
@@ -8276,6 +8446,9 @@
         <v>1000.0</v>
       </c>
       <c r="L49" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M49" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8296,13 +8469,13 @@
         <v>10000.0</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J50" s="5">
         <v>1000.0</v>
@@ -8311,6 +8484,9 @@
         <v>1000.0</v>
       </c>
       <c r="L50" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M50" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8331,13 +8507,13 @@
         <v>24800.0</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J51" s="5">
         <v>1000.0</v>
@@ -8346,6 +8522,9 @@
         <v>1000.0</v>
       </c>
       <c r="L51" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M51" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8366,13 +8545,13 @@
         <v>34500.0</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J52" s="5">
         <v>1000.0</v>
@@ -8381,6 +8560,9 @@
         <v>1000.0</v>
       </c>
       <c r="L52" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M52" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8395,19 +8577,19 @@
         <v>89.8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E53" s="6">
         <v>310000.0</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J53" s="5">
         <v>1000.0</v>
@@ -8416,6 +8598,9 @@
         <v>1000.0</v>
       </c>
       <c r="L53" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M53" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8436,14 +8621,14 @@
         <v>234000.0</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="J54" s="5">
         <v>1000.0</v>
       </c>
@@ -8451,6 +8636,9 @@
         <v>1000.0</v>
       </c>
       <c r="L54" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M54" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8471,13 +8659,13 @@
         <v>51000.0</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J55" s="5">
         <v>1000.0</v>
@@ -8486,6 +8674,9 @@
         <v>1000.0</v>
       </c>
       <c r="L55" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M55" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8506,13 +8697,13 @@
         <v>33000.0</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J56" s="5">
         <v>1000.0</v>
@@ -8521,6 +8712,9 @@
         <v>1000.0</v>
       </c>
       <c r="L56" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M56" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8541,13 +8735,13 @@
         <v>43000.0</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J57" s="5">
         <v>1000.0</v>
@@ -8556,6 +8750,9 @@
         <v>1000.0</v>
       </c>
       <c r="L57" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M57" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8576,13 +8773,13 @@
         <v>42000.0</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J58" s="5">
         <v>1000.0</v>
@@ -8591,6 +8788,9 @@
         <v>1000.0</v>
       </c>
       <c r="L58" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M58" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8611,13 +8811,13 @@
         <v>55000.0</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J59" s="5">
         <v>1000.0</v>
@@ -8626,6 +8826,9 @@
         <v>1000.0</v>
       </c>
       <c r="L59" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M59" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8646,13 +8849,13 @@
         <v>120000.0</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J60" s="5">
         <v>1000.0</v>
@@ -8661,6 +8864,9 @@
         <v>1000.0</v>
       </c>
       <c r="L60" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M60" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8682,10 +8888,10 @@
       </c>
       <c r="F61" s="3"/>
       <c r="H61" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J61" s="5">
         <v>1000.0</v>
@@ -8694,6 +8900,9 @@
         <v>1000.0</v>
       </c>
       <c r="L61" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M61" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8715,10 +8924,10 @@
       </c>
       <c r="F62" s="3"/>
       <c r="H62" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J62" s="5">
         <v>1000.0</v>
@@ -8727,6 +8936,9 @@
         <v>1000.0</v>
       </c>
       <c r="L62" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M62" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8741,19 +8953,19 @@
         <v>25.8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E63" s="6">
         <v>56000.0</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J63" s="5">
         <v>1000.0</v>
@@ -8762,6 +8974,9 @@
         <v>1000.0</v>
       </c>
       <c r="L63" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M63" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8782,13 +8997,13 @@
         <v>45000.0</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J64" s="5">
         <v>1000.0</v>
@@ -8797,6 +9012,9 @@
         <v>1000.0</v>
       </c>
       <c r="L64" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M64" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8817,13 +9035,13 @@
         <v>10000.0</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J65" s="5">
         <v>1000.0</v>
@@ -8832,6 +9050,9 @@
         <v>1000.0</v>
       </c>
       <c r="L65" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M65" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8852,13 +9073,13 @@
         <v>10000.0</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J66" s="5">
         <v>1000.0</v>
@@ -8867,6 +9088,9 @@
         <v>1000.0</v>
       </c>
       <c r="L66" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M66" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8881,19 +9105,19 @@
         <v>30.8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E67" s="6">
         <v>65000.0</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J67" s="5">
         <v>1000.0</v>
@@ -8902,6 +9126,9 @@
         <v>1000.0</v>
       </c>
       <c r="L67" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M67" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8922,13 +9149,13 @@
         <v>45000.0</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J68" s="5">
         <v>1000.0</v>
@@ -8937,6 +9164,9 @@
         <v>1000.0</v>
       </c>
       <c r="L68" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M68" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8957,13 +9187,13 @@
         <v>10000.0</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J69" s="5">
         <v>1000.0</v>
@@ -8972,6 +9202,9 @@
         <v>1000.0</v>
       </c>
       <c r="L69" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M69" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -8992,13 +9225,13 @@
         <v>10000.0</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J70" s="5">
         <v>1000.0</v>
@@ -9007,6 +9240,9 @@
         <v>1000.0</v>
       </c>
       <c r="L70" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M70" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9027,13 +9263,13 @@
         <v>40000.0</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J71" s="5">
         <v>1000.0</v>
@@ -9042,6 +9278,9 @@
         <v>1000.0</v>
       </c>
       <c r="L71" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M71" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9062,13 +9301,13 @@
         <v>40000.0</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J72" s="5">
         <v>1000.0</v>
@@ -9077,6 +9316,9 @@
         <v>1000.0</v>
       </c>
       <c r="L72" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M72" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9097,13 +9339,13 @@
         <v>40000.0</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J73" s="5">
         <v>1000.0</v>
@@ -9112,6 +9354,9 @@
         <v>1000.0</v>
       </c>
       <c r="L73" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M73" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9132,13 +9377,13 @@
         <v>40000.0</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J74" s="5">
         <v>1000.0</v>
@@ -9147,6 +9392,9 @@
         <v>1000.0</v>
       </c>
       <c r="L74" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M74" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9167,17 +9415,17 @@
         <v>123300.0</v>
       </c>
       <c r="F75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="J75" s="5">
         <v>1000.0</v>
       </c>
@@ -9185,6 +9433,9 @@
         <v>1000.0</v>
       </c>
       <c r="L75" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M75" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9199,22 +9450,22 @@
         <v>95.0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E76" s="6">
         <v>169200.0</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J76" s="5">
         <v>1000.0</v>
@@ -9223,6 +9474,9 @@
         <v>1000.0</v>
       </c>
       <c r="L76" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M76" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9243,16 +9497,16 @@
         <v>116100.0</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J77" s="5">
         <v>1000.0</v>
@@ -9261,6 +9515,9 @@
         <v>1000.0</v>
       </c>
       <c r="L77" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M77" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9281,16 +9538,16 @@
         <v>23800.0</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J78" s="5">
         <v>1000.0</v>
@@ -9299,6 +9556,9 @@
         <v>1000.0</v>
       </c>
       <c r="L78" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M78" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9319,16 +9579,16 @@
         <v>13500.0</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J79" s="5">
         <v>1000.0</v>
@@ -9337,6 +9597,9 @@
         <v>1000.0</v>
       </c>
       <c r="L79" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M79" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9357,16 +9620,16 @@
         <v>24800.0</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J80" s="5">
         <v>1000.0</v>
@@ -9375,6 +9638,9 @@
         <v>1000.0</v>
       </c>
       <c r="L80" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M80" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9395,16 +9661,16 @@
         <v>34500.0</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J81" s="5">
         <v>1000.0</v>
@@ -9413,6 +9679,9 @@
         <v>1000.0</v>
       </c>
       <c r="L81" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M81" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9427,22 +9696,22 @@
         <v>58.0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E82" s="6">
         <v>62800.0</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J82" s="5">
         <v>1000.0</v>
@@ -9451,6 +9720,9 @@
         <v>1000.0</v>
       </c>
       <c r="L82" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M82" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9471,16 +9743,16 @@
         <v>75000.0</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J83" s="5">
         <v>1000.0</v>
@@ -9489,6 +9761,9 @@
         <v>1000.0</v>
       </c>
       <c r="L83" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M83" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9509,16 +9784,16 @@
         <v>75000.0</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J84" s="5">
         <v>1000.0</v>
@@ -9527,6 +9802,9 @@
         <v>1000.0</v>
       </c>
       <c r="L84" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M84" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9547,16 +9825,16 @@
         <v>10000.0</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J85" s="5">
         <v>1000.0</v>
@@ -9565,6 +9843,9 @@
         <v>1000.0</v>
       </c>
       <c r="L85" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M85" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9579,19 +9860,19 @@
         <v>31.8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E86" s="6">
         <v>65000.0</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J86" s="5">
         <v>1000.0</v>
@@ -9600,6 +9881,9 @@
         <v>1000.0</v>
       </c>
       <c r="L86" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M86" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9620,13 +9904,13 @@
         <v>55000.0</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J87" s="5">
         <v>1000.0</v>
@@ -9635,6 +9919,9 @@
         <v>1000.0</v>
       </c>
       <c r="L87" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M87" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9655,13 +9942,13 @@
         <v>10000.0</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H88" s="17" t="s">
-        <v>79</v>
+        <v>58</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J88" s="5">
         <v>1000.0</v>
@@ -9670,6 +9957,9 @@
         <v>1000.0</v>
       </c>
       <c r="L88" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M88" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9690,13 +9980,13 @@
         <v>14000.0</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H89" s="17" t="s">
-        <v>79</v>
+        <v>58</v>
+      </c>
+      <c r="H89" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J89" s="5">
         <v>1000.0</v>
@@ -9705,6 +9995,9 @@
         <v>1000.0</v>
       </c>
       <c r="L89" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M89" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9719,22 +10012,22 @@
         <v>106.8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E90" s="6">
         <v>140000.0</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J90" s="5">
         <v>1000.0</v>
@@ -9743,6 +10036,9 @@
         <v>1000.0</v>
       </c>
       <c r="L90" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M90" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9763,17 +10059,17 @@
         <v>123300.0</v>
       </c>
       <c r="F91" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I91" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G91" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="J91" s="5">
         <v>1000.0</v>
       </c>
@@ -9781,6 +10077,9 @@
         <v>1000.0</v>
       </c>
       <c r="L91" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M91" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9795,22 +10094,22 @@
         <v>92.5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E92" s="6">
         <v>72800.0</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J92" s="5">
         <v>1000.0</v>
@@ -9819,6 +10118,9 @@
         <v>1000.0</v>
       </c>
       <c r="L92" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M92" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9839,16 +10141,16 @@
         <v>75000.0</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J93" s="5">
         <v>1000.0</v>
@@ -9857,6 +10159,9 @@
         <v>1000.0</v>
       </c>
       <c r="L93" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M93" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9877,16 +10182,16 @@
         <v>23800.0</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J94" s="5">
         <v>1000.0</v>
@@ -9895,6 +10200,9 @@
         <v>1000.0</v>
       </c>
       <c r="L94" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M94" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9915,16 +10223,16 @@
         <v>35000.0</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J95" s="5">
         <v>1000.0</v>
@@ -9933,6 +10241,9 @@
         <v>1000.0</v>
       </c>
       <c r="L95" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M95" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9953,16 +10264,16 @@
         <v>13500.0</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J96" s="5">
         <v>1000.0</v>
@@ -9971,6 +10282,9 @@
         <v>1000.0</v>
       </c>
       <c r="L96" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M96" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -9991,16 +10305,16 @@
         <v>10000.0</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J97" s="5">
         <v>1000.0</v>
@@ -10009,6 +10323,9 @@
         <v>1000.0</v>
       </c>
       <c r="L97" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M97" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -10029,16 +10346,16 @@
         <v>34500.0</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J98" s="5">
         <v>1000.0</v>
@@ -10047,6 +10364,9 @@
         <v>1000.0</v>
       </c>
       <c r="L98" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M98" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -10067,16 +10387,16 @@
         <v>24800.0</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J99" s="5">
         <v>1000.0</v>
@@ -10085,6 +10405,9 @@
         <v>1000.0</v>
       </c>
       <c r="L99" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M99" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -10099,22 +10422,22 @@
         <v>105.8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E100" s="6">
         <v>140000.0</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J100" s="5">
         <v>1000.0</v>
@@ -10123,6 +10446,9 @@
         <v>1000.0</v>
       </c>
       <c r="L100" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M100" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -10143,17 +10469,17 @@
         <v>123300.0</v>
       </c>
       <c r="F101" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I101" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G101" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="J101" s="5">
         <v>1000.0</v>
       </c>
@@ -10161,6 +10487,9 @@
         <v>1000.0</v>
       </c>
       <c r="L101" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M101" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -10175,22 +10504,22 @@
         <v>86.39</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E102" s="6">
         <v>113000.0</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J102" s="5">
         <v>1000.0</v>
@@ -10199,6 +10528,9 @@
         <v>1000.0</v>
       </c>
       <c r="L102" s="5">
+        <v>1000.0</v>
+      </c>
+      <c r="M102" s="5">
         <v>1000.0</v>
       </c>
     </row>
@@ -10219,16 +10551,16 @@
         <v>103000.0</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104">
@@ -10248,16 +10580,16 @@
         <v>23800.0</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105">
@@ -10277,16 +10609,16 @@
         <v>100000.0</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106">
@@ -10306,16 +10638,16 @@
         <v>35000.0</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107">
@@ -10335,16 +10667,16 @@
         <v>40000.0</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108">
@@ -10364,16 +10696,16 @@
         <v>13500.0</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
@@ -10393,16 +10725,16 @@
         <v>24800.0</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110">
@@ -10422,16 +10754,16 @@
         <v>10000.0</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
@@ -10445,29 +10777,29 @@
         <v>25.8</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E111" s="6">
         <v>65000.0</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="18">
+      <c r="A112" s="20">
         <v>18.0</v>
       </c>
-      <c r="B112" s="18">
+      <c r="B112" s="20">
         <v>55.0</v>
       </c>
-      <c r="C112" s="18">
+      <c r="C112" s="20">
         <v>13.8</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -10477,13 +10809,13 @@
         <v>10000.0</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
@@ -10503,13 +10835,13 @@
         <v>10000.0</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
@@ -10529,13 +10861,13 @@
         <v>55000.0</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115">
@@ -10555,13 +10887,13 @@
         <v>40000.0</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
@@ -10581,13 +10913,13 @@
         <v>40000.0</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
@@ -10603,17 +10935,17 @@
       <c r="D117" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E117" s="19">
+      <c r="E117" s="21">
         <v>40000.0</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118">
@@ -10629,17 +10961,17 @@
       <c r="D118" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E118" s="19">
+      <c r="E118" s="21">
         <v>40000.0</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119">
@@ -10655,17 +10987,17 @@
       <c r="D119" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E119" s="19">
+      <c r="E119" s="21">
         <v>40000.0</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
@@ -10681,17 +11013,17 @@
       <c r="D120" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E120" s="19">
+      <c r="E120" s="21">
         <v>40000.0</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
@@ -10707,20 +11039,20 @@
       <c r="D121" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E121" s="19">
+      <c r="E121" s="21">
         <v>123300.0</v>
       </c>
       <c r="F121" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I121" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="122">
@@ -10736,20 +11068,20 @@
       <c r="D122" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E122" s="19">
+      <c r="E122" s="21">
         <v>169200.0</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123">
@@ -10765,20 +11097,20 @@
       <c r="D123" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="19">
+      <c r="E123" s="21">
         <v>116100.0</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
@@ -10794,20 +11126,20 @@
       <c r="D124" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E124" s="19">
+      <c r="E124" s="21">
         <v>23800.0</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125">
@@ -10823,20 +11155,20 @@
       <c r="D125" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="19">
+      <c r="E125" s="21">
         <v>13500.0</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126">
@@ -10852,20 +11184,20 @@
       <c r="D126" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E126" s="19">
+      <c r="E126" s="21">
         <v>24800.0</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127">
@@ -10881,20 +11213,20 @@
       <c r="D127" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="19">
+      <c r="E127" s="21">
         <v>34500.0</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128">
@@ -10908,22 +11240,22 @@
         <v>58.0</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E128" s="19">
+        <v>43</v>
+      </c>
+      <c r="E128" s="21">
         <v>62800.0</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129">
@@ -10939,20 +11271,20 @@
       <c r="D129" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E129" s="19">
+      <c r="E129" s="21">
         <v>75000.0</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130">
@@ -10968,20 +11300,20 @@
       <c r="D130" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E130" s="19">
+      <c r="E130" s="21">
         <v>75000.0</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131">
@@ -10997,20 +11329,20 @@
       <c r="D131" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E131" s="19">
+      <c r="E131" s="21">
         <v>10000.0</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132">
@@ -11024,19 +11356,19 @@
         <v>31.5</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E132" s="19">
+        <v>43</v>
+      </c>
+      <c r="E132" s="21">
         <v>95000.0</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133">
@@ -11052,17 +11384,17 @@
       <c r="D133" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="19">
+      <c r="E133" s="21">
         <v>93000.0</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134">
@@ -11078,17 +11410,17 @@
       <c r="D134" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E134" s="19">
+      <c r="E134" s="21">
         <v>14000.0</v>
       </c>
       <c r="F134" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H134" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H134" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="I134" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135">
@@ -11102,22 +11434,22 @@
         <v>86.8</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E135" s="19">
+        <v>43</v>
+      </c>
+      <c r="E135" s="21">
         <v>272000.0</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136">
@@ -11133,20 +11465,20 @@
       <c r="D136" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E136" s="19">
+      <c r="E136" s="21">
         <v>234000.0</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137">
@@ -11162,20 +11494,20 @@
       <c r="D137" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="19">
+      <c r="E137" s="21">
         <v>14000.0</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138">
@@ -11191,20 +11523,20 @@
       <c r="D138" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E138" s="19">
+      <c r="E138" s="21">
         <v>39000.0</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139">
@@ -11220,20 +11552,20 @@
       <c r="D139" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E139" s="19">
+      <c r="E139" s="21">
         <v>37000.0</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140">
@@ -11249,20 +11581,20 @@
       <c r="D140" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E140" s="19">
+      <c r="E140" s="21">
         <v>33000.0</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141">
@@ -11278,27 +11610,27 @@
       <c r="D141" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E141" s="19">
+      <c r="E141" s="21">
         <v>43000.0</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142">
       <c r="D142" s="1"/>
       <c r="E142" s="6"/>
       <c r="F142" s="3"/>
-      <c r="G142" s="20"/>
+      <c r="G142" s="22"/>
     </row>
     <row r="143">
       <c r="D143" s="1"/>
@@ -11381,8 +11713,8 @@
       <c r="C158" s="10"/>
       <c r="D158" s="11"/>
       <c r="E158" s="12"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="22"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="24"/>
     </row>
     <row r="159">
       <c r="A159" s="10"/>
@@ -11390,8 +11722,8 @@
       <c r="C159" s="10"/>
       <c r="D159" s="15"/>
       <c r="E159" s="12"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="22"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="24"/>
     </row>
     <row r="160">
       <c r="A160" s="10"/>
@@ -11399,8 +11731,8 @@
       <c r="C160" s="10"/>
       <c r="D160" s="11"/>
       <c r="E160" s="12"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="22"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="24"/>
     </row>
     <row r="161">
       <c r="D161" s="1"/>
@@ -11649,7 +11981,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="6"/>
       <c r="F209" s="3"/>
-      <c r="G209" s="20"/>
+      <c r="G209" s="22"/>
     </row>
     <row r="210">
       <c r="D210" s="1"/>
@@ -11718,3895 +12050,3896 @@
     </row>
     <row r="223">
       <c r="D223" s="4"/>
-      <c r="E223" s="23"/>
-      <c r="F223" s="24"/>
+      <c r="E223" s="25"/>
+      <c r="F223" s="26"/>
     </row>
     <row r="224">
       <c r="D224" s="4"/>
-      <c r="E224" s="23"/>
-      <c r="F224" s="24"/>
+      <c r="E224" s="25"/>
+      <c r="F224" s="26"/>
     </row>
     <row r="225">
       <c r="D225" s="4"/>
-      <c r="E225" s="23"/>
-      <c r="F225" s="24"/>
+      <c r="E225" s="25"/>
+      <c r="F225" s="26"/>
     </row>
     <row r="226">
       <c r="D226" s="4"/>
-      <c r="E226" s="23"/>
-      <c r="F226" s="24"/>
+      <c r="E226" s="25"/>
+      <c r="F226" s="26"/>
     </row>
     <row r="227">
       <c r="D227" s="4"/>
-      <c r="E227" s="23"/>
-      <c r="F227" s="24"/>
+      <c r="E227" s="25"/>
+      <c r="F227" s="26"/>
     </row>
     <row r="228">
       <c r="D228" s="4"/>
-      <c r="E228" s="23"/>
-      <c r="F228" s="24"/>
+      <c r="E228" s="25"/>
+      <c r="F228" s="26"/>
     </row>
     <row r="229">
       <c r="D229" s="4"/>
-      <c r="E229" s="23"/>
-      <c r="F229" s="24"/>
+      <c r="E229" s="25"/>
+      <c r="F229" s="26"/>
     </row>
     <row r="230">
       <c r="D230" s="4"/>
-      <c r="E230" s="23"/>
-      <c r="F230" s="24"/>
+      <c r="E230" s="25"/>
+      <c r="F230" s="26"/>
     </row>
     <row r="231">
       <c r="D231" s="4"/>
-      <c r="E231" s="23"/>
-      <c r="F231" s="24"/>
+      <c r="E231" s="25"/>
+      <c r="F231" s="26"/>
     </row>
     <row r="232">
       <c r="D232" s="4"/>
-      <c r="E232" s="23"/>
-      <c r="F232" s="24"/>
+      <c r="E232" s="25"/>
+      <c r="F232" s="26"/>
     </row>
     <row r="233">
       <c r="D233" s="4"/>
-      <c r="E233" s="23"/>
-      <c r="F233" s="24"/>
+      <c r="E233" s="25"/>
+      <c r="F233" s="26"/>
     </row>
     <row r="234">
       <c r="D234" s="4"/>
-      <c r="E234" s="23"/>
-      <c r="F234" s="24"/>
+      <c r="E234" s="25"/>
+      <c r="F234" s="26"/>
     </row>
     <row r="235">
       <c r="D235" s="4"/>
-      <c r="E235" s="23"/>
-      <c r="F235" s="24"/>
+      <c r="E235" s="25"/>
+      <c r="F235" s="26"/>
     </row>
     <row r="236">
       <c r="D236" s="4"/>
-      <c r="E236" s="23"/>
-      <c r="F236" s="24"/>
+      <c r="E236" s="25"/>
+      <c r="F236" s="26"/>
     </row>
     <row r="237">
       <c r="D237" s="4"/>
-      <c r="E237" s="23"/>
-      <c r="F237" s="24"/>
+      <c r="E237" s="25"/>
+      <c r="F237" s="26"/>
     </row>
     <row r="238">
       <c r="D238" s="4"/>
-      <c r="E238" s="23"/>
-      <c r="F238" s="24"/>
+      <c r="E238" s="25"/>
+      <c r="F238" s="26"/>
     </row>
     <row r="239">
       <c r="D239" s="4"/>
-      <c r="E239" s="23"/>
-      <c r="F239" s="24"/>
+      <c r="E239" s="25"/>
+      <c r="F239" s="26"/>
     </row>
     <row r="240">
       <c r="D240" s="4"/>
-      <c r="E240" s="23"/>
-      <c r="F240" s="24"/>
+      <c r="E240" s="25"/>
+      <c r="F240" s="26"/>
     </row>
     <row r="241">
       <c r="D241" s="4"/>
-      <c r="E241" s="23"/>
-      <c r="F241" s="24"/>
+      <c r="E241" s="25"/>
+      <c r="F241" s="26"/>
     </row>
     <row r="242">
       <c r="D242" s="4"/>
-      <c r="E242" s="23"/>
-      <c r="F242" s="24"/>
+      <c r="E242" s="25"/>
+      <c r="F242" s="26"/>
     </row>
     <row r="243">
       <c r="D243" s="4"/>
-      <c r="E243" s="23"/>
-      <c r="F243" s="24"/>
+      <c r="E243" s="25"/>
+      <c r="F243" s="26"/>
     </row>
     <row r="244">
       <c r="D244" s="4"/>
-      <c r="E244" s="23"/>
-      <c r="F244" s="24"/>
+      <c r="E244" s="25"/>
+      <c r="F244" s="26"/>
     </row>
     <row r="245">
       <c r="D245" s="4"/>
-      <c r="E245" s="23"/>
-      <c r="F245" s="24"/>
+      <c r="E245" s="25"/>
+      <c r="F245" s="26"/>
     </row>
     <row r="246">
       <c r="D246" s="4"/>
-      <c r="E246" s="23"/>
-      <c r="F246" s="24"/>
+      <c r="E246" s="25"/>
+      <c r="F246" s="26"/>
     </row>
     <row r="247">
       <c r="D247" s="4"/>
-      <c r="E247" s="23"/>
-      <c r="F247" s="24"/>
+      <c r="E247" s="25"/>
+      <c r="F247" s="26"/>
     </row>
     <row r="248">
       <c r="D248" s="4"/>
-      <c r="E248" s="23"/>
-      <c r="F248" s="24"/>
+      <c r="E248" s="25"/>
+      <c r="F248" s="26"/>
     </row>
     <row r="249">
       <c r="D249" s="4"/>
-      <c r="E249" s="23"/>
-      <c r="F249" s="24"/>
+      <c r="E249" s="25"/>
+      <c r="F249" s="26"/>
     </row>
     <row r="250">
       <c r="D250" s="4"/>
-      <c r="E250" s="23"/>
-      <c r="F250" s="24"/>
+      <c r="E250" s="25"/>
+      <c r="F250" s="26"/>
     </row>
     <row r="251">
       <c r="D251" s="4"/>
-      <c r="E251" s="23"/>
-      <c r="F251" s="24"/>
+      <c r="E251" s="25"/>
+      <c r="F251" s="26"/>
     </row>
     <row r="252">
       <c r="D252" s="4"/>
-      <c r="E252" s="23"/>
-      <c r="F252" s="24"/>
+      <c r="E252" s="25"/>
+      <c r="F252" s="26"/>
     </row>
     <row r="253">
       <c r="D253" s="4"/>
-      <c r="E253" s="23"/>
-      <c r="F253" s="24"/>
+      <c r="E253" s="25"/>
+      <c r="F253" s="26"/>
     </row>
     <row r="254">
       <c r="D254" s="4"/>
-      <c r="E254" s="23"/>
-      <c r="F254" s="24"/>
+      <c r="E254" s="25"/>
+      <c r="F254" s="26"/>
     </row>
     <row r="255">
       <c r="D255" s="4"/>
-      <c r="E255" s="23"/>
-      <c r="F255" s="24"/>
+      <c r="E255" s="25"/>
+      <c r="F255" s="26"/>
     </row>
     <row r="256">
       <c r="D256" s="4"/>
-      <c r="E256" s="23"/>
-      <c r="F256" s="24"/>
+      <c r="E256" s="25"/>
+      <c r="F256" s="26"/>
     </row>
     <row r="257">
       <c r="D257" s="4"/>
-      <c r="E257" s="23"/>
-      <c r="F257" s="24"/>
+      <c r="E257" s="25"/>
+      <c r="F257" s="26"/>
     </row>
     <row r="258">
       <c r="D258" s="4"/>
-      <c r="E258" s="23"/>
-      <c r="F258" s="24"/>
+      <c r="E258" s="25"/>
+      <c r="F258" s="26"/>
     </row>
     <row r="259">
       <c r="D259" s="4"/>
-      <c r="E259" s="23"/>
-      <c r="F259" s="24"/>
+      <c r="E259" s="25"/>
+      <c r="F259" s="26"/>
     </row>
     <row r="260">
       <c r="D260" s="4"/>
-      <c r="E260" s="23"/>
-      <c r="F260" s="24"/>
+      <c r="E260" s="25"/>
+      <c r="F260" s="26"/>
     </row>
     <row r="261">
       <c r="D261" s="4"/>
-      <c r="E261" s="23"/>
-      <c r="F261" s="24"/>
+      <c r="E261" s="25"/>
+      <c r="F261" s="26"/>
     </row>
     <row r="262">
       <c r="D262" s="4"/>
-      <c r="E262" s="23"/>
-      <c r="F262" s="24"/>
+      <c r="E262" s="25"/>
+      <c r="F262" s="26"/>
     </row>
     <row r="263">
       <c r="D263" s="4"/>
-      <c r="E263" s="23"/>
-      <c r="F263" s="24"/>
+      <c r="E263" s="25"/>
+      <c r="F263" s="26"/>
     </row>
     <row r="264">
       <c r="D264" s="4"/>
-      <c r="E264" s="23"/>
-      <c r="F264" s="24"/>
+      <c r="E264" s="25"/>
+      <c r="F264" s="26"/>
     </row>
     <row r="265">
       <c r="D265" s="4"/>
-      <c r="E265" s="23"/>
-      <c r="F265" s="24"/>
+      <c r="E265" s="25"/>
+      <c r="F265" s="26"/>
     </row>
     <row r="266">
       <c r="D266" s="4"/>
-      <c r="E266" s="23"/>
-      <c r="F266" s="24"/>
+      <c r="E266" s="25"/>
+      <c r="F266" s="26"/>
     </row>
     <row r="267">
       <c r="D267" s="4"/>
-      <c r="E267" s="23"/>
-      <c r="F267" s="24"/>
+      <c r="E267" s="25"/>
+      <c r="F267" s="26"/>
     </row>
     <row r="268">
       <c r="D268" s="4"/>
-      <c r="E268" s="23"/>
-      <c r="F268" s="24"/>
+      <c r="E268" s="25"/>
+      <c r="F268" s="26"/>
     </row>
     <row r="269">
       <c r="D269" s="4"/>
-      <c r="E269" s="23"/>
-      <c r="F269" s="24"/>
+      <c r="E269" s="25"/>
+      <c r="F269" s="26"/>
     </row>
     <row r="270">
       <c r="D270" s="4"/>
-      <c r="E270" s="23"/>
-      <c r="F270" s="24"/>
+      <c r="E270" s="25"/>
+      <c r="F270" s="26"/>
     </row>
     <row r="271">
       <c r="D271" s="4"/>
-      <c r="E271" s="23"/>
-      <c r="F271" s="24"/>
+      <c r="E271" s="25"/>
+      <c r="F271" s="26"/>
     </row>
     <row r="272">
       <c r="D272" s="4"/>
-      <c r="E272" s="23"/>
-      <c r="F272" s="24"/>
+      <c r="E272" s="25"/>
+      <c r="F272" s="26"/>
     </row>
     <row r="273">
       <c r="D273" s="4"/>
-      <c r="E273" s="23"/>
-      <c r="F273" s="24"/>
+      <c r="E273" s="25"/>
+      <c r="F273" s="26"/>
     </row>
     <row r="274">
       <c r="D274" s="4"/>
-      <c r="E274" s="23"/>
-      <c r="F274" s="24"/>
+      <c r="E274" s="25"/>
+      <c r="F274" s="26"/>
     </row>
     <row r="275">
       <c r="D275" s="4"/>
-      <c r="E275" s="23"/>
-      <c r="F275" s="24"/>
+      <c r="E275" s="25"/>
+      <c r="F275" s="26"/>
     </row>
     <row r="276">
       <c r="D276" s="4"/>
-      <c r="E276" s="23"/>
-      <c r="F276" s="24"/>
+      <c r="E276" s="25"/>
+      <c r="F276" s="26"/>
     </row>
     <row r="277">
       <c r="D277" s="4"/>
-      <c r="E277" s="23"/>
-      <c r="F277" s="24"/>
+      <c r="E277" s="25"/>
+      <c r="F277" s="26"/>
     </row>
     <row r="278">
       <c r="D278" s="4"/>
-      <c r="E278" s="23"/>
-      <c r="F278" s="24"/>
+      <c r="E278" s="25"/>
+      <c r="F278" s="26"/>
     </row>
     <row r="279">
       <c r="D279" s="4"/>
-      <c r="E279" s="23"/>
-      <c r="F279" s="24"/>
+      <c r="E279" s="25"/>
+      <c r="F279" s="26"/>
     </row>
     <row r="280">
       <c r="D280" s="4"/>
-      <c r="E280" s="23"/>
-      <c r="F280" s="24"/>
+      <c r="E280" s="25"/>
+      <c r="F280" s="26"/>
     </row>
     <row r="281">
       <c r="D281" s="4"/>
-      <c r="E281" s="23"/>
-      <c r="F281" s="24"/>
+      <c r="E281" s="25"/>
+      <c r="F281" s="26"/>
     </row>
     <row r="282">
       <c r="D282" s="4"/>
-      <c r="E282" s="23"/>
-      <c r="F282" s="24"/>
+      <c r="E282" s="25"/>
+      <c r="F282" s="26"/>
     </row>
     <row r="283">
       <c r="D283" s="4"/>
-      <c r="E283" s="23"/>
-      <c r="F283" s="24"/>
+      <c r="E283" s="25"/>
+      <c r="F283" s="26"/>
     </row>
     <row r="284">
       <c r="D284" s="4"/>
-      <c r="E284" s="23"/>
-      <c r="F284" s="24"/>
+      <c r="E284" s="25"/>
+      <c r="F284" s="26"/>
     </row>
     <row r="285">
       <c r="D285" s="4"/>
-      <c r="E285" s="23"/>
-      <c r="F285" s="24"/>
+      <c r="E285" s="25"/>
+      <c r="F285" s="26"/>
     </row>
     <row r="286">
       <c r="D286" s="4"/>
-      <c r="E286" s="23"/>
-      <c r="F286" s="24"/>
+      <c r="E286" s="25"/>
+      <c r="F286" s="26"/>
     </row>
     <row r="287">
       <c r="D287" s="4"/>
-      <c r="E287" s="23"/>
-      <c r="F287" s="24"/>
+      <c r="E287" s="25"/>
+      <c r="F287" s="26"/>
     </row>
     <row r="288">
       <c r="D288" s="4"/>
-      <c r="E288" s="23"/>
-      <c r="F288" s="24"/>
+      <c r="E288" s="25"/>
+      <c r="F288" s="26"/>
     </row>
     <row r="289">
       <c r="D289" s="4"/>
-      <c r="E289" s="23"/>
-      <c r="F289" s="24"/>
+      <c r="E289" s="25"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290">
       <c r="D290" s="4"/>
-      <c r="E290" s="23"/>
-      <c r="F290" s="24"/>
+      <c r="E290" s="25"/>
+      <c r="F290" s="26"/>
     </row>
     <row r="291">
       <c r="D291" s="4"/>
-      <c r="E291" s="23"/>
-      <c r="F291" s="24"/>
+      <c r="E291" s="25"/>
+      <c r="F291" s="26"/>
     </row>
     <row r="292">
       <c r="D292" s="4"/>
-      <c r="E292" s="23"/>
-      <c r="F292" s="24"/>
+      <c r="E292" s="25"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293">
       <c r="D293" s="4"/>
-      <c r="E293" s="23"/>
-      <c r="F293" s="24"/>
+      <c r="E293" s="25"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294">
       <c r="D294" s="4"/>
-      <c r="E294" s="23"/>
-      <c r="F294" s="24"/>
+      <c r="E294" s="25"/>
+      <c r="F294" s="26"/>
     </row>
     <row r="295">
       <c r="D295" s="4"/>
-      <c r="E295" s="23"/>
-      <c r="F295" s="24"/>
+      <c r="E295" s="25"/>
+      <c r="F295" s="26"/>
     </row>
     <row r="296">
       <c r="D296" s="4"/>
-      <c r="E296" s="23"/>
-      <c r="F296" s="24"/>
+      <c r="E296" s="25"/>
+      <c r="F296" s="26"/>
     </row>
     <row r="297">
       <c r="D297" s="4"/>
-      <c r="E297" s="23"/>
-      <c r="F297" s="24"/>
+      <c r="E297" s="25"/>
+      <c r="F297" s="26"/>
     </row>
     <row r="298">
       <c r="D298" s="4"/>
-      <c r="E298" s="23"/>
-      <c r="F298" s="24"/>
+      <c r="E298" s="25"/>
+      <c r="F298" s="26"/>
     </row>
     <row r="299">
       <c r="D299" s="4"/>
-      <c r="E299" s="23"/>
-      <c r="F299" s="24"/>
+      <c r="E299" s="25"/>
+      <c r="F299" s="26"/>
     </row>
     <row r="300">
       <c r="D300" s="4"/>
-      <c r="E300" s="23"/>
-      <c r="F300" s="24"/>
+      <c r="E300" s="25"/>
+      <c r="F300" s="26"/>
     </row>
     <row r="301">
       <c r="D301" s="4"/>
-      <c r="E301" s="23"/>
-      <c r="F301" s="24"/>
+      <c r="E301" s="25"/>
+      <c r="F301" s="26"/>
     </row>
     <row r="302">
       <c r="D302" s="4"/>
-      <c r="E302" s="23"/>
-      <c r="F302" s="24"/>
+      <c r="E302" s="25"/>
+      <c r="F302" s="26"/>
     </row>
     <row r="303">
       <c r="D303" s="4"/>
-      <c r="E303" s="23"/>
-      <c r="F303" s="24"/>
+      <c r="E303" s="25"/>
+      <c r="F303" s="26"/>
     </row>
     <row r="304">
       <c r="D304" s="4"/>
-      <c r="E304" s="23"/>
-      <c r="F304" s="24"/>
+      <c r="E304" s="25"/>
+      <c r="F304" s="26"/>
     </row>
     <row r="305">
       <c r="D305" s="4"/>
-      <c r="E305" s="23"/>
-      <c r="F305" s="24"/>
+      <c r="E305" s="25"/>
+      <c r="F305" s="26"/>
     </row>
     <row r="306">
       <c r="D306" s="4"/>
-      <c r="E306" s="23"/>
-      <c r="F306" s="24"/>
+      <c r="E306" s="25"/>
+      <c r="F306" s="26"/>
     </row>
     <row r="307">
       <c r="D307" s="4"/>
-      <c r="E307" s="23"/>
-      <c r="F307" s="24"/>
+      <c r="E307" s="25"/>
+      <c r="F307" s="26"/>
     </row>
     <row r="308">
       <c r="D308" s="4"/>
-      <c r="E308" s="23"/>
-      <c r="F308" s="24"/>
+      <c r="E308" s="25"/>
+      <c r="F308" s="26"/>
     </row>
     <row r="309">
       <c r="D309" s="4"/>
-      <c r="E309" s="23"/>
-      <c r="F309" s="24"/>
+      <c r="E309" s="25"/>
+      <c r="F309" s="26"/>
     </row>
     <row r="310">
       <c r="D310" s="4"/>
-      <c r="E310" s="23"/>
-      <c r="F310" s="24"/>
+      <c r="E310" s="25"/>
+      <c r="F310" s="26"/>
     </row>
     <row r="311">
       <c r="D311" s="4"/>
-      <c r="E311" s="23"/>
-      <c r="F311" s="24"/>
+      <c r="E311" s="25"/>
+      <c r="F311" s="26"/>
     </row>
     <row r="312">
       <c r="D312" s="4"/>
-      <c r="E312" s="23"/>
-      <c r="F312" s="24"/>
+      <c r="E312" s="25"/>
+      <c r="F312" s="26"/>
     </row>
     <row r="313">
       <c r="D313" s="4"/>
-      <c r="E313" s="23"/>
-      <c r="F313" s="24"/>
+      <c r="E313" s="25"/>
+      <c r="F313" s="26"/>
     </row>
     <row r="314">
       <c r="D314" s="4"/>
-      <c r="E314" s="23"/>
-      <c r="F314" s="24"/>
+      <c r="E314" s="25"/>
+      <c r="F314" s="26"/>
     </row>
     <row r="315">
       <c r="D315" s="4"/>
-      <c r="E315" s="23"/>
-      <c r="F315" s="24"/>
+      <c r="E315" s="25"/>
+      <c r="F315" s="26"/>
     </row>
     <row r="316">
       <c r="D316" s="4"/>
-      <c r="E316" s="23"/>
-      <c r="F316" s="24"/>
+      <c r="E316" s="25"/>
+      <c r="F316" s="26"/>
     </row>
     <row r="317">
       <c r="D317" s="4"/>
-      <c r="E317" s="23"/>
-      <c r="F317" s="24"/>
+      <c r="E317" s="25"/>
+      <c r="F317" s="26"/>
     </row>
     <row r="318">
       <c r="D318" s="4"/>
-      <c r="E318" s="23"/>
-      <c r="F318" s="24"/>
+      <c r="E318" s="25"/>
+      <c r="F318" s="26"/>
     </row>
     <row r="319">
       <c r="D319" s="4"/>
-      <c r="E319" s="23"/>
-      <c r="F319" s="24"/>
+      <c r="E319" s="25"/>
+      <c r="F319" s="26"/>
     </row>
     <row r="320">
       <c r="D320" s="4"/>
-      <c r="E320" s="23"/>
-      <c r="F320" s="24"/>
+      <c r="E320" s="25"/>
+      <c r="F320" s="26"/>
     </row>
     <row r="321">
       <c r="D321" s="4"/>
-      <c r="E321" s="23"/>
-      <c r="F321" s="24"/>
+      <c r="E321" s="25"/>
+      <c r="F321" s="26"/>
     </row>
     <row r="322">
       <c r="D322" s="4"/>
-      <c r="E322" s="23"/>
-      <c r="F322" s="24"/>
+      <c r="E322" s="25"/>
+      <c r="F322" s="26"/>
     </row>
     <row r="323">
       <c r="D323" s="4"/>
-      <c r="E323" s="23"/>
-      <c r="F323" s="24"/>
+      <c r="E323" s="25"/>
+      <c r="F323" s="26"/>
     </row>
     <row r="324">
       <c r="D324" s="4"/>
-      <c r="E324" s="23"/>
-      <c r="F324" s="24"/>
+      <c r="E324" s="25"/>
+      <c r="F324" s="26"/>
     </row>
     <row r="325">
       <c r="D325" s="4"/>
-      <c r="E325" s="23"/>
-      <c r="F325" s="24"/>
+      <c r="E325" s="25"/>
+      <c r="F325" s="26"/>
     </row>
     <row r="326">
       <c r="D326" s="4"/>
-      <c r="E326" s="23"/>
-      <c r="F326" s="24"/>
+      <c r="E326" s="25"/>
+      <c r="F326" s="26"/>
     </row>
     <row r="327">
       <c r="D327" s="4"/>
-      <c r="E327" s="23"/>
-      <c r="F327" s="24"/>
+      <c r="E327" s="25"/>
+      <c r="F327" s="26"/>
     </row>
     <row r="328">
       <c r="D328" s="4"/>
-      <c r="E328" s="23"/>
-      <c r="F328" s="24"/>
+      <c r="E328" s="25"/>
+      <c r="F328" s="26"/>
     </row>
     <row r="329">
       <c r="D329" s="4"/>
-      <c r="E329" s="23"/>
-      <c r="F329" s="24"/>
+      <c r="E329" s="25"/>
+      <c r="F329" s="26"/>
     </row>
     <row r="330">
       <c r="D330" s="4"/>
-      <c r="E330" s="23"/>
-      <c r="F330" s="24"/>
+      <c r="E330" s="25"/>
+      <c r="F330" s="26"/>
     </row>
     <row r="331">
       <c r="D331" s="4"/>
-      <c r="E331" s="23"/>
-      <c r="F331" s="24"/>
+      <c r="E331" s="25"/>
+      <c r="F331" s="26"/>
     </row>
     <row r="332">
       <c r="D332" s="4"/>
-      <c r="E332" s="23"/>
-      <c r="F332" s="24"/>
+      <c r="E332" s="25"/>
+      <c r="F332" s="26"/>
     </row>
     <row r="333">
       <c r="D333" s="4"/>
-      <c r="E333" s="23"/>
-      <c r="F333" s="24"/>
+      <c r="E333" s="25"/>
+      <c r="F333" s="26"/>
     </row>
     <row r="334">
       <c r="D334" s="4"/>
-      <c r="E334" s="23"/>
-      <c r="F334" s="24"/>
+      <c r="E334" s="25"/>
+      <c r="F334" s="26"/>
     </row>
     <row r="335">
       <c r="D335" s="4"/>
-      <c r="E335" s="23"/>
-      <c r="F335" s="24"/>
+      <c r="E335" s="25"/>
+      <c r="F335" s="26"/>
     </row>
     <row r="336">
       <c r="D336" s="4"/>
-      <c r="E336" s="23"/>
-      <c r="F336" s="24"/>
+      <c r="E336" s="25"/>
+      <c r="F336" s="26"/>
     </row>
     <row r="337">
       <c r="D337" s="4"/>
-      <c r="E337" s="23"/>
-      <c r="F337" s="24"/>
+      <c r="E337" s="25"/>
+      <c r="F337" s="26"/>
     </row>
     <row r="338">
       <c r="D338" s="4"/>
-      <c r="E338" s="23"/>
-      <c r="F338" s="24"/>
+      <c r="E338" s="25"/>
+      <c r="F338" s="26"/>
     </row>
     <row r="339">
       <c r="D339" s="4"/>
-      <c r="E339" s="23"/>
-      <c r="F339" s="24"/>
+      <c r="E339" s="25"/>
+      <c r="F339" s="26"/>
     </row>
     <row r="340">
       <c r="D340" s="4"/>
-      <c r="E340" s="23"/>
-      <c r="F340" s="24"/>
+      <c r="E340" s="25"/>
+      <c r="F340" s="26"/>
     </row>
     <row r="341">
       <c r="D341" s="4"/>
-      <c r="E341" s="23"/>
-      <c r="F341" s="24"/>
+      <c r="E341" s="25"/>
+      <c r="F341" s="26"/>
     </row>
     <row r="342">
       <c r="D342" s="4"/>
-      <c r="E342" s="23"/>
-      <c r="F342" s="24"/>
+      <c r="E342" s="25"/>
+      <c r="F342" s="26"/>
     </row>
     <row r="343">
       <c r="D343" s="4"/>
-      <c r="E343" s="23"/>
-      <c r="F343" s="24"/>
+      <c r="E343" s="25"/>
+      <c r="F343" s="26"/>
     </row>
     <row r="344">
       <c r="D344" s="4"/>
-      <c r="E344" s="23"/>
-      <c r="F344" s="24"/>
+      <c r="E344" s="25"/>
+      <c r="F344" s="26"/>
     </row>
     <row r="345">
       <c r="D345" s="4"/>
-      <c r="E345" s="23"/>
-      <c r="F345" s="24"/>
+      <c r="E345" s="25"/>
+      <c r="F345" s="26"/>
     </row>
     <row r="346">
       <c r="D346" s="4"/>
-      <c r="E346" s="23"/>
-      <c r="F346" s="24"/>
+      <c r="E346" s="25"/>
+      <c r="F346" s="26"/>
     </row>
     <row r="347">
       <c r="D347" s="4"/>
-      <c r="E347" s="23"/>
-      <c r="F347" s="24"/>
+      <c r="E347" s="25"/>
+      <c r="F347" s="26"/>
     </row>
     <row r="348">
       <c r="D348" s="4"/>
-      <c r="E348" s="23"/>
-      <c r="F348" s="24"/>
+      <c r="E348" s="25"/>
+      <c r="F348" s="26"/>
     </row>
     <row r="349">
       <c r="D349" s="4"/>
-      <c r="E349" s="23"/>
-      <c r="F349" s="24"/>
+      <c r="E349" s="25"/>
+      <c r="F349" s="26"/>
     </row>
     <row r="350">
       <c r="D350" s="4"/>
-      <c r="E350" s="23"/>
-      <c r="F350" s="24"/>
+      <c r="E350" s="25"/>
+      <c r="F350" s="26"/>
     </row>
     <row r="351">
       <c r="D351" s="4"/>
-      <c r="E351" s="23"/>
-      <c r="F351" s="24"/>
+      <c r="E351" s="25"/>
+      <c r="F351" s="26"/>
     </row>
     <row r="352">
       <c r="D352" s="4"/>
-      <c r="E352" s="23"/>
-      <c r="F352" s="24"/>
+      <c r="E352" s="25"/>
+      <c r="F352" s="26"/>
     </row>
     <row r="353">
       <c r="D353" s="4"/>
-      <c r="E353" s="23"/>
-      <c r="F353" s="24"/>
+      <c r="E353" s="25"/>
+      <c r="F353" s="26"/>
     </row>
     <row r="354">
       <c r="D354" s="4"/>
-      <c r="E354" s="23"/>
-      <c r="F354" s="24"/>
+      <c r="E354" s="25"/>
+      <c r="F354" s="26"/>
     </row>
     <row r="355">
       <c r="D355" s="4"/>
-      <c r="E355" s="23"/>
-      <c r="F355" s="24"/>
+      <c r="E355" s="25"/>
+      <c r="F355" s="26"/>
     </row>
     <row r="356">
       <c r="D356" s="4"/>
-      <c r="E356" s="23"/>
-      <c r="F356" s="24"/>
+      <c r="E356" s="25"/>
+      <c r="F356" s="26"/>
     </row>
     <row r="357">
       <c r="D357" s="4"/>
-      <c r="E357" s="23"/>
-      <c r="F357" s="24"/>
+      <c r="E357" s="25"/>
+      <c r="F357" s="26"/>
     </row>
     <row r="358">
       <c r="D358" s="4"/>
-      <c r="E358" s="23"/>
-      <c r="F358" s="24"/>
+      <c r="E358" s="25"/>
+      <c r="F358" s="26"/>
     </row>
     <row r="359">
       <c r="D359" s="4"/>
-      <c r="E359" s="23"/>
-      <c r="F359" s="24"/>
+      <c r="E359" s="25"/>
+      <c r="F359" s="26"/>
     </row>
     <row r="360">
       <c r="D360" s="4"/>
-      <c r="E360" s="23"/>
-      <c r="F360" s="24"/>
+      <c r="E360" s="25"/>
+      <c r="F360" s="26"/>
     </row>
     <row r="361">
       <c r="D361" s="4"/>
-      <c r="E361" s="23"/>
-      <c r="F361" s="24"/>
+      <c r="E361" s="25"/>
+      <c r="F361" s="26"/>
     </row>
     <row r="362">
       <c r="D362" s="4"/>
-      <c r="E362" s="23"/>
-      <c r="F362" s="24"/>
+      <c r="E362" s="25"/>
+      <c r="F362" s="26"/>
     </row>
     <row r="363">
       <c r="D363" s="4"/>
-      <c r="E363" s="23"/>
-      <c r="F363" s="24"/>
+      <c r="E363" s="25"/>
+      <c r="F363" s="26"/>
     </row>
     <row r="364">
       <c r="D364" s="4"/>
-      <c r="E364" s="23"/>
-      <c r="F364" s="24"/>
+      <c r="E364" s="25"/>
+      <c r="F364" s="26"/>
     </row>
     <row r="365">
       <c r="D365" s="4"/>
-      <c r="E365" s="23"/>
-      <c r="F365" s="24"/>
+      <c r="E365" s="25"/>
+      <c r="F365" s="26"/>
     </row>
     <row r="366">
       <c r="D366" s="4"/>
-      <c r="E366" s="23"/>
-      <c r="F366" s="24"/>
+      <c r="E366" s="25"/>
+      <c r="F366" s="26"/>
     </row>
     <row r="367">
       <c r="D367" s="4"/>
-      <c r="E367" s="23"/>
-      <c r="F367" s="24"/>
+      <c r="E367" s="25"/>
+      <c r="F367" s="26"/>
     </row>
     <row r="368">
       <c r="D368" s="4"/>
-      <c r="E368" s="23"/>
-      <c r="F368" s="24"/>
+      <c r="E368" s="25"/>
+      <c r="F368" s="26"/>
     </row>
     <row r="369">
       <c r="D369" s="4"/>
-      <c r="E369" s="23"/>
-      <c r="F369" s="24"/>
+      <c r="E369" s="25"/>
+      <c r="F369" s="26"/>
     </row>
     <row r="370">
       <c r="D370" s="4"/>
-      <c r="E370" s="23"/>
-      <c r="F370" s="24"/>
+      <c r="E370" s="25"/>
+      <c r="F370" s="26"/>
     </row>
     <row r="371">
       <c r="D371" s="4"/>
-      <c r="E371" s="23"/>
-      <c r="F371" s="24"/>
+      <c r="E371" s="25"/>
+      <c r="F371" s="26"/>
     </row>
     <row r="372">
       <c r="D372" s="4"/>
-      <c r="E372" s="23"/>
-      <c r="F372" s="24"/>
+      <c r="E372" s="25"/>
+      <c r="F372" s="26"/>
     </row>
     <row r="373">
       <c r="D373" s="4"/>
-      <c r="E373" s="23"/>
-      <c r="F373" s="24"/>
+      <c r="E373" s="25"/>
+      <c r="F373" s="26"/>
     </row>
     <row r="374">
       <c r="D374" s="4"/>
-      <c r="E374" s="23"/>
-      <c r="F374" s="24"/>
+      <c r="E374" s="25"/>
+      <c r="F374" s="26"/>
     </row>
     <row r="375">
       <c r="D375" s="4"/>
-      <c r="E375" s="23"/>
-      <c r="F375" s="24"/>
+      <c r="E375" s="25"/>
+      <c r="F375" s="26"/>
     </row>
     <row r="376">
       <c r="D376" s="4"/>
-      <c r="E376" s="23"/>
-      <c r="F376" s="24"/>
+      <c r="E376" s="25"/>
+      <c r="F376" s="26"/>
     </row>
     <row r="377">
       <c r="D377" s="4"/>
-      <c r="E377" s="23"/>
-      <c r="F377" s="24"/>
+      <c r="E377" s="25"/>
+      <c r="F377" s="26"/>
     </row>
     <row r="378">
       <c r="D378" s="4"/>
-      <c r="E378" s="23"/>
-      <c r="F378" s="24"/>
+      <c r="E378" s="25"/>
+      <c r="F378" s="26"/>
     </row>
     <row r="379">
       <c r="D379" s="4"/>
-      <c r="E379" s="23"/>
-      <c r="F379" s="24"/>
+      <c r="E379" s="25"/>
+      <c r="F379" s="26"/>
     </row>
     <row r="380">
       <c r="D380" s="4"/>
-      <c r="E380" s="23"/>
-      <c r="F380" s="24"/>
+      <c r="E380" s="25"/>
+      <c r="F380" s="26"/>
     </row>
     <row r="381">
       <c r="D381" s="4"/>
-      <c r="E381" s="23"/>
-      <c r="F381" s="24"/>
+      <c r="E381" s="25"/>
+      <c r="F381" s="26"/>
     </row>
     <row r="382">
       <c r="D382" s="4"/>
-      <c r="E382" s="23"/>
-      <c r="F382" s="24"/>
+      <c r="E382" s="25"/>
+      <c r="F382" s="26"/>
     </row>
     <row r="383">
       <c r="D383" s="4"/>
-      <c r="E383" s="23"/>
-      <c r="F383" s="24"/>
+      <c r="E383" s="25"/>
+      <c r="F383" s="26"/>
     </row>
     <row r="384">
       <c r="D384" s="4"/>
-      <c r="E384" s="23"/>
-      <c r="F384" s="24"/>
+      <c r="E384" s="25"/>
+      <c r="F384" s="26"/>
     </row>
     <row r="385">
       <c r="D385" s="4"/>
-      <c r="E385" s="23"/>
-      <c r="F385" s="24"/>
+      <c r="E385" s="25"/>
+      <c r="F385" s="26"/>
     </row>
     <row r="386">
       <c r="D386" s="4"/>
-      <c r="E386" s="23"/>
-      <c r="F386" s="24"/>
+      <c r="E386" s="25"/>
+      <c r="F386" s="26"/>
     </row>
     <row r="387">
       <c r="D387" s="4"/>
-      <c r="E387" s="23"/>
-      <c r="F387" s="24"/>
+      <c r="E387" s="25"/>
+      <c r="F387" s="26"/>
     </row>
     <row r="388">
       <c r="D388" s="4"/>
-      <c r="E388" s="23"/>
-      <c r="F388" s="24"/>
+      <c r="E388" s="25"/>
+      <c r="F388" s="26"/>
     </row>
     <row r="389">
       <c r="D389" s="4"/>
-      <c r="E389" s="23"/>
-      <c r="F389" s="24"/>
+      <c r="E389" s="25"/>
+      <c r="F389" s="26"/>
     </row>
     <row r="390">
       <c r="D390" s="4"/>
-      <c r="E390" s="23"/>
-      <c r="F390" s="24"/>
+      <c r="E390" s="25"/>
+      <c r="F390" s="26"/>
     </row>
     <row r="391">
       <c r="D391" s="4"/>
-      <c r="E391" s="23"/>
-      <c r="F391" s="24"/>
+      <c r="E391" s="25"/>
+      <c r="F391" s="26"/>
     </row>
     <row r="392">
       <c r="D392" s="4"/>
-      <c r="E392" s="23"/>
-      <c r="F392" s="24"/>
+      <c r="E392" s="25"/>
+      <c r="F392" s="26"/>
     </row>
     <row r="393">
       <c r="D393" s="4"/>
-      <c r="E393" s="23"/>
-      <c r="F393" s="24"/>
+      <c r="E393" s="25"/>
+      <c r="F393" s="26"/>
     </row>
     <row r="394">
       <c r="D394" s="4"/>
-      <c r="E394" s="23"/>
-      <c r="F394" s="24"/>
+      <c r="E394" s="25"/>
+      <c r="F394" s="26"/>
     </row>
     <row r="395">
       <c r="D395" s="4"/>
-      <c r="E395" s="23"/>
-      <c r="F395" s="24"/>
+      <c r="E395" s="25"/>
+      <c r="F395" s="26"/>
     </row>
     <row r="396">
       <c r="D396" s="4"/>
-      <c r="E396" s="23"/>
-      <c r="F396" s="24"/>
+      <c r="E396" s="25"/>
+      <c r="F396" s="26"/>
     </row>
     <row r="397">
       <c r="D397" s="4"/>
-      <c r="E397" s="23"/>
-      <c r="F397" s="24"/>
+      <c r="E397" s="25"/>
+      <c r="F397" s="26"/>
     </row>
     <row r="398">
       <c r="D398" s="4"/>
-      <c r="E398" s="23"/>
-      <c r="F398" s="24"/>
+      <c r="E398" s="25"/>
+      <c r="F398" s="26"/>
     </row>
     <row r="399">
       <c r="D399" s="4"/>
-      <c r="E399" s="23"/>
-      <c r="F399" s="24"/>
+      <c r="E399" s="25"/>
+      <c r="F399" s="26"/>
     </row>
     <row r="400">
       <c r="D400" s="4"/>
-      <c r="E400" s="23"/>
-      <c r="F400" s="24"/>
+      <c r="E400" s="25"/>
+      <c r="F400" s="26"/>
     </row>
     <row r="401">
       <c r="D401" s="4"/>
-      <c r="E401" s="23"/>
-      <c r="F401" s="24"/>
+      <c r="E401" s="25"/>
+      <c r="F401" s="26"/>
     </row>
     <row r="402">
       <c r="D402" s="4"/>
-      <c r="E402" s="23"/>
-      <c r="F402" s="24"/>
+      <c r="E402" s="25"/>
+      <c r="F402" s="26"/>
     </row>
     <row r="403">
       <c r="D403" s="4"/>
-      <c r="E403" s="23"/>
-      <c r="F403" s="24"/>
+      <c r="E403" s="25"/>
+      <c r="F403" s="26"/>
     </row>
     <row r="404">
       <c r="D404" s="4"/>
-      <c r="E404" s="23"/>
-      <c r="F404" s="24"/>
+      <c r="E404" s="25"/>
+      <c r="F404" s="26"/>
     </row>
     <row r="405">
       <c r="D405" s="4"/>
-      <c r="E405" s="23"/>
-      <c r="F405" s="24"/>
+      <c r="E405" s="25"/>
+      <c r="F405" s="26"/>
     </row>
     <row r="406">
       <c r="D406" s="4"/>
-      <c r="E406" s="23"/>
-      <c r="F406" s="24"/>
+      <c r="E406" s="25"/>
+      <c r="F406" s="26"/>
     </row>
     <row r="407">
       <c r="D407" s="4"/>
-      <c r="E407" s="23"/>
-      <c r="F407" s="24"/>
+      <c r="E407" s="25"/>
+      <c r="F407" s="26"/>
     </row>
     <row r="408">
       <c r="D408" s="4"/>
-      <c r="E408" s="23"/>
-      <c r="F408" s="24"/>
+      <c r="E408" s="25"/>
+      <c r="F408" s="26"/>
     </row>
     <row r="409">
       <c r="D409" s="4"/>
-      <c r="E409" s="23"/>
-      <c r="F409" s="24"/>
+      <c r="E409" s="25"/>
+      <c r="F409" s="26"/>
     </row>
     <row r="410">
       <c r="D410" s="4"/>
-      <c r="E410" s="23"/>
-      <c r="F410" s="24"/>
+      <c r="E410" s="25"/>
+      <c r="F410" s="26"/>
     </row>
     <row r="411">
       <c r="D411" s="4"/>
-      <c r="E411" s="23"/>
-      <c r="F411" s="24"/>
+      <c r="E411" s="25"/>
+      <c r="F411" s="26"/>
     </row>
     <row r="412">
       <c r="D412" s="4"/>
-      <c r="E412" s="23"/>
-      <c r="F412" s="24"/>
+      <c r="E412" s="25"/>
+      <c r="F412" s="26"/>
     </row>
     <row r="413">
       <c r="D413" s="4"/>
-      <c r="E413" s="23"/>
-      <c r="F413" s="24"/>
+      <c r="E413" s="25"/>
+      <c r="F413" s="26"/>
     </row>
     <row r="414">
       <c r="D414" s="4"/>
-      <c r="E414" s="23"/>
-      <c r="F414" s="24"/>
+      <c r="E414" s="25"/>
+      <c r="F414" s="26"/>
     </row>
     <row r="415">
       <c r="D415" s="4"/>
-      <c r="E415" s="23"/>
-      <c r="F415" s="24"/>
+      <c r="E415" s="25"/>
+      <c r="F415" s="26"/>
     </row>
     <row r="416">
       <c r="D416" s="4"/>
-      <c r="E416" s="23"/>
-      <c r="F416" s="24"/>
+      <c r="E416" s="25"/>
+      <c r="F416" s="26"/>
     </row>
     <row r="417">
       <c r="D417" s="4"/>
-      <c r="E417" s="23"/>
-      <c r="F417" s="24"/>
+      <c r="E417" s="25"/>
+      <c r="F417" s="26"/>
     </row>
     <row r="418">
       <c r="D418" s="4"/>
-      <c r="E418" s="23"/>
-      <c r="F418" s="24"/>
+      <c r="E418" s="25"/>
+      <c r="F418" s="26"/>
     </row>
     <row r="419">
       <c r="D419" s="4"/>
-      <c r="E419" s="23"/>
-      <c r="F419" s="24"/>
+      <c r="E419" s="25"/>
+      <c r="F419" s="26"/>
     </row>
     <row r="420">
       <c r="D420" s="4"/>
-      <c r="E420" s="23"/>
-      <c r="F420" s="24"/>
+      <c r="E420" s="25"/>
+      <c r="F420" s="26"/>
     </row>
     <row r="421">
       <c r="D421" s="4"/>
-      <c r="E421" s="23"/>
-      <c r="F421" s="24"/>
+      <c r="E421" s="25"/>
+      <c r="F421" s="26"/>
     </row>
     <row r="422">
       <c r="D422" s="4"/>
-      <c r="E422" s="23"/>
-      <c r="F422" s="24"/>
+      <c r="E422" s="25"/>
+      <c r="F422" s="26"/>
     </row>
     <row r="423">
       <c r="D423" s="4"/>
-      <c r="E423" s="23"/>
-      <c r="F423" s="24"/>
+      <c r="E423" s="25"/>
+      <c r="F423" s="26"/>
     </row>
     <row r="424">
       <c r="D424" s="4"/>
-      <c r="E424" s="23"/>
-      <c r="F424" s="24"/>
+      <c r="E424" s="25"/>
+      <c r="F424" s="26"/>
     </row>
     <row r="425">
       <c r="D425" s="4"/>
-      <c r="E425" s="23"/>
-      <c r="F425" s="24"/>
+      <c r="E425" s="25"/>
+      <c r="F425" s="26"/>
     </row>
     <row r="426">
       <c r="D426" s="4"/>
-      <c r="E426" s="23"/>
-      <c r="F426" s="24"/>
+      <c r="E426" s="25"/>
+      <c r="F426" s="26"/>
     </row>
     <row r="427">
       <c r="D427" s="4"/>
-      <c r="E427" s="23"/>
-      <c r="F427" s="24"/>
+      <c r="E427" s="25"/>
+      <c r="F427" s="26"/>
     </row>
     <row r="428">
       <c r="D428" s="4"/>
-      <c r="E428" s="23"/>
-      <c r="F428" s="24"/>
+      <c r="E428" s="25"/>
+      <c r="F428" s="26"/>
     </row>
     <row r="429">
       <c r="D429" s="4"/>
-      <c r="E429" s="23"/>
-      <c r="F429" s="24"/>
+      <c r="E429" s="25"/>
+      <c r="F429" s="26"/>
     </row>
     <row r="430">
       <c r="D430" s="4"/>
-      <c r="E430" s="23"/>
-      <c r="F430" s="24"/>
+      <c r="E430" s="25"/>
+      <c r="F430" s="26"/>
     </row>
     <row r="431">
       <c r="D431" s="4"/>
-      <c r="E431" s="23"/>
-      <c r="F431" s="24"/>
+      <c r="E431" s="25"/>
+      <c r="F431" s="26"/>
     </row>
     <row r="432">
       <c r="D432" s="4"/>
-      <c r="E432" s="23"/>
-      <c r="F432" s="24"/>
+      <c r="E432" s="25"/>
+      <c r="F432" s="26"/>
     </row>
     <row r="433">
       <c r="D433" s="4"/>
-      <c r="E433" s="23"/>
-      <c r="F433" s="24"/>
+      <c r="E433" s="25"/>
+      <c r="F433" s="26"/>
     </row>
     <row r="434">
       <c r="D434" s="4"/>
-      <c r="E434" s="23"/>
-      <c r="F434" s="24"/>
+      <c r="E434" s="25"/>
+      <c r="F434" s="26"/>
     </row>
     <row r="435">
       <c r="D435" s="4"/>
-      <c r="E435" s="23"/>
-      <c r="F435" s="24"/>
+      <c r="E435" s="25"/>
+      <c r="F435" s="26"/>
     </row>
     <row r="436">
       <c r="D436" s="4"/>
-      <c r="E436" s="23"/>
-      <c r="F436" s="24"/>
+      <c r="E436" s="25"/>
+      <c r="F436" s="26"/>
     </row>
     <row r="437">
       <c r="D437" s="4"/>
-      <c r="E437" s="23"/>
-      <c r="F437" s="24"/>
+      <c r="E437" s="25"/>
+      <c r="F437" s="26"/>
     </row>
     <row r="438">
       <c r="D438" s="4"/>
-      <c r="E438" s="23"/>
-      <c r="F438" s="24"/>
+      <c r="E438" s="25"/>
+      <c r="F438" s="26"/>
     </row>
     <row r="439">
       <c r="D439" s="4"/>
-      <c r="E439" s="23"/>
-      <c r="F439" s="24"/>
+      <c r="E439" s="25"/>
+      <c r="F439" s="26"/>
     </row>
     <row r="440">
       <c r="D440" s="4"/>
-      <c r="E440" s="23"/>
-      <c r="F440" s="24"/>
+      <c r="E440" s="25"/>
+      <c r="F440" s="26"/>
     </row>
     <row r="441">
       <c r="D441" s="4"/>
-      <c r="E441" s="23"/>
-      <c r="F441" s="24"/>
+      <c r="E441" s="25"/>
+      <c r="F441" s="26"/>
     </row>
     <row r="442">
       <c r="D442" s="4"/>
-      <c r="E442" s="23"/>
-      <c r="F442" s="24"/>
+      <c r="E442" s="25"/>
+      <c r="F442" s="26"/>
     </row>
     <row r="443">
       <c r="D443" s="4"/>
-      <c r="E443" s="23"/>
-      <c r="F443" s="24"/>
+      <c r="E443" s="25"/>
+      <c r="F443" s="26"/>
     </row>
     <row r="444">
       <c r="D444" s="4"/>
-      <c r="E444" s="23"/>
-      <c r="F444" s="24"/>
+      <c r="E444" s="25"/>
+      <c r="F444" s="26"/>
     </row>
     <row r="445">
       <c r="D445" s="4"/>
-      <c r="E445" s="23"/>
-      <c r="F445" s="24"/>
+      <c r="E445" s="25"/>
+      <c r="F445" s="26"/>
     </row>
     <row r="446">
       <c r="D446" s="4"/>
-      <c r="E446" s="23"/>
-      <c r="F446" s="24"/>
+      <c r="E446" s="25"/>
+      <c r="F446" s="26"/>
     </row>
     <row r="447">
       <c r="D447" s="4"/>
-      <c r="E447" s="23"/>
-      <c r="F447" s="24"/>
+      <c r="E447" s="25"/>
+      <c r="F447" s="26"/>
     </row>
     <row r="448">
       <c r="D448" s="4"/>
-      <c r="E448" s="23"/>
-      <c r="F448" s="24"/>
+      <c r="E448" s="25"/>
+      <c r="F448" s="26"/>
     </row>
     <row r="449">
       <c r="D449" s="4"/>
-      <c r="E449" s="23"/>
-      <c r="F449" s="24"/>
+      <c r="E449" s="25"/>
+      <c r="F449" s="26"/>
     </row>
     <row r="450">
       <c r="D450" s="4"/>
-      <c r="E450" s="23"/>
-      <c r="F450" s="24"/>
+      <c r="E450" s="25"/>
+      <c r="F450" s="26"/>
     </row>
     <row r="451">
       <c r="D451" s="4"/>
-      <c r="E451" s="23"/>
-      <c r="F451" s="24"/>
+      <c r="E451" s="25"/>
+      <c r="F451" s="26"/>
     </row>
     <row r="452">
       <c r="D452" s="4"/>
-      <c r="E452" s="23"/>
-      <c r="F452" s="24"/>
+      <c r="E452" s="25"/>
+      <c r="F452" s="26"/>
     </row>
     <row r="453">
       <c r="D453" s="4"/>
-      <c r="E453" s="23"/>
-      <c r="F453" s="24"/>
+      <c r="E453" s="25"/>
+      <c r="F453" s="26"/>
     </row>
     <row r="454">
       <c r="D454" s="4"/>
-      <c r="E454" s="23"/>
-      <c r="F454" s="24"/>
+      <c r="E454" s="25"/>
+      <c r="F454" s="26"/>
     </row>
     <row r="455">
       <c r="D455" s="4"/>
-      <c r="E455" s="23"/>
-      <c r="F455" s="24"/>
+      <c r="E455" s="25"/>
+      <c r="F455" s="26"/>
     </row>
     <row r="456">
       <c r="D456" s="4"/>
-      <c r="E456" s="23"/>
-      <c r="F456" s="24"/>
+      <c r="E456" s="25"/>
+      <c r="F456" s="26"/>
     </row>
     <row r="457">
       <c r="D457" s="4"/>
-      <c r="E457" s="23"/>
-      <c r="F457" s="24"/>
+      <c r="E457" s="25"/>
+      <c r="F457" s="26"/>
     </row>
     <row r="458">
       <c r="D458" s="4"/>
-      <c r="E458" s="23"/>
-      <c r="F458" s="24"/>
+      <c r="E458" s="25"/>
+      <c r="F458" s="26"/>
     </row>
     <row r="459">
       <c r="D459" s="4"/>
-      <c r="E459" s="23"/>
-      <c r="F459" s="24"/>
+      <c r="E459" s="25"/>
+      <c r="F459" s="26"/>
     </row>
     <row r="460">
       <c r="D460" s="4"/>
-      <c r="E460" s="23"/>
-      <c r="F460" s="24"/>
+      <c r="E460" s="25"/>
+      <c r="F460" s="26"/>
     </row>
     <row r="461">
       <c r="D461" s="4"/>
-      <c r="E461" s="23"/>
-      <c r="F461" s="24"/>
+      <c r="E461" s="25"/>
+      <c r="F461" s="26"/>
     </row>
     <row r="462">
       <c r="D462" s="4"/>
-      <c r="E462" s="23"/>
-      <c r="F462" s="24"/>
+      <c r="E462" s="25"/>
+      <c r="F462" s="26"/>
     </row>
     <row r="463">
       <c r="D463" s="4"/>
-      <c r="E463" s="23"/>
-      <c r="F463" s="24"/>
+      <c r="E463" s="25"/>
+      <c r="F463" s="26"/>
     </row>
     <row r="464">
       <c r="D464" s="4"/>
-      <c r="E464" s="23"/>
-      <c r="F464" s="24"/>
+      <c r="E464" s="25"/>
+      <c r="F464" s="26"/>
     </row>
     <row r="465">
       <c r="D465" s="4"/>
-      <c r="E465" s="23"/>
-      <c r="F465" s="24"/>
+      <c r="E465" s="25"/>
+      <c r="F465" s="26"/>
     </row>
     <row r="466">
       <c r="D466" s="4"/>
-      <c r="E466" s="23"/>
-      <c r="F466" s="24"/>
+      <c r="E466" s="25"/>
+      <c r="F466" s="26"/>
     </row>
     <row r="467">
       <c r="D467" s="4"/>
-      <c r="E467" s="23"/>
-      <c r="F467" s="24"/>
+      <c r="E467" s="25"/>
+      <c r="F467" s="26"/>
     </row>
     <row r="468">
       <c r="D468" s="4"/>
-      <c r="E468" s="23"/>
-      <c r="F468" s="24"/>
+      <c r="E468" s="25"/>
+      <c r="F468" s="26"/>
     </row>
     <row r="469">
       <c r="D469" s="4"/>
-      <c r="E469" s="23"/>
-      <c r="F469" s="24"/>
+      <c r="E469" s="25"/>
+      <c r="F469" s="26"/>
     </row>
     <row r="470">
       <c r="D470" s="4"/>
-      <c r="E470" s="23"/>
-      <c r="F470" s="24"/>
+      <c r="E470" s="25"/>
+      <c r="F470" s="26"/>
     </row>
     <row r="471">
       <c r="D471" s="4"/>
-      <c r="E471" s="23"/>
-      <c r="F471" s="24"/>
+      <c r="E471" s="25"/>
+      <c r="F471" s="26"/>
     </row>
     <row r="472">
       <c r="D472" s="4"/>
-      <c r="E472" s="23"/>
-      <c r="F472" s="24"/>
+      <c r="E472" s="25"/>
+      <c r="F472" s="26"/>
     </row>
     <row r="473">
       <c r="D473" s="4"/>
-      <c r="E473" s="23"/>
-      <c r="F473" s="24"/>
+      <c r="E473" s="25"/>
+      <c r="F473" s="26"/>
     </row>
     <row r="474">
       <c r="D474" s="4"/>
-      <c r="E474" s="23"/>
-      <c r="F474" s="24"/>
+      <c r="E474" s="25"/>
+      <c r="F474" s="26"/>
     </row>
     <row r="475">
       <c r="D475" s="4"/>
-      <c r="E475" s="23"/>
-      <c r="F475" s="24"/>
+      <c r="E475" s="25"/>
+      <c r="F475" s="26"/>
     </row>
     <row r="476">
       <c r="D476" s="4"/>
-      <c r="E476" s="23"/>
-      <c r="F476" s="24"/>
+      <c r="E476" s="25"/>
+      <c r="F476" s="26"/>
     </row>
     <row r="477">
       <c r="D477" s="4"/>
-      <c r="E477" s="23"/>
-      <c r="F477" s="24"/>
+      <c r="E477" s="25"/>
+      <c r="F477" s="26"/>
     </row>
     <row r="478">
       <c r="D478" s="4"/>
-      <c r="E478" s="23"/>
-      <c r="F478" s="24"/>
+      <c r="E478" s="25"/>
+      <c r="F478" s="26"/>
     </row>
     <row r="479">
       <c r="D479" s="4"/>
-      <c r="E479" s="23"/>
-      <c r="F479" s="24"/>
+      <c r="E479" s="25"/>
+      <c r="F479" s="26"/>
     </row>
     <row r="480">
       <c r="D480" s="4"/>
-      <c r="E480" s="23"/>
-      <c r="F480" s="24"/>
+      <c r="E480" s="25"/>
+      <c r="F480" s="26"/>
     </row>
     <row r="481">
       <c r="D481" s="4"/>
-      <c r="E481" s="23"/>
-      <c r="F481" s="24"/>
+      <c r="E481" s="25"/>
+      <c r="F481" s="26"/>
     </row>
     <row r="482">
       <c r="D482" s="4"/>
-      <c r="E482" s="23"/>
-      <c r="F482" s="24"/>
+      <c r="E482" s="25"/>
+      <c r="F482" s="26"/>
     </row>
     <row r="483">
       <c r="D483" s="4"/>
-      <c r="E483" s="23"/>
-      <c r="F483" s="24"/>
+      <c r="E483" s="25"/>
+      <c r="F483" s="26"/>
     </row>
     <row r="484">
       <c r="D484" s="4"/>
-      <c r="E484" s="23"/>
-      <c r="F484" s="24"/>
+      <c r="E484" s="25"/>
+      <c r="F484" s="26"/>
     </row>
     <row r="485">
       <c r="D485" s="4"/>
-      <c r="E485" s="23"/>
-      <c r="F485" s="24"/>
+      <c r="E485" s="25"/>
+      <c r="F485" s="26"/>
     </row>
     <row r="486">
       <c r="D486" s="4"/>
-      <c r="E486" s="23"/>
-      <c r="F486" s="24"/>
+      <c r="E486" s="25"/>
+      <c r="F486" s="26"/>
     </row>
     <row r="487">
       <c r="D487" s="4"/>
-      <c r="E487" s="23"/>
-      <c r="F487" s="24"/>
+      <c r="E487" s="25"/>
+      <c r="F487" s="26"/>
     </row>
     <row r="488">
       <c r="D488" s="4"/>
-      <c r="E488" s="23"/>
-      <c r="F488" s="24"/>
+      <c r="E488" s="25"/>
+      <c r="F488" s="26"/>
     </row>
     <row r="489">
       <c r="D489" s="4"/>
-      <c r="E489" s="23"/>
-      <c r="F489" s="24"/>
+      <c r="E489" s="25"/>
+      <c r="F489" s="26"/>
     </row>
     <row r="490">
       <c r="D490" s="4"/>
-      <c r="E490" s="23"/>
-      <c r="F490" s="24"/>
+      <c r="E490" s="25"/>
+      <c r="F490" s="26"/>
     </row>
     <row r="491">
       <c r="D491" s="4"/>
-      <c r="E491" s="23"/>
-      <c r="F491" s="24"/>
+      <c r="E491" s="25"/>
+      <c r="F491" s="26"/>
     </row>
     <row r="492">
       <c r="D492" s="4"/>
-      <c r="E492" s="23"/>
-      <c r="F492" s="24"/>
+      <c r="E492" s="25"/>
+      <c r="F492" s="26"/>
     </row>
     <row r="493">
       <c r="D493" s="4"/>
-      <c r="E493" s="23"/>
-      <c r="F493" s="24"/>
+      <c r="E493" s="25"/>
+      <c r="F493" s="26"/>
     </row>
     <row r="494">
       <c r="D494" s="4"/>
-      <c r="E494" s="23"/>
-      <c r="F494" s="24"/>
+      <c r="E494" s="25"/>
+      <c r="F494" s="26"/>
     </row>
     <row r="495">
       <c r="D495" s="4"/>
-      <c r="E495" s="23"/>
-      <c r="F495" s="24"/>
+      <c r="E495" s="25"/>
+      <c r="F495" s="26"/>
     </row>
     <row r="496">
       <c r="D496" s="4"/>
-      <c r="E496" s="23"/>
-      <c r="F496" s="24"/>
+      <c r="E496" s="25"/>
+      <c r="F496" s="26"/>
     </row>
     <row r="497">
       <c r="D497" s="4"/>
-      <c r="E497" s="23"/>
-      <c r="F497" s="24"/>
+      <c r="E497" s="25"/>
+      <c r="F497" s="26"/>
     </row>
     <row r="498">
       <c r="D498" s="4"/>
-      <c r="E498" s="23"/>
-      <c r="F498" s="24"/>
+      <c r="E498" s="25"/>
+      <c r="F498" s="26"/>
     </row>
     <row r="499">
       <c r="D499" s="4"/>
-      <c r="E499" s="23"/>
-      <c r="F499" s="24"/>
+      <c r="E499" s="25"/>
+      <c r="F499" s="26"/>
     </row>
     <row r="500">
       <c r="D500" s="4"/>
-      <c r="E500" s="23"/>
-      <c r="F500" s="24"/>
+      <c r="E500" s="25"/>
+      <c r="F500" s="26"/>
     </row>
     <row r="501">
       <c r="D501" s="4"/>
-      <c r="E501" s="23"/>
-      <c r="F501" s="24"/>
+      <c r="E501" s="25"/>
+      <c r="F501" s="26"/>
     </row>
     <row r="502">
       <c r="D502" s="4"/>
-      <c r="E502" s="23"/>
-      <c r="F502" s="24"/>
+      <c r="E502" s="25"/>
+      <c r="F502" s="26"/>
     </row>
     <row r="503">
       <c r="D503" s="4"/>
-      <c r="E503" s="23"/>
-      <c r="F503" s="24"/>
+      <c r="E503" s="25"/>
+      <c r="F503" s="26"/>
     </row>
     <row r="504">
       <c r="D504" s="4"/>
-      <c r="E504" s="23"/>
-      <c r="F504" s="24"/>
+      <c r="E504" s="25"/>
+      <c r="F504" s="26"/>
     </row>
     <row r="505">
       <c r="D505" s="4"/>
-      <c r="E505" s="23"/>
-      <c r="F505" s="24"/>
+      <c r="E505" s="25"/>
+      <c r="F505" s="26"/>
     </row>
     <row r="506">
       <c r="D506" s="4"/>
-      <c r="E506" s="23"/>
-      <c r="F506" s="24"/>
+      <c r="E506" s="25"/>
+      <c r="F506" s="26"/>
     </row>
     <row r="507">
       <c r="D507" s="4"/>
-      <c r="E507" s="23"/>
-      <c r="F507" s="24"/>
+      <c r="E507" s="25"/>
+      <c r="F507" s="26"/>
     </row>
     <row r="508">
       <c r="D508" s="4"/>
-      <c r="E508" s="23"/>
-      <c r="F508" s="24"/>
+      <c r="E508" s="25"/>
+      <c r="F508" s="26"/>
     </row>
     <row r="509">
       <c r="D509" s="4"/>
-      <c r="E509" s="23"/>
-      <c r="F509" s="24"/>
+      <c r="E509" s="25"/>
+      <c r="F509" s="26"/>
     </row>
     <row r="510">
       <c r="D510" s="4"/>
-      <c r="E510" s="23"/>
-      <c r="F510" s="24"/>
+      <c r="E510" s="25"/>
+      <c r="F510" s="26"/>
     </row>
     <row r="511">
       <c r="D511" s="4"/>
-      <c r="E511" s="23"/>
-      <c r="F511" s="24"/>
+      <c r="E511" s="25"/>
+      <c r="F511" s="26"/>
     </row>
     <row r="512">
       <c r="D512" s="4"/>
-      <c r="E512" s="23"/>
-      <c r="F512" s="24"/>
+      <c r="E512" s="25"/>
+      <c r="F512" s="26"/>
     </row>
     <row r="513">
       <c r="D513" s="4"/>
-      <c r="E513" s="23"/>
-      <c r="F513" s="24"/>
+      <c r="E513" s="25"/>
+      <c r="F513" s="26"/>
     </row>
     <row r="514">
       <c r="D514" s="4"/>
-      <c r="E514" s="23"/>
-      <c r="F514" s="24"/>
+      <c r="E514" s="25"/>
+      <c r="F514" s="26"/>
     </row>
     <row r="515">
       <c r="D515" s="4"/>
-      <c r="E515" s="23"/>
-      <c r="F515" s="24"/>
+      <c r="E515" s="25"/>
+      <c r="F515" s="26"/>
     </row>
     <row r="516">
       <c r="D516" s="4"/>
-      <c r="E516" s="23"/>
-      <c r="F516" s="24"/>
+      <c r="E516" s="25"/>
+      <c r="F516" s="26"/>
     </row>
     <row r="517">
       <c r="D517" s="4"/>
-      <c r="E517" s="23"/>
-      <c r="F517" s="24"/>
+      <c r="E517" s="25"/>
+      <c r="F517" s="26"/>
     </row>
     <row r="518">
       <c r="D518" s="4"/>
-      <c r="E518" s="23"/>
-      <c r="F518" s="24"/>
+      <c r="E518" s="25"/>
+      <c r="F518" s="26"/>
     </row>
     <row r="519">
       <c r="D519" s="4"/>
-      <c r="E519" s="23"/>
-      <c r="F519" s="24"/>
+      <c r="E519" s="25"/>
+      <c r="F519" s="26"/>
     </row>
     <row r="520">
       <c r="D520" s="4"/>
-      <c r="E520" s="23"/>
-      <c r="F520" s="24"/>
+      <c r="E520" s="25"/>
+      <c r="F520" s="26"/>
     </row>
     <row r="521">
       <c r="D521" s="4"/>
-      <c r="E521" s="23"/>
-      <c r="F521" s="24"/>
+      <c r="E521" s="25"/>
+      <c r="F521" s="26"/>
     </row>
     <row r="522">
       <c r="D522" s="4"/>
-      <c r="E522" s="23"/>
-      <c r="F522" s="24"/>
+      <c r="E522" s="25"/>
+      <c r="F522" s="26"/>
     </row>
     <row r="523">
       <c r="D523" s="4"/>
-      <c r="E523" s="23"/>
-      <c r="F523" s="24"/>
+      <c r="E523" s="25"/>
+      <c r="F523" s="26"/>
     </row>
     <row r="524">
       <c r="D524" s="4"/>
-      <c r="E524" s="23"/>
-      <c r="F524" s="24"/>
+      <c r="E524" s="25"/>
+      <c r="F524" s="26"/>
     </row>
     <row r="525">
       <c r="D525" s="4"/>
-      <c r="E525" s="23"/>
-      <c r="F525" s="24"/>
+      <c r="E525" s="25"/>
+      <c r="F525" s="26"/>
     </row>
     <row r="526">
       <c r="D526" s="4"/>
-      <c r="E526" s="23"/>
-      <c r="F526" s="24"/>
+      <c r="E526" s="25"/>
+      <c r="F526" s="26"/>
     </row>
     <row r="527">
       <c r="D527" s="4"/>
-      <c r="E527" s="23"/>
-      <c r="F527" s="24"/>
+      <c r="E527" s="25"/>
+      <c r="F527" s="26"/>
     </row>
     <row r="528">
       <c r="D528" s="4"/>
-      <c r="E528" s="23"/>
-      <c r="F528" s="24"/>
+      <c r="E528" s="25"/>
+      <c r="F528" s="26"/>
     </row>
     <row r="529">
       <c r="D529" s="4"/>
-      <c r="E529" s="23"/>
-      <c r="F529" s="24"/>
+      <c r="E529" s="25"/>
+      <c r="F529" s="26"/>
     </row>
     <row r="530">
       <c r="D530" s="4"/>
-      <c r="E530" s="23"/>
-      <c r="F530" s="24"/>
+      <c r="E530" s="25"/>
+      <c r="F530" s="26"/>
     </row>
     <row r="531">
       <c r="D531" s="4"/>
-      <c r="E531" s="23"/>
-      <c r="F531" s="24"/>
+      <c r="E531" s="25"/>
+      <c r="F531" s="26"/>
     </row>
     <row r="532">
       <c r="D532" s="4"/>
-      <c r="E532" s="23"/>
-      <c r="F532" s="24"/>
+      <c r="E532" s="25"/>
+      <c r="F532" s="26"/>
     </row>
     <row r="533">
       <c r="D533" s="4"/>
-      <c r="E533" s="23"/>
-      <c r="F533" s="24"/>
+      <c r="E533" s="25"/>
+      <c r="F533" s="26"/>
     </row>
     <row r="534">
       <c r="D534" s="4"/>
-      <c r="E534" s="23"/>
-      <c r="F534" s="24"/>
+      <c r="E534" s="25"/>
+      <c r="F534" s="26"/>
     </row>
     <row r="535">
       <c r="D535" s="4"/>
-      <c r="E535" s="23"/>
-      <c r="F535" s="24"/>
+      <c r="E535" s="25"/>
+      <c r="F535" s="26"/>
     </row>
     <row r="536">
       <c r="D536" s="4"/>
-      <c r="E536" s="23"/>
-      <c r="F536" s="24"/>
+      <c r="E536" s="25"/>
+      <c r="F536" s="26"/>
     </row>
     <row r="537">
       <c r="D537" s="4"/>
-      <c r="E537" s="23"/>
-      <c r="F537" s="24"/>
+      <c r="E537" s="25"/>
+      <c r="F537" s="26"/>
     </row>
     <row r="538">
       <c r="D538" s="4"/>
-      <c r="E538" s="23"/>
-      <c r="F538" s="24"/>
+      <c r="E538" s="25"/>
+      <c r="F538" s="26"/>
     </row>
     <row r="539">
       <c r="D539" s="4"/>
-      <c r="E539" s="23"/>
-      <c r="F539" s="24"/>
+      <c r="E539" s="25"/>
+      <c r="F539" s="26"/>
     </row>
     <row r="540">
       <c r="D540" s="4"/>
-      <c r="E540" s="23"/>
-      <c r="F540" s="24"/>
+      <c r="E540" s="25"/>
+      <c r="F540" s="26"/>
     </row>
     <row r="541">
       <c r="D541" s="4"/>
-      <c r="E541" s="23"/>
-      <c r="F541" s="24"/>
+      <c r="E541" s="25"/>
+      <c r="F541" s="26"/>
     </row>
     <row r="542">
       <c r="D542" s="4"/>
-      <c r="E542" s="23"/>
-      <c r="F542" s="24"/>
+      <c r="E542" s="25"/>
+      <c r="F542" s="26"/>
     </row>
     <row r="543">
       <c r="D543" s="4"/>
-      <c r="E543" s="23"/>
-      <c r="F543" s="24"/>
+      <c r="E543" s="25"/>
+      <c r="F543" s="26"/>
     </row>
     <row r="544">
       <c r="D544" s="4"/>
-      <c r="E544" s="23"/>
-      <c r="F544" s="24"/>
+      <c r="E544" s="25"/>
+      <c r="F544" s="26"/>
     </row>
     <row r="545">
       <c r="D545" s="4"/>
-      <c r="E545" s="23"/>
-      <c r="F545" s="24"/>
+      <c r="E545" s="25"/>
+      <c r="F545" s="26"/>
     </row>
     <row r="546">
       <c r="D546" s="4"/>
-      <c r="E546" s="23"/>
-      <c r="F546" s="24"/>
+      <c r="E546" s="25"/>
+      <c r="F546" s="26"/>
     </row>
     <row r="547">
       <c r="D547" s="4"/>
-      <c r="E547" s="23"/>
-      <c r="F547" s="24"/>
+      <c r="E547" s="25"/>
+      <c r="F547" s="26"/>
     </row>
     <row r="548">
       <c r="D548" s="4"/>
-      <c r="E548" s="23"/>
-      <c r="F548" s="24"/>
+      <c r="E548" s="25"/>
+      <c r="F548" s="26"/>
     </row>
     <row r="549">
       <c r="D549" s="4"/>
-      <c r="E549" s="23"/>
-      <c r="F549" s="24"/>
+      <c r="E549" s="25"/>
+      <c r="F549" s="26"/>
     </row>
     <row r="550">
       <c r="D550" s="4"/>
-      <c r="E550" s="23"/>
-      <c r="F550" s="24"/>
+      <c r="E550" s="25"/>
+      <c r="F550" s="26"/>
     </row>
     <row r="551">
       <c r="D551" s="4"/>
-      <c r="E551" s="23"/>
-      <c r="F551" s="24"/>
+      <c r="E551" s="25"/>
+      <c r="F551" s="26"/>
     </row>
     <row r="552">
       <c r="D552" s="4"/>
-      <c r="E552" s="23"/>
-      <c r="F552" s="24"/>
+      <c r="E552" s="25"/>
+      <c r="F552" s="26"/>
     </row>
     <row r="553">
       <c r="D553" s="4"/>
-      <c r="E553" s="23"/>
-      <c r="F553" s="24"/>
+      <c r="E553" s="25"/>
+      <c r="F553" s="26"/>
     </row>
     <row r="554">
       <c r="D554" s="4"/>
-      <c r="E554" s="23"/>
-      <c r="F554" s="24"/>
+      <c r="E554" s="25"/>
+      <c r="F554" s="26"/>
     </row>
     <row r="555">
       <c r="D555" s="4"/>
-      <c r="E555" s="23"/>
-      <c r="F555" s="24"/>
+      <c r="E555" s="25"/>
+      <c r="F555" s="26"/>
     </row>
     <row r="556">
       <c r="D556" s="4"/>
-      <c r="E556" s="23"/>
-      <c r="F556" s="24"/>
+      <c r="E556" s="25"/>
+      <c r="F556" s="26"/>
     </row>
     <row r="557">
       <c r="D557" s="4"/>
-      <c r="E557" s="23"/>
-      <c r="F557" s="24"/>
+      <c r="E557" s="25"/>
+      <c r="F557" s="26"/>
     </row>
     <row r="558">
       <c r="D558" s="4"/>
-      <c r="E558" s="23"/>
-      <c r="F558" s="24"/>
+      <c r="E558" s="25"/>
+      <c r="F558" s="26"/>
     </row>
     <row r="559">
       <c r="D559" s="4"/>
-      <c r="E559" s="23"/>
-      <c r="F559" s="24"/>
+      <c r="E559" s="25"/>
+      <c r="F559" s="26"/>
     </row>
     <row r="560">
       <c r="D560" s="4"/>
-      <c r="E560" s="23"/>
-      <c r="F560" s="24"/>
+      <c r="E560" s="25"/>
+      <c r="F560" s="26"/>
     </row>
     <row r="561">
       <c r="D561" s="4"/>
-      <c r="E561" s="23"/>
-      <c r="F561" s="24"/>
+      <c r="E561" s="25"/>
+      <c r="F561" s="26"/>
     </row>
     <row r="562">
       <c r="D562" s="4"/>
-      <c r="E562" s="23"/>
-      <c r="F562" s="24"/>
+      <c r="E562" s="25"/>
+      <c r="F562" s="26"/>
     </row>
     <row r="563">
       <c r="D563" s="4"/>
-      <c r="E563" s="23"/>
-      <c r="F563" s="24"/>
+      <c r="E563" s="25"/>
+      <c r="F563" s="26"/>
     </row>
     <row r="564">
       <c r="D564" s="4"/>
-      <c r="E564" s="23"/>
-      <c r="F564" s="24"/>
+      <c r="E564" s="25"/>
+      <c r="F564" s="26"/>
     </row>
     <row r="565">
       <c r="D565" s="4"/>
-      <c r="E565" s="23"/>
-      <c r="F565" s="24"/>
+      <c r="E565" s="25"/>
+      <c r="F565" s="26"/>
     </row>
     <row r="566">
       <c r="D566" s="4"/>
-      <c r="E566" s="23"/>
-      <c r="F566" s="24"/>
+      <c r="E566" s="25"/>
+      <c r="F566" s="26"/>
     </row>
     <row r="567">
       <c r="D567" s="4"/>
-      <c r="E567" s="23"/>
-      <c r="F567" s="24"/>
+      <c r="E567" s="25"/>
+      <c r="F567" s="26"/>
     </row>
     <row r="568">
       <c r="D568" s="4"/>
-      <c r="E568" s="23"/>
-      <c r="F568" s="24"/>
+      <c r="E568" s="25"/>
+      <c r="F568" s="26"/>
     </row>
     <row r="569">
       <c r="D569" s="4"/>
-      <c r="E569" s="23"/>
-      <c r="F569" s="24"/>
+      <c r="E569" s="25"/>
+      <c r="F569" s="26"/>
     </row>
     <row r="570">
       <c r="D570" s="4"/>
-      <c r="E570" s="23"/>
-      <c r="F570" s="24"/>
+      <c r="E570" s="25"/>
+      <c r="F570" s="26"/>
     </row>
     <row r="571">
       <c r="D571" s="4"/>
-      <c r="E571" s="23"/>
-      <c r="F571" s="24"/>
+      <c r="E571" s="25"/>
+      <c r="F571" s="26"/>
     </row>
     <row r="572">
       <c r="D572" s="4"/>
-      <c r="E572" s="23"/>
-      <c r="F572" s="24"/>
+      <c r="E572" s="25"/>
+      <c r="F572" s="26"/>
     </row>
     <row r="573">
       <c r="D573" s="4"/>
-      <c r="E573" s="23"/>
-      <c r="F573" s="24"/>
+      <c r="E573" s="25"/>
+      <c r="F573" s="26"/>
     </row>
     <row r="574">
       <c r="D574" s="4"/>
-      <c r="E574" s="23"/>
-      <c r="F574" s="24"/>
+      <c r="E574" s="25"/>
+      <c r="F574" s="26"/>
     </row>
     <row r="575">
       <c r="D575" s="4"/>
-      <c r="E575" s="23"/>
-      <c r="F575" s="24"/>
+      <c r="E575" s="25"/>
+      <c r="F575" s="26"/>
     </row>
     <row r="576">
       <c r="D576" s="4"/>
-      <c r="E576" s="23"/>
-      <c r="F576" s="24"/>
+      <c r="E576" s="25"/>
+      <c r="F576" s="26"/>
     </row>
     <row r="577">
       <c r="D577" s="4"/>
-      <c r="E577" s="23"/>
-      <c r="F577" s="24"/>
+      <c r="E577" s="25"/>
+      <c r="F577" s="26"/>
     </row>
     <row r="578">
       <c r="D578" s="4"/>
-      <c r="E578" s="23"/>
-      <c r="F578" s="24"/>
+      <c r="E578" s="25"/>
+      <c r="F578" s="26"/>
     </row>
     <row r="579">
       <c r="D579" s="4"/>
-      <c r="E579" s="23"/>
-      <c r="F579" s="24"/>
+      <c r="E579" s="25"/>
+      <c r="F579" s="26"/>
     </row>
     <row r="580">
       <c r="D580" s="4"/>
-      <c r="E580" s="23"/>
-      <c r="F580" s="24"/>
+      <c r="E580" s="25"/>
+      <c r="F580" s="26"/>
     </row>
     <row r="581">
       <c r="D581" s="4"/>
-      <c r="E581" s="23"/>
-      <c r="F581" s="24"/>
+      <c r="E581" s="25"/>
+      <c r="F581" s="26"/>
     </row>
     <row r="582">
       <c r="D582" s="4"/>
-      <c r="E582" s="23"/>
-      <c r="F582" s="24"/>
+      <c r="E582" s="25"/>
+      <c r="F582" s="26"/>
     </row>
     <row r="583">
       <c r="D583" s="4"/>
-      <c r="E583" s="23"/>
-      <c r="F583" s="24"/>
+      <c r="E583" s="25"/>
+      <c r="F583" s="26"/>
     </row>
     <row r="584">
       <c r="D584" s="4"/>
-      <c r="E584" s="23"/>
-      <c r="F584" s="24"/>
+      <c r="E584" s="25"/>
+      <c r="F584" s="26"/>
     </row>
     <row r="585">
       <c r="D585" s="4"/>
-      <c r="E585" s="23"/>
-      <c r="F585" s="24"/>
+      <c r="E585" s="25"/>
+      <c r="F585" s="26"/>
     </row>
     <row r="586">
       <c r="D586" s="4"/>
-      <c r="E586" s="23"/>
-      <c r="F586" s="24"/>
+      <c r="E586" s="25"/>
+      <c r="F586" s="26"/>
     </row>
     <row r="587">
       <c r="D587" s="4"/>
-      <c r="E587" s="23"/>
-      <c r="F587" s="24"/>
+      <c r="E587" s="25"/>
+      <c r="F587" s="26"/>
     </row>
     <row r="588">
       <c r="D588" s="4"/>
-      <c r="E588" s="23"/>
-      <c r="F588" s="24"/>
+      <c r="E588" s="25"/>
+      <c r="F588" s="26"/>
     </row>
     <row r="589">
       <c r="D589" s="4"/>
-      <c r="E589" s="23"/>
-      <c r="F589" s="24"/>
+      <c r="E589" s="25"/>
+      <c r="F589" s="26"/>
     </row>
     <row r="590">
       <c r="D590" s="4"/>
-      <c r="E590" s="23"/>
-      <c r="F590" s="24"/>
+      <c r="E590" s="25"/>
+      <c r="F590" s="26"/>
     </row>
     <row r="591">
       <c r="D591" s="4"/>
-      <c r="E591" s="23"/>
-      <c r="F591" s="24"/>
+      <c r="E591" s="25"/>
+      <c r="F591" s="26"/>
     </row>
     <row r="592">
       <c r="D592" s="4"/>
-      <c r="E592" s="23"/>
-      <c r="F592" s="24"/>
+      <c r="E592" s="25"/>
+      <c r="F592" s="26"/>
     </row>
     <row r="593">
       <c r="D593" s="4"/>
-      <c r="E593" s="23"/>
-      <c r="F593" s="24"/>
+      <c r="E593" s="25"/>
+      <c r="F593" s="26"/>
     </row>
     <row r="594">
       <c r="D594" s="4"/>
-      <c r="E594" s="23"/>
-      <c r="F594" s="24"/>
+      <c r="E594" s="25"/>
+      <c r="F594" s="26"/>
     </row>
     <row r="595">
       <c r="D595" s="4"/>
-      <c r="E595" s="23"/>
-      <c r="F595" s="24"/>
+      <c r="E595" s="25"/>
+      <c r="F595" s="26"/>
     </row>
     <row r="596">
       <c r="D596" s="4"/>
-      <c r="E596" s="23"/>
-      <c r="F596" s="24"/>
+      <c r="E596" s="25"/>
+      <c r="F596" s="26"/>
     </row>
     <row r="597">
       <c r="D597" s="4"/>
-      <c r="E597" s="23"/>
-      <c r="F597" s="24"/>
+      <c r="E597" s="25"/>
+      <c r="F597" s="26"/>
     </row>
     <row r="598">
       <c r="D598" s="4"/>
-      <c r="E598" s="23"/>
-      <c r="F598" s="24"/>
+      <c r="E598" s="25"/>
+      <c r="F598" s="26"/>
     </row>
     <row r="599">
       <c r="D599" s="4"/>
-      <c r="E599" s="23"/>
-      <c r="F599" s="24"/>
+      <c r="E599" s="25"/>
+      <c r="F599" s="26"/>
     </row>
     <row r="600">
       <c r="D600" s="4"/>
-      <c r="E600" s="23"/>
-      <c r="F600" s="24"/>
+      <c r="E600" s="25"/>
+      <c r="F600" s="26"/>
     </row>
     <row r="601">
       <c r="D601" s="4"/>
-      <c r="E601" s="23"/>
-      <c r="F601" s="24"/>
+      <c r="E601" s="25"/>
+      <c r="F601" s="26"/>
     </row>
     <row r="602">
       <c r="D602" s="4"/>
-      <c r="E602" s="23"/>
-      <c r="F602" s="24"/>
+      <c r="E602" s="25"/>
+      <c r="F602" s="26"/>
     </row>
     <row r="603">
       <c r="D603" s="4"/>
-      <c r="E603" s="23"/>
-      <c r="F603" s="24"/>
+      <c r="E603" s="25"/>
+      <c r="F603" s="26"/>
     </row>
     <row r="604">
       <c r="D604" s="4"/>
-      <c r="E604" s="23"/>
-      <c r="F604" s="24"/>
+      <c r="E604" s="25"/>
+      <c r="F604" s="26"/>
     </row>
     <row r="605">
       <c r="D605" s="4"/>
-      <c r="E605" s="23"/>
-      <c r="F605" s="24"/>
+      <c r="E605" s="25"/>
+      <c r="F605" s="26"/>
     </row>
     <row r="606">
       <c r="D606" s="4"/>
-      <c r="E606" s="23"/>
-      <c r="F606" s="24"/>
+      <c r="E606" s="25"/>
+      <c r="F606" s="26"/>
     </row>
     <row r="607">
       <c r="D607" s="4"/>
-      <c r="E607" s="23"/>
-      <c r="F607" s="24"/>
+      <c r="E607" s="25"/>
+      <c r="F607" s="26"/>
     </row>
     <row r="608">
       <c r="D608" s="4"/>
-      <c r="E608" s="23"/>
-      <c r="F608" s="24"/>
+      <c r="E608" s="25"/>
+      <c r="F608" s="26"/>
     </row>
     <row r="609">
       <c r="D609" s="4"/>
-      <c r="E609" s="23"/>
-      <c r="F609" s="24"/>
+      <c r="E609" s="25"/>
+      <c r="F609" s="26"/>
     </row>
     <row r="610">
       <c r="D610" s="4"/>
-      <c r="E610" s="23"/>
-      <c r="F610" s="24"/>
+      <c r="E610" s="25"/>
+      <c r="F610" s="26"/>
     </row>
     <row r="611">
       <c r="D611" s="4"/>
-      <c r="E611" s="23"/>
-      <c r="F611" s="24"/>
+      <c r="E611" s="25"/>
+      <c r="F611" s="26"/>
     </row>
     <row r="612">
       <c r="D612" s="4"/>
-      <c r="E612" s="23"/>
-      <c r="F612" s="24"/>
+      <c r="E612" s="25"/>
+      <c r="F612" s="26"/>
     </row>
     <row r="613">
       <c r="D613" s="4"/>
-      <c r="E613" s="23"/>
-      <c r="F613" s="24"/>
+      <c r="E613" s="25"/>
+      <c r="F613" s="26"/>
     </row>
     <row r="614">
       <c r="D614" s="4"/>
-      <c r="E614" s="23"/>
-      <c r="F614" s="24"/>
+      <c r="E614" s="25"/>
+      <c r="F614" s="26"/>
     </row>
     <row r="615">
       <c r="D615" s="4"/>
-      <c r="E615" s="23"/>
-      <c r="F615" s="24"/>
+      <c r="E615" s="25"/>
+      <c r="F615" s="26"/>
     </row>
     <row r="616">
       <c r="D616" s="4"/>
-      <c r="E616" s="23"/>
-      <c r="F616" s="24"/>
+      <c r="E616" s="25"/>
+      <c r="F616" s="26"/>
     </row>
     <row r="617">
       <c r="D617" s="4"/>
-      <c r="E617" s="23"/>
-      <c r="F617" s="24"/>
+      <c r="E617" s="25"/>
+      <c r="F617" s="26"/>
     </row>
     <row r="618">
       <c r="D618" s="4"/>
-      <c r="E618" s="23"/>
-      <c r="F618" s="24"/>
+      <c r="E618" s="25"/>
+      <c r="F618" s="26"/>
     </row>
     <row r="619">
       <c r="D619" s="4"/>
-      <c r="E619" s="23"/>
-      <c r="F619" s="24"/>
+      <c r="E619" s="25"/>
+      <c r="F619" s="26"/>
     </row>
     <row r="620">
       <c r="D620" s="4"/>
-      <c r="E620" s="23"/>
-      <c r="F620" s="24"/>
+      <c r="E620" s="25"/>
+      <c r="F620" s="26"/>
     </row>
     <row r="621">
       <c r="D621" s="4"/>
-      <c r="E621" s="23"/>
-      <c r="F621" s="24"/>
+      <c r="E621" s="25"/>
+      <c r="F621" s="26"/>
     </row>
     <row r="622">
       <c r="D622" s="4"/>
-      <c r="E622" s="23"/>
-      <c r="F622" s="24"/>
+      <c r="E622" s="25"/>
+      <c r="F622" s="26"/>
     </row>
     <row r="623">
       <c r="D623" s="4"/>
-      <c r="E623" s="23"/>
-      <c r="F623" s="24"/>
+      <c r="E623" s="25"/>
+      <c r="F623" s="26"/>
     </row>
     <row r="624">
       <c r="D624" s="4"/>
-      <c r="E624" s="23"/>
-      <c r="F624" s="24"/>
+      <c r="E624" s="25"/>
+      <c r="F624" s="26"/>
     </row>
     <row r="625">
       <c r="D625" s="4"/>
-      <c r="E625" s="23"/>
-      <c r="F625" s="24"/>
+      <c r="E625" s="25"/>
+      <c r="F625" s="26"/>
     </row>
     <row r="626">
       <c r="D626" s="4"/>
-      <c r="E626" s="23"/>
-      <c r="F626" s="24"/>
+      <c r="E626" s="25"/>
+      <c r="F626" s="26"/>
     </row>
     <row r="627">
       <c r="D627" s="4"/>
-      <c r="E627" s="23"/>
-      <c r="F627" s="24"/>
+      <c r="E627" s="25"/>
+      <c r="F627" s="26"/>
     </row>
     <row r="628">
       <c r="D628" s="4"/>
-      <c r="E628" s="23"/>
-      <c r="F628" s="24"/>
+      <c r="E628" s="25"/>
+      <c r="F628" s="26"/>
     </row>
     <row r="629">
       <c r="D629" s="4"/>
-      <c r="E629" s="23"/>
-      <c r="F629" s="24"/>
+      <c r="E629" s="25"/>
+      <c r="F629" s="26"/>
     </row>
     <row r="630">
       <c r="D630" s="4"/>
-      <c r="E630" s="23"/>
-      <c r="F630" s="24"/>
+      <c r="E630" s="25"/>
+      <c r="F630" s="26"/>
     </row>
     <row r="631">
       <c r="D631" s="4"/>
-      <c r="E631" s="23"/>
-      <c r="F631" s="24"/>
+      <c r="E631" s="25"/>
+      <c r="F631" s="26"/>
     </row>
     <row r="632">
       <c r="D632" s="4"/>
-      <c r="E632" s="23"/>
-      <c r="F632" s="24"/>
+      <c r="E632" s="25"/>
+      <c r="F632" s="26"/>
     </row>
     <row r="633">
       <c r="D633" s="4"/>
-      <c r="E633" s="23"/>
-      <c r="F633" s="24"/>
+      <c r="E633" s="25"/>
+      <c r="F633" s="26"/>
     </row>
     <row r="634">
       <c r="D634" s="4"/>
-      <c r="E634" s="23"/>
-      <c r="F634" s="24"/>
+      <c r="E634" s="25"/>
+      <c r="F634" s="26"/>
     </row>
     <row r="635">
       <c r="D635" s="4"/>
-      <c r="E635" s="23"/>
-      <c r="F635" s="24"/>
+      <c r="E635" s="25"/>
+      <c r="F635" s="26"/>
     </row>
     <row r="636">
       <c r="D636" s="4"/>
-      <c r="E636" s="23"/>
-      <c r="F636" s="24"/>
+      <c r="E636" s="25"/>
+      <c r="F636" s="26"/>
     </row>
     <row r="637">
       <c r="D637" s="4"/>
-      <c r="E637" s="23"/>
-      <c r="F637" s="24"/>
+      <c r="E637" s="25"/>
+      <c r="F637" s="26"/>
     </row>
     <row r="638">
       <c r="D638" s="4"/>
-      <c r="E638" s="23"/>
-      <c r="F638" s="24"/>
+      <c r="E638" s="25"/>
+      <c r="F638" s="26"/>
     </row>
     <row r="639">
       <c r="D639" s="4"/>
-      <c r="E639" s="23"/>
-      <c r="F639" s="24"/>
+      <c r="E639" s="25"/>
+      <c r="F639" s="26"/>
     </row>
     <row r="640">
       <c r="D640" s="4"/>
-      <c r="E640" s="23"/>
-      <c r="F640" s="24"/>
+      <c r="E640" s="25"/>
+      <c r="F640" s="26"/>
     </row>
     <row r="641">
       <c r="D641" s="4"/>
-      <c r="E641" s="23"/>
-      <c r="F641" s="24"/>
+      <c r="E641" s="25"/>
+      <c r="F641" s="26"/>
     </row>
     <row r="642">
       <c r="D642" s="4"/>
-      <c r="E642" s="23"/>
-      <c r="F642" s="24"/>
+      <c r="E642" s="25"/>
+      <c r="F642" s="26"/>
     </row>
     <row r="643">
       <c r="D643" s="4"/>
-      <c r="E643" s="23"/>
-      <c r="F643" s="24"/>
+      <c r="E643" s="25"/>
+      <c r="F643" s="26"/>
     </row>
     <row r="644">
       <c r="D644" s="4"/>
-      <c r="E644" s="23"/>
-      <c r="F644" s="24"/>
+      <c r="E644" s="25"/>
+      <c r="F644" s="26"/>
     </row>
     <row r="645">
       <c r="D645" s="4"/>
-      <c r="E645" s="23"/>
-      <c r="F645" s="24"/>
+      <c r="E645" s="25"/>
+      <c r="F645" s="26"/>
     </row>
     <row r="646">
       <c r="D646" s="4"/>
-      <c r="E646" s="23"/>
-      <c r="F646" s="24"/>
+      <c r="E646" s="25"/>
+      <c r="F646" s="26"/>
     </row>
     <row r="647">
       <c r="D647" s="4"/>
-      <c r="E647" s="23"/>
-      <c r="F647" s="24"/>
+      <c r="E647" s="25"/>
+      <c r="F647" s="26"/>
     </row>
     <row r="648">
       <c r="D648" s="4"/>
-      <c r="E648" s="23"/>
-      <c r="F648" s="24"/>
+      <c r="E648" s="25"/>
+      <c r="F648" s="26"/>
     </row>
     <row r="649">
       <c r="D649" s="4"/>
-      <c r="E649" s="23"/>
-      <c r="F649" s="24"/>
+      <c r="E649" s="25"/>
+      <c r="F649" s="26"/>
     </row>
     <row r="650">
       <c r="D650" s="4"/>
-      <c r="E650" s="23"/>
-      <c r="F650" s="24"/>
+      <c r="E650" s="25"/>
+      <c r="F650" s="26"/>
     </row>
     <row r="651">
       <c r="D651" s="4"/>
-      <c r="E651" s="23"/>
-      <c r="F651" s="24"/>
+      <c r="E651" s="25"/>
+      <c r="F651" s="26"/>
     </row>
     <row r="652">
       <c r="D652" s="4"/>
-      <c r="E652" s="23"/>
-      <c r="F652" s="24"/>
+      <c r="E652" s="25"/>
+      <c r="F652" s="26"/>
     </row>
     <row r="653">
       <c r="D653" s="4"/>
-      <c r="E653" s="23"/>
-      <c r="F653" s="24"/>
+      <c r="E653" s="25"/>
+      <c r="F653" s="26"/>
     </row>
     <row r="654">
       <c r="D654" s="4"/>
-      <c r="E654" s="23"/>
-      <c r="F654" s="24"/>
+      <c r="E654" s="25"/>
+      <c r="F654" s="26"/>
     </row>
     <row r="655">
       <c r="D655" s="4"/>
-      <c r="E655" s="23"/>
-      <c r="F655" s="24"/>
+      <c r="E655" s="25"/>
+      <c r="F655" s="26"/>
     </row>
     <row r="656">
       <c r="D656" s="4"/>
-      <c r="E656" s="23"/>
-      <c r="F656" s="24"/>
+      <c r="E656" s="25"/>
+      <c r="F656" s="26"/>
     </row>
     <row r="657">
       <c r="D657" s="4"/>
-      <c r="E657" s="23"/>
-      <c r="F657" s="24"/>
+      <c r="E657" s="25"/>
+      <c r="F657" s="26"/>
     </row>
     <row r="658">
       <c r="D658" s="4"/>
-      <c r="E658" s="23"/>
-      <c r="F658" s="24"/>
+      <c r="E658" s="25"/>
+      <c r="F658" s="26"/>
     </row>
     <row r="659">
       <c r="D659" s="4"/>
-      <c r="E659" s="23"/>
-      <c r="F659" s="24"/>
+      <c r="E659" s="25"/>
+      <c r="F659" s="26"/>
     </row>
     <row r="660">
       <c r="D660" s="4"/>
-      <c r="E660" s="23"/>
-      <c r="F660" s="24"/>
+      <c r="E660" s="25"/>
+      <c r="F660" s="26"/>
     </row>
     <row r="661">
       <c r="D661" s="4"/>
-      <c r="E661" s="23"/>
-      <c r="F661" s="24"/>
+      <c r="E661" s="25"/>
+      <c r="F661" s="26"/>
     </row>
     <row r="662">
       <c r="D662" s="4"/>
-      <c r="E662" s="23"/>
-      <c r="F662" s="24"/>
+      <c r="E662" s="25"/>
+      <c r="F662" s="26"/>
     </row>
     <row r="663">
       <c r="D663" s="4"/>
-      <c r="E663" s="23"/>
-      <c r="F663" s="24"/>
+      <c r="E663" s="25"/>
+      <c r="F663" s="26"/>
     </row>
     <row r="664">
       <c r="D664" s="4"/>
-      <c r="E664" s="23"/>
-      <c r="F664" s="24"/>
+      <c r="E664" s="25"/>
+      <c r="F664" s="26"/>
     </row>
     <row r="665">
       <c r="D665" s="4"/>
-      <c r="E665" s="23"/>
-      <c r="F665" s="24"/>
+      <c r="E665" s="25"/>
+      <c r="F665" s="26"/>
     </row>
     <row r="666">
       <c r="D666" s="4"/>
-      <c r="E666" s="23"/>
-      <c r="F666" s="24"/>
+      <c r="E666" s="25"/>
+      <c r="F666" s="26"/>
     </row>
     <row r="667">
       <c r="D667" s="4"/>
-      <c r="E667" s="23"/>
-      <c r="F667" s="24"/>
+      <c r="E667" s="25"/>
+      <c r="F667" s="26"/>
     </row>
     <row r="668">
       <c r="D668" s="4"/>
-      <c r="E668" s="23"/>
-      <c r="F668" s="24"/>
+      <c r="E668" s="25"/>
+      <c r="F668" s="26"/>
     </row>
     <row r="669">
       <c r="D669" s="4"/>
-      <c r="E669" s="23"/>
-      <c r="F669" s="24"/>
+      <c r="E669" s="25"/>
+      <c r="F669" s="26"/>
     </row>
     <row r="670">
       <c r="D670" s="4"/>
-      <c r="E670" s="23"/>
-      <c r="F670" s="24"/>
+      <c r="E670" s="25"/>
+      <c r="F670" s="26"/>
     </row>
     <row r="671">
       <c r="D671" s="4"/>
-      <c r="E671" s="23"/>
-      <c r="F671" s="24"/>
+      <c r="E671" s="25"/>
+      <c r="F671" s="26"/>
     </row>
     <row r="672">
       <c r="D672" s="4"/>
-      <c r="E672" s="23"/>
-      <c r="F672" s="24"/>
+      <c r="E672" s="25"/>
+      <c r="F672" s="26"/>
     </row>
     <row r="673">
       <c r="D673" s="4"/>
-      <c r="E673" s="23"/>
-      <c r="F673" s="24"/>
+      <c r="E673" s="25"/>
+      <c r="F673" s="26"/>
     </row>
     <row r="674">
       <c r="D674" s="4"/>
-      <c r="E674" s="23"/>
-      <c r="F674" s="24"/>
+      <c r="E674" s="25"/>
+      <c r="F674" s="26"/>
     </row>
     <row r="675">
       <c r="D675" s="4"/>
-      <c r="E675" s="23"/>
-      <c r="F675" s="24"/>
+      <c r="E675" s="25"/>
+      <c r="F675" s="26"/>
     </row>
     <row r="676">
       <c r="D676" s="4"/>
-      <c r="E676" s="23"/>
-      <c r="F676" s="24"/>
+      <c r="E676" s="25"/>
+      <c r="F676" s="26"/>
     </row>
     <row r="677">
       <c r="D677" s="4"/>
-      <c r="E677" s="23"/>
-      <c r="F677" s="24"/>
+      <c r="E677" s="25"/>
+      <c r="F677" s="26"/>
     </row>
     <row r="678">
       <c r="D678" s="4"/>
-      <c r="E678" s="23"/>
-      <c r="F678" s="24"/>
+      <c r="E678" s="25"/>
+      <c r="F678" s="26"/>
     </row>
     <row r="679">
       <c r="D679" s="4"/>
-      <c r="E679" s="23"/>
-      <c r="F679" s="24"/>
+      <c r="E679" s="25"/>
+      <c r="F679" s="26"/>
     </row>
     <row r="680">
       <c r="D680" s="4"/>
-      <c r="E680" s="23"/>
-      <c r="F680" s="24"/>
+      <c r="E680" s="25"/>
+      <c r="F680" s="26"/>
     </row>
     <row r="681">
       <c r="D681" s="4"/>
-      <c r="E681" s="23"/>
-      <c r="F681" s="24"/>
+      <c r="E681" s="25"/>
+      <c r="F681" s="26"/>
     </row>
     <row r="682">
       <c r="D682" s="4"/>
-      <c r="E682" s="23"/>
-      <c r="F682" s="24"/>
+      <c r="E682" s="25"/>
+      <c r="F682" s="26"/>
     </row>
     <row r="683">
       <c r="D683" s="4"/>
-      <c r="E683" s="23"/>
-      <c r="F683" s="24"/>
+      <c r="E683" s="25"/>
+      <c r="F683" s="26"/>
     </row>
     <row r="684">
       <c r="D684" s="4"/>
-      <c r="E684" s="23"/>
-      <c r="F684" s="24"/>
+      <c r="E684" s="25"/>
+      <c r="F684" s="26"/>
     </row>
     <row r="685">
       <c r="D685" s="4"/>
-      <c r="E685" s="23"/>
-      <c r="F685" s="24"/>
+      <c r="E685" s="25"/>
+      <c r="F685" s="26"/>
     </row>
     <row r="686">
       <c r="D686" s="4"/>
-      <c r="E686" s="23"/>
-      <c r="F686" s="24"/>
+      <c r="E686" s="25"/>
+      <c r="F686" s="26"/>
     </row>
     <row r="687">
       <c r="D687" s="4"/>
-      <c r="E687" s="23"/>
-      <c r="F687" s="24"/>
+      <c r="E687" s="25"/>
+      <c r="F687" s="26"/>
     </row>
     <row r="688">
       <c r="D688" s="4"/>
-      <c r="E688" s="23"/>
-      <c r="F688" s="24"/>
+      <c r="E688" s="25"/>
+      <c r="F688" s="26"/>
     </row>
     <row r="689">
       <c r="D689" s="4"/>
-      <c r="E689" s="23"/>
-      <c r="F689" s="24"/>
+      <c r="E689" s="25"/>
+      <c r="F689" s="26"/>
     </row>
     <row r="690">
       <c r="D690" s="4"/>
-      <c r="E690" s="23"/>
-      <c r="F690" s="24"/>
+      <c r="E690" s="25"/>
+      <c r="F690" s="26"/>
     </row>
     <row r="691">
       <c r="D691" s="4"/>
-      <c r="E691" s="23"/>
-      <c r="F691" s="24"/>
+      <c r="E691" s="25"/>
+      <c r="F691" s="26"/>
     </row>
     <row r="692">
       <c r="D692" s="4"/>
-      <c r="E692" s="23"/>
-      <c r="F692" s="24"/>
+      <c r="E692" s="25"/>
+      <c r="F692" s="26"/>
     </row>
     <row r="693">
       <c r="D693" s="4"/>
-      <c r="E693" s="23"/>
-      <c r="F693" s="24"/>
+      <c r="E693" s="25"/>
+      <c r="F693" s="26"/>
     </row>
     <row r="694">
       <c r="D694" s="4"/>
-      <c r="E694" s="23"/>
-      <c r="F694" s="24"/>
+      <c r="E694" s="25"/>
+      <c r="F694" s="26"/>
     </row>
     <row r="695">
       <c r="D695" s="4"/>
-      <c r="E695" s="23"/>
-      <c r="F695" s="24"/>
+      <c r="E695" s="25"/>
+      <c r="F695" s="26"/>
     </row>
     <row r="696">
       <c r="D696" s="4"/>
-      <c r="E696" s="23"/>
-      <c r="F696" s="24"/>
+      <c r="E696" s="25"/>
+      <c r="F696" s="26"/>
     </row>
     <row r="697">
       <c r="D697" s="4"/>
-      <c r="E697" s="23"/>
-      <c r="F697" s="24"/>
+      <c r="E697" s="25"/>
+      <c r="F697" s="26"/>
     </row>
     <row r="698">
       <c r="D698" s="4"/>
-      <c r="E698" s="23"/>
-      <c r="F698" s="24"/>
+      <c r="E698" s="25"/>
+      <c r="F698" s="26"/>
     </row>
     <row r="699">
       <c r="D699" s="4"/>
-      <c r="E699" s="23"/>
-      <c r="F699" s="24"/>
+      <c r="E699" s="25"/>
+      <c r="F699" s="26"/>
     </row>
     <row r="700">
       <c r="D700" s="4"/>
-      <c r="E700" s="23"/>
-      <c r="F700" s="24"/>
+      <c r="E700" s="25"/>
+      <c r="F700" s="26"/>
     </row>
     <row r="701">
       <c r="D701" s="4"/>
-      <c r="E701" s="23"/>
-      <c r="F701" s="24"/>
+      <c r="E701" s="25"/>
+      <c r="F701" s="26"/>
     </row>
     <row r="702">
       <c r="D702" s="4"/>
-      <c r="E702" s="23"/>
-      <c r="F702" s="24"/>
+      <c r="E702" s="25"/>
+      <c r="F702" s="26"/>
     </row>
     <row r="703">
       <c r="D703" s="4"/>
-      <c r="E703" s="23"/>
-      <c r="F703" s="24"/>
+      <c r="E703" s="25"/>
+      <c r="F703" s="26"/>
     </row>
     <row r="704">
       <c r="D704" s="4"/>
-      <c r="E704" s="23"/>
-      <c r="F704" s="24"/>
+      <c r="E704" s="25"/>
+      <c r="F704" s="26"/>
     </row>
     <row r="705">
       <c r="D705" s="4"/>
-      <c r="E705" s="23"/>
-      <c r="F705" s="24"/>
+      <c r="E705" s="25"/>
+      <c r="F705" s="26"/>
     </row>
     <row r="706">
       <c r="D706" s="4"/>
-      <c r="E706" s="23"/>
-      <c r="F706" s="24"/>
+      <c r="E706" s="25"/>
+      <c r="F706" s="26"/>
     </row>
     <row r="707">
       <c r="D707" s="4"/>
-      <c r="E707" s="23"/>
-      <c r="F707" s="24"/>
+      <c r="E707" s="25"/>
+      <c r="F707" s="26"/>
     </row>
     <row r="708">
       <c r="D708" s="4"/>
-      <c r="E708" s="23"/>
-      <c r="F708" s="24"/>
+      <c r="E708" s="25"/>
+      <c r="F708" s="26"/>
     </row>
     <row r="709">
       <c r="D709" s="4"/>
-      <c r="E709" s="23"/>
-      <c r="F709" s="24"/>
+      <c r="E709" s="25"/>
+      <c r="F709" s="26"/>
     </row>
     <row r="710">
       <c r="D710" s="4"/>
-      <c r="E710" s="23"/>
-      <c r="F710" s="24"/>
+      <c r="E710" s="25"/>
+      <c r="F710" s="26"/>
     </row>
     <row r="711">
       <c r="D711" s="4"/>
-      <c r="E711" s="23"/>
-      <c r="F711" s="24"/>
+      <c r="E711" s="25"/>
+      <c r="F711" s="26"/>
     </row>
     <row r="712">
       <c r="D712" s="4"/>
-      <c r="E712" s="23"/>
-      <c r="F712" s="24"/>
+      <c r="E712" s="25"/>
+      <c r="F712" s="26"/>
     </row>
     <row r="713">
       <c r="D713" s="4"/>
-      <c r="E713" s="23"/>
-      <c r="F713" s="24"/>
+      <c r="E713" s="25"/>
+      <c r="F713" s="26"/>
     </row>
     <row r="714">
       <c r="D714" s="4"/>
-      <c r="E714" s="23"/>
-      <c r="F714" s="24"/>
+      <c r="E714" s="25"/>
+      <c r="F714" s="26"/>
     </row>
     <row r="715">
       <c r="D715" s="4"/>
-      <c r="E715" s="23"/>
-      <c r="F715" s="24"/>
+      <c r="E715" s="25"/>
+      <c r="F715" s="26"/>
     </row>
     <row r="716">
       <c r="D716" s="4"/>
-      <c r="E716" s="23"/>
-      <c r="F716" s="24"/>
+      <c r="E716" s="25"/>
+      <c r="F716" s="26"/>
     </row>
     <row r="717">
       <c r="D717" s="4"/>
-      <c r="E717" s="23"/>
-      <c r="F717" s="24"/>
+      <c r="E717" s="25"/>
+      <c r="F717" s="26"/>
     </row>
     <row r="718">
       <c r="D718" s="4"/>
-      <c r="E718" s="23"/>
-      <c r="F718" s="24"/>
+      <c r="E718" s="25"/>
+      <c r="F718" s="26"/>
     </row>
     <row r="719">
       <c r="D719" s="4"/>
-      <c r="E719" s="23"/>
-      <c r="F719" s="24"/>
+      <c r="E719" s="25"/>
+      <c r="F719" s="26"/>
     </row>
     <row r="720">
       <c r="D720" s="4"/>
-      <c r="E720" s="23"/>
-      <c r="F720" s="24"/>
+      <c r="E720" s="25"/>
+      <c r="F720" s="26"/>
     </row>
     <row r="721">
       <c r="D721" s="4"/>
-      <c r="E721" s="23"/>
-      <c r="F721" s="24"/>
+      <c r="E721" s="25"/>
+      <c r="F721" s="26"/>
     </row>
     <row r="722">
       <c r="D722" s="4"/>
-      <c r="E722" s="23"/>
-      <c r="F722" s="24"/>
+      <c r="E722" s="25"/>
+      <c r="F722" s="26"/>
     </row>
     <row r="723">
       <c r="D723" s="4"/>
-      <c r="E723" s="23"/>
-      <c r="F723" s="24"/>
+      <c r="E723" s="25"/>
+      <c r="F723" s="26"/>
     </row>
     <row r="724">
       <c r="D724" s="4"/>
-      <c r="E724" s="23"/>
-      <c r="F724" s="24"/>
+      <c r="E724" s="25"/>
+      <c r="F724" s="26"/>
     </row>
     <row r="725">
       <c r="D725" s="4"/>
-      <c r="E725" s="23"/>
-      <c r="F725" s="24"/>
+      <c r="E725" s="25"/>
+      <c r="F725" s="26"/>
     </row>
     <row r="726">
       <c r="D726" s="4"/>
-      <c r="E726" s="23"/>
-      <c r="F726" s="24"/>
+      <c r="E726" s="25"/>
+      <c r="F726" s="26"/>
     </row>
     <row r="727">
       <c r="D727" s="4"/>
-      <c r="E727" s="23"/>
-      <c r="F727" s="24"/>
+      <c r="E727" s="25"/>
+      <c r="F727" s="26"/>
     </row>
     <row r="728">
       <c r="D728" s="4"/>
-      <c r="E728" s="23"/>
-      <c r="F728" s="24"/>
+      <c r="E728" s="25"/>
+      <c r="F728" s="26"/>
     </row>
     <row r="729">
       <c r="D729" s="4"/>
-      <c r="E729" s="23"/>
-      <c r="F729" s="24"/>
+      <c r="E729" s="25"/>
+      <c r="F729" s="26"/>
     </row>
     <row r="730">
       <c r="D730" s="4"/>
-      <c r="E730" s="23"/>
-      <c r="F730" s="24"/>
+      <c r="E730" s="25"/>
+      <c r="F730" s="26"/>
     </row>
     <row r="731">
       <c r="D731" s="4"/>
-      <c r="E731" s="23"/>
-      <c r="F731" s="24"/>
+      <c r="E731" s="25"/>
+      <c r="F731" s="26"/>
     </row>
     <row r="732">
       <c r="D732" s="4"/>
-      <c r="E732" s="23"/>
-      <c r="F732" s="24"/>
+      <c r="E732" s="25"/>
+      <c r="F732" s="26"/>
     </row>
     <row r="733">
       <c r="D733" s="4"/>
-      <c r="E733" s="23"/>
-      <c r="F733" s="24"/>
+      <c r="E733" s="25"/>
+      <c r="F733" s="26"/>
     </row>
     <row r="734">
       <c r="D734" s="4"/>
-      <c r="E734" s="23"/>
-      <c r="F734" s="24"/>
+      <c r="E734" s="25"/>
+      <c r="F734" s="26"/>
     </row>
     <row r="735">
       <c r="D735" s="4"/>
-      <c r="E735" s="23"/>
-      <c r="F735" s="24"/>
+      <c r="E735" s="25"/>
+      <c r="F735" s="26"/>
     </row>
     <row r="736">
       <c r="D736" s="4"/>
-      <c r="E736" s="23"/>
-      <c r="F736" s="24"/>
+      <c r="E736" s="25"/>
+      <c r="F736" s="26"/>
     </row>
     <row r="737">
       <c r="D737" s="4"/>
-      <c r="E737" s="23"/>
-      <c r="F737" s="24"/>
+      <c r="E737" s="25"/>
+      <c r="F737" s="26"/>
     </row>
     <row r="738">
       <c r="D738" s="4"/>
-      <c r="E738" s="23"/>
-      <c r="F738" s="24"/>
+      <c r="E738" s="25"/>
+      <c r="F738" s="26"/>
     </row>
     <row r="739">
       <c r="D739" s="4"/>
-      <c r="E739" s="23"/>
-      <c r="F739" s="24"/>
+      <c r="E739" s="25"/>
+      <c r="F739" s="26"/>
     </row>
     <row r="740">
       <c r="D740" s="4"/>
-      <c r="E740" s="23"/>
-      <c r="F740" s="24"/>
+      <c r="E740" s="25"/>
+      <c r="F740" s="26"/>
     </row>
     <row r="741">
       <c r="D741" s="4"/>
-      <c r="E741" s="23"/>
-      <c r="F741" s="24"/>
+      <c r="E741" s="25"/>
+      <c r="F741" s="26"/>
     </row>
     <row r="742">
       <c r="D742" s="4"/>
-      <c r="E742" s="23"/>
-      <c r="F742" s="24"/>
+      <c r="E742" s="25"/>
+      <c r="F742" s="26"/>
     </row>
     <row r="743">
       <c r="D743" s="4"/>
-      <c r="E743" s="23"/>
-      <c r="F743" s="24"/>
+      <c r="E743" s="25"/>
+      <c r="F743" s="26"/>
     </row>
     <row r="744">
       <c r="D744" s="4"/>
-      <c r="E744" s="23"/>
-      <c r="F744" s="24"/>
+      <c r="E744" s="25"/>
+      <c r="F744" s="26"/>
     </row>
     <row r="745">
       <c r="D745" s="4"/>
-      <c r="E745" s="23"/>
-      <c r="F745" s="24"/>
+      <c r="E745" s="25"/>
+      <c r="F745" s="26"/>
     </row>
     <row r="746">
       <c r="D746" s="4"/>
-      <c r="E746" s="23"/>
-      <c r="F746" s="24"/>
+      <c r="E746" s="25"/>
+      <c r="F746" s="26"/>
     </row>
     <row r="747">
       <c r="D747" s="4"/>
-      <c r="E747" s="23"/>
-      <c r="F747" s="24"/>
+      <c r="E747" s="25"/>
+      <c r="F747" s="26"/>
     </row>
     <row r="748">
       <c r="D748" s="4"/>
-      <c r="E748" s="23"/>
-      <c r="F748" s="24"/>
+      <c r="E748" s="25"/>
+      <c r="F748" s="26"/>
     </row>
     <row r="749">
       <c r="D749" s="4"/>
-      <c r="E749" s="23"/>
-      <c r="F749" s="24"/>
+      <c r="E749" s="25"/>
+      <c r="F749" s="26"/>
     </row>
     <row r="750">
       <c r="D750" s="4"/>
-      <c r="E750" s="23"/>
-      <c r="F750" s="24"/>
+      <c r="E750" s="25"/>
+      <c r="F750" s="26"/>
     </row>
     <row r="751">
       <c r="D751" s="4"/>
-      <c r="E751" s="23"/>
-      <c r="F751" s="24"/>
+      <c r="E751" s="25"/>
+      <c r="F751" s="26"/>
     </row>
     <row r="752">
       <c r="D752" s="4"/>
-      <c r="E752" s="23"/>
-      <c r="F752" s="24"/>
+      <c r="E752" s="25"/>
+      <c r="F752" s="26"/>
     </row>
     <row r="753">
       <c r="D753" s="4"/>
-      <c r="E753" s="23"/>
-      <c r="F753" s="24"/>
+      <c r="E753" s="25"/>
+      <c r="F753" s="26"/>
     </row>
     <row r="754">
       <c r="D754" s="4"/>
-      <c r="E754" s="23"/>
-      <c r="F754" s="24"/>
+      <c r="E754" s="25"/>
+      <c r="F754" s="26"/>
     </row>
     <row r="755">
       <c r="D755" s="4"/>
-      <c r="E755" s="23"/>
-      <c r="F755" s="24"/>
+      <c r="E755" s="25"/>
+      <c r="F755" s="26"/>
     </row>
     <row r="756">
       <c r="D756" s="4"/>
-      <c r="E756" s="23"/>
-      <c r="F756" s="24"/>
+      <c r="E756" s="25"/>
+      <c r="F756" s="26"/>
     </row>
     <row r="757">
       <c r="D757" s="4"/>
-      <c r="E757" s="23"/>
-      <c r="F757" s="24"/>
+      <c r="E757" s="25"/>
+      <c r="F757" s="26"/>
     </row>
     <row r="758">
       <c r="D758" s="4"/>
-      <c r="E758" s="23"/>
-      <c r="F758" s="24"/>
+      <c r="E758" s="25"/>
+      <c r="F758" s="26"/>
     </row>
     <row r="759">
       <c r="D759" s="4"/>
-      <c r="E759" s="23"/>
-      <c r="F759" s="24"/>
+      <c r="E759" s="25"/>
+      <c r="F759" s="26"/>
     </row>
     <row r="760">
       <c r="D760" s="4"/>
-      <c r="E760" s="23"/>
-      <c r="F760" s="24"/>
+      <c r="E760" s="25"/>
+      <c r="F760" s="26"/>
     </row>
     <row r="761">
       <c r="D761" s="4"/>
-      <c r="E761" s="23"/>
-      <c r="F761" s="24"/>
+      <c r="E761" s="25"/>
+      <c r="F761" s="26"/>
     </row>
     <row r="762">
       <c r="D762" s="4"/>
-      <c r="E762" s="23"/>
-      <c r="F762" s="24"/>
+      <c r="E762" s="25"/>
+      <c r="F762" s="26"/>
     </row>
     <row r="763">
       <c r="D763" s="4"/>
-      <c r="E763" s="23"/>
-      <c r="F763" s="24"/>
+      <c r="E763" s="25"/>
+      <c r="F763" s="26"/>
     </row>
     <row r="764">
       <c r="D764" s="4"/>
-      <c r="E764" s="23"/>
-      <c r="F764" s="24"/>
+      <c r="E764" s="25"/>
+      <c r="F764" s="26"/>
     </row>
     <row r="765">
       <c r="D765" s="4"/>
-      <c r="E765" s="23"/>
-      <c r="F765" s="24"/>
+      <c r="E765" s="25"/>
+      <c r="F765" s="26"/>
     </row>
     <row r="766">
       <c r="D766" s="4"/>
-      <c r="E766" s="23"/>
-      <c r="F766" s="24"/>
+      <c r="E766" s="25"/>
+      <c r="F766" s="26"/>
     </row>
     <row r="767">
       <c r="D767" s="4"/>
-      <c r="E767" s="23"/>
-      <c r="F767" s="24"/>
+      <c r="E767" s="25"/>
+      <c r="F767" s="26"/>
     </row>
     <row r="768">
       <c r="D768" s="4"/>
-      <c r="E768" s="23"/>
-      <c r="F768" s="24"/>
+      <c r="E768" s="25"/>
+      <c r="F768" s="26"/>
     </row>
     <row r="769">
       <c r="D769" s="4"/>
-      <c r="E769" s="23"/>
-      <c r="F769" s="24"/>
+      <c r="E769" s="25"/>
+      <c r="F769" s="26"/>
     </row>
     <row r="770">
       <c r="D770" s="4"/>
-      <c r="E770" s="23"/>
-      <c r="F770" s="24"/>
+      <c r="E770" s="25"/>
+      <c r="F770" s="26"/>
     </row>
     <row r="771">
       <c r="D771" s="4"/>
-      <c r="E771" s="23"/>
-      <c r="F771" s="24"/>
+      <c r="E771" s="25"/>
+      <c r="F771" s="26"/>
     </row>
     <row r="772">
       <c r="D772" s="4"/>
-      <c r="E772" s="23"/>
-      <c r="F772" s="24"/>
+      <c r="E772" s="25"/>
+      <c r="F772" s="26"/>
     </row>
     <row r="773">
       <c r="D773" s="4"/>
-      <c r="E773" s="23"/>
-      <c r="F773" s="24"/>
+      <c r="E773" s="25"/>
+      <c r="F773" s="26"/>
     </row>
     <row r="774">
       <c r="D774" s="4"/>
-      <c r="E774" s="23"/>
-      <c r="F774" s="24"/>
+      <c r="E774" s="25"/>
+      <c r="F774" s="26"/>
     </row>
     <row r="775">
       <c r="D775" s="4"/>
-      <c r="E775" s="23"/>
-      <c r="F775" s="24"/>
+      <c r="E775" s="25"/>
+      <c r="F775" s="26"/>
     </row>
     <row r="776">
       <c r="D776" s="4"/>
-      <c r="E776" s="23"/>
-      <c r="F776" s="24"/>
+      <c r="E776" s="25"/>
+      <c r="F776" s="26"/>
     </row>
     <row r="777">
       <c r="D777" s="4"/>
-      <c r="E777" s="23"/>
-      <c r="F777" s="24"/>
+      <c r="E777" s="25"/>
+      <c r="F777" s="26"/>
     </row>
     <row r="778">
       <c r="D778" s="4"/>
-      <c r="E778" s="23"/>
-      <c r="F778" s="24"/>
+      <c r="E778" s="25"/>
+      <c r="F778" s="26"/>
     </row>
     <row r="779">
       <c r="D779" s="4"/>
-      <c r="E779" s="23"/>
-      <c r="F779" s="24"/>
+      <c r="E779" s="25"/>
+      <c r="F779" s="26"/>
     </row>
     <row r="780">
       <c r="D780" s="4"/>
-      <c r="E780" s="23"/>
-      <c r="F780" s="24"/>
+      <c r="E780" s="25"/>
+      <c r="F780" s="26"/>
     </row>
     <row r="781">
       <c r="D781" s="4"/>
-      <c r="E781" s="23"/>
-      <c r="F781" s="24"/>
+      <c r="E781" s="25"/>
+      <c r="F781" s="26"/>
     </row>
     <row r="782">
       <c r="D782" s="4"/>
-      <c r="E782" s="23"/>
-      <c r="F782" s="24"/>
+      <c r="E782" s="25"/>
+      <c r="F782" s="26"/>
     </row>
     <row r="783">
       <c r="D783" s="4"/>
-      <c r="E783" s="23"/>
-      <c r="F783" s="24"/>
+      <c r="E783" s="25"/>
+      <c r="F783" s="26"/>
     </row>
     <row r="784">
       <c r="D784" s="4"/>
-      <c r="E784" s="23"/>
-      <c r="F784" s="24"/>
+      <c r="E784" s="25"/>
+      <c r="F784" s="26"/>
     </row>
     <row r="785">
       <c r="D785" s="4"/>
-      <c r="E785" s="23"/>
-      <c r="F785" s="24"/>
+      <c r="E785" s="25"/>
+      <c r="F785" s="26"/>
     </row>
     <row r="786">
       <c r="D786" s="4"/>
-      <c r="E786" s="23"/>
-      <c r="F786" s="24"/>
+      <c r="E786" s="25"/>
+      <c r="F786" s="26"/>
     </row>
     <row r="787">
       <c r="D787" s="4"/>
-      <c r="E787" s="23"/>
-      <c r="F787" s="24"/>
+      <c r="E787" s="25"/>
+      <c r="F787" s="26"/>
     </row>
     <row r="788">
       <c r="D788" s="4"/>
-      <c r="E788" s="23"/>
-      <c r="F788" s="24"/>
+      <c r="E788" s="25"/>
+      <c r="F788" s="26"/>
     </row>
     <row r="789">
       <c r="D789" s="4"/>
-      <c r="E789" s="23"/>
-      <c r="F789" s="24"/>
+      <c r="E789" s="25"/>
+      <c r="F789" s="26"/>
     </row>
     <row r="790">
       <c r="D790" s="4"/>
-      <c r="E790" s="23"/>
-      <c r="F790" s="24"/>
+      <c r="E790" s="25"/>
+      <c r="F790" s="26"/>
     </row>
     <row r="791">
       <c r="D791" s="4"/>
-      <c r="E791" s="23"/>
-      <c r="F791" s="24"/>
+      <c r="E791" s="25"/>
+      <c r="F791" s="26"/>
     </row>
     <row r="792">
       <c r="D792" s="4"/>
-      <c r="E792" s="23"/>
-      <c r="F792" s="24"/>
+      <c r="E792" s="25"/>
+      <c r="F792" s="26"/>
     </row>
     <row r="793">
       <c r="D793" s="4"/>
-      <c r="E793" s="23"/>
-      <c r="F793" s="24"/>
+      <c r="E793" s="25"/>
+      <c r="F793" s="26"/>
     </row>
     <row r="794">
       <c r="D794" s="4"/>
-      <c r="E794" s="23"/>
-      <c r="F794" s="24"/>
+      <c r="E794" s="25"/>
+      <c r="F794" s="26"/>
     </row>
     <row r="795">
       <c r="D795" s="4"/>
-      <c r="E795" s="23"/>
-      <c r="F795" s="24"/>
+      <c r="E795" s="25"/>
+      <c r="F795" s="26"/>
     </row>
     <row r="796">
       <c r="D796" s="4"/>
-      <c r="E796" s="23"/>
-      <c r="F796" s="24"/>
+      <c r="E796" s="25"/>
+      <c r="F796" s="26"/>
     </row>
     <row r="797">
       <c r="D797" s="4"/>
-      <c r="E797" s="23"/>
-      <c r="F797" s="24"/>
+      <c r="E797" s="25"/>
+      <c r="F797" s="26"/>
     </row>
     <row r="798">
       <c r="D798" s="4"/>
-      <c r="E798" s="23"/>
-      <c r="F798" s="24"/>
+      <c r="E798" s="25"/>
+      <c r="F798" s="26"/>
     </row>
     <row r="799">
       <c r="D799" s="4"/>
-      <c r="E799" s="23"/>
-      <c r="F799" s="24"/>
+      <c r="E799" s="25"/>
+      <c r="F799" s="26"/>
     </row>
     <row r="800">
       <c r="D800" s="4"/>
-      <c r="E800" s="23"/>
-      <c r="F800" s="24"/>
+      <c r="E800" s="25"/>
+      <c r="F800" s="26"/>
     </row>
     <row r="801">
       <c r="D801" s="4"/>
-      <c r="E801" s="23"/>
-      <c r="F801" s="24"/>
+      <c r="E801" s="25"/>
+      <c r="F801" s="26"/>
     </row>
     <row r="802">
       <c r="D802" s="4"/>
-      <c r="E802" s="23"/>
-      <c r="F802" s="24"/>
+      <c r="E802" s="25"/>
+      <c r="F802" s="26"/>
     </row>
     <row r="803">
       <c r="D803" s="4"/>
-      <c r="E803" s="23"/>
-      <c r="F803" s="24"/>
+      <c r="E803" s="25"/>
+      <c r="F803" s="26"/>
     </row>
     <row r="804">
       <c r="D804" s="4"/>
-      <c r="E804" s="23"/>
-      <c r="F804" s="24"/>
+      <c r="E804" s="25"/>
+      <c r="F804" s="26"/>
     </row>
     <row r="805">
       <c r="D805" s="4"/>
-      <c r="E805" s="23"/>
-      <c r="F805" s="24"/>
+      <c r="E805" s="25"/>
+      <c r="F805" s="26"/>
     </row>
     <row r="806">
       <c r="D806" s="4"/>
-      <c r="E806" s="23"/>
-      <c r="F806" s="24"/>
+      <c r="E806" s="25"/>
+      <c r="F806" s="26"/>
     </row>
     <row r="807">
       <c r="D807" s="4"/>
-      <c r="E807" s="23"/>
-      <c r="F807" s="24"/>
+      <c r="E807" s="25"/>
+      <c r="F807" s="26"/>
     </row>
     <row r="808">
       <c r="D808" s="4"/>
-      <c r="E808" s="23"/>
-      <c r="F808" s="24"/>
+      <c r="E808" s="25"/>
+      <c r="F808" s="26"/>
     </row>
     <row r="809">
       <c r="D809" s="4"/>
-      <c r="E809" s="23"/>
-      <c r="F809" s="24"/>
+      <c r="E809" s="25"/>
+      <c r="F809" s="26"/>
     </row>
     <row r="810">
       <c r="D810" s="4"/>
-      <c r="E810" s="23"/>
-      <c r="F810" s="24"/>
+      <c r="E810" s="25"/>
+      <c r="F810" s="26"/>
     </row>
     <row r="811">
       <c r="D811" s="4"/>
-      <c r="E811" s="23"/>
-      <c r="F811" s="24"/>
+      <c r="E811" s="25"/>
+      <c r="F811" s="26"/>
     </row>
     <row r="812">
       <c r="D812" s="4"/>
-      <c r="E812" s="23"/>
-      <c r="F812" s="24"/>
+      <c r="E812" s="25"/>
+      <c r="F812" s="26"/>
     </row>
     <row r="813">
       <c r="D813" s="4"/>
-      <c r="E813" s="23"/>
-      <c r="F813" s="24"/>
+      <c r="E813" s="25"/>
+      <c r="F813" s="26"/>
     </row>
     <row r="814">
       <c r="D814" s="4"/>
-      <c r="E814" s="23"/>
-      <c r="F814" s="24"/>
+      <c r="E814" s="25"/>
+      <c r="F814" s="26"/>
     </row>
     <row r="815">
       <c r="D815" s="4"/>
-      <c r="E815" s="23"/>
-      <c r="F815" s="24"/>
+      <c r="E815" s="25"/>
+      <c r="F815" s="26"/>
     </row>
     <row r="816">
       <c r="D816" s="4"/>
-      <c r="E816" s="23"/>
-      <c r="F816" s="24"/>
+      <c r="E816" s="25"/>
+      <c r="F816" s="26"/>
     </row>
     <row r="817">
       <c r="D817" s="4"/>
-      <c r="E817" s="23"/>
-      <c r="F817" s="24"/>
+      <c r="E817" s="25"/>
+      <c r="F817" s="26"/>
     </row>
     <row r="818">
       <c r="D818" s="4"/>
-      <c r="E818" s="23"/>
-      <c r="F818" s="24"/>
+      <c r="E818" s="25"/>
+      <c r="F818" s="26"/>
     </row>
     <row r="819">
       <c r="D819" s="4"/>
-      <c r="E819" s="23"/>
-      <c r="F819" s="24"/>
+      <c r="E819" s="25"/>
+      <c r="F819" s="26"/>
     </row>
     <row r="820">
       <c r="D820" s="4"/>
-      <c r="E820" s="23"/>
-      <c r="F820" s="24"/>
+      <c r="E820" s="25"/>
+      <c r="F820" s="26"/>
     </row>
     <row r="821">
       <c r="D821" s="4"/>
-      <c r="E821" s="23"/>
-      <c r="F821" s="24"/>
+      <c r="E821" s="25"/>
+      <c r="F821" s="26"/>
     </row>
     <row r="822">
       <c r="D822" s="4"/>
-      <c r="E822" s="23"/>
-      <c r="F822" s="24"/>
+      <c r="E822" s="25"/>
+      <c r="F822" s="26"/>
     </row>
     <row r="823">
       <c r="D823" s="4"/>
-      <c r="E823" s="23"/>
-      <c r="F823" s="24"/>
+      <c r="E823" s="25"/>
+      <c r="F823" s="26"/>
     </row>
     <row r="824">
       <c r="D824" s="4"/>
-      <c r="E824" s="23"/>
-      <c r="F824" s="24"/>
+      <c r="E824" s="25"/>
+      <c r="F824" s="26"/>
     </row>
     <row r="825">
       <c r="D825" s="4"/>
-      <c r="E825" s="23"/>
-      <c r="F825" s="24"/>
+      <c r="E825" s="25"/>
+      <c r="F825" s="26"/>
     </row>
     <row r="826">
       <c r="D826" s="4"/>
-      <c r="E826" s="23"/>
-      <c r="F826" s="24"/>
+      <c r="E826" s="25"/>
+      <c r="F826" s="26"/>
     </row>
     <row r="827">
       <c r="D827" s="4"/>
-      <c r="E827" s="23"/>
-      <c r="F827" s="24"/>
+      <c r="E827" s="25"/>
+      <c r="F827" s="26"/>
     </row>
     <row r="828">
       <c r="D828" s="4"/>
-      <c r="E828" s="23"/>
-      <c r="F828" s="24"/>
+      <c r="E828" s="25"/>
+      <c r="F828" s="26"/>
     </row>
     <row r="829">
       <c r="D829" s="4"/>
-      <c r="E829" s="23"/>
-      <c r="F829" s="24"/>
+      <c r="E829" s="25"/>
+      <c r="F829" s="26"/>
     </row>
     <row r="830">
       <c r="D830" s="4"/>
-      <c r="E830" s="23"/>
-      <c r="F830" s="24"/>
+      <c r="E830" s="25"/>
+      <c r="F830" s="26"/>
     </row>
     <row r="831">
       <c r="D831" s="4"/>
-      <c r="E831" s="23"/>
-      <c r="F831" s="24"/>
+      <c r="E831" s="25"/>
+      <c r="F831" s="26"/>
     </row>
     <row r="832">
       <c r="D832" s="4"/>
-      <c r="E832" s="23"/>
-      <c r="F832" s="24"/>
+      <c r="E832" s="25"/>
+      <c r="F832" s="26"/>
     </row>
     <row r="833">
       <c r="D833" s="4"/>
-      <c r="E833" s="23"/>
-      <c r="F833" s="24"/>
+      <c r="E833" s="25"/>
+      <c r="F833" s="26"/>
     </row>
     <row r="834">
       <c r="D834" s="4"/>
-      <c r="E834" s="23"/>
-      <c r="F834" s="24"/>
+      <c r="E834" s="25"/>
+      <c r="F834" s="26"/>
     </row>
     <row r="835">
       <c r="D835" s="4"/>
-      <c r="E835" s="23"/>
-      <c r="F835" s="24"/>
+      <c r="E835" s="25"/>
+      <c r="F835" s="26"/>
     </row>
     <row r="836">
       <c r="D836" s="4"/>
-      <c r="E836" s="23"/>
-      <c r="F836" s="24"/>
+      <c r="E836" s="25"/>
+      <c r="F836" s="26"/>
     </row>
     <row r="837">
       <c r="D837" s="4"/>
-      <c r="E837" s="23"/>
-      <c r="F837" s="24"/>
+      <c r="E837" s="25"/>
+      <c r="F837" s="26"/>
     </row>
     <row r="838">
       <c r="D838" s="4"/>
-      <c r="E838" s="23"/>
-      <c r="F838" s="24"/>
+      <c r="E838" s="25"/>
+      <c r="F838" s="26"/>
     </row>
     <row r="839">
       <c r="D839" s="4"/>
-      <c r="E839" s="23"/>
-      <c r="F839" s="24"/>
+      <c r="E839" s="25"/>
+      <c r="F839" s="26"/>
     </row>
     <row r="840">
       <c r="D840" s="4"/>
-      <c r="E840" s="23"/>
-      <c r="F840" s="24"/>
+      <c r="E840" s="25"/>
+      <c r="F840" s="26"/>
     </row>
     <row r="841">
       <c r="D841" s="4"/>
-      <c r="E841" s="23"/>
-      <c r="F841" s="24"/>
+      <c r="E841" s="25"/>
+      <c r="F841" s="26"/>
     </row>
     <row r="842">
       <c r="D842" s="4"/>
-      <c r="E842" s="23"/>
-      <c r="F842" s="24"/>
+      <c r="E842" s="25"/>
+      <c r="F842" s="26"/>
     </row>
     <row r="843">
       <c r="D843" s="4"/>
-      <c r="E843" s="23"/>
-      <c r="F843" s="24"/>
+      <c r="E843" s="25"/>
+      <c r="F843" s="26"/>
     </row>
     <row r="844">
       <c r="D844" s="4"/>
-      <c r="E844" s="23"/>
-      <c r="F844" s="24"/>
+      <c r="E844" s="25"/>
+      <c r="F844" s="26"/>
     </row>
     <row r="845">
       <c r="D845" s="4"/>
-      <c r="E845" s="23"/>
-      <c r="F845" s="24"/>
+      <c r="E845" s="25"/>
+      <c r="F845" s="26"/>
     </row>
     <row r="846">
       <c r="D846" s="4"/>
-      <c r="E846" s="23"/>
-      <c r="F846" s="24"/>
+      <c r="E846" s="25"/>
+      <c r="F846" s="26"/>
     </row>
     <row r="847">
       <c r="D847" s="4"/>
-      <c r="E847" s="23"/>
-      <c r="F847" s="24"/>
+      <c r="E847" s="25"/>
+      <c r="F847" s="26"/>
     </row>
     <row r="848">
       <c r="D848" s="4"/>
-      <c r="E848" s="23"/>
-      <c r="F848" s="24"/>
+      <c r="E848" s="25"/>
+      <c r="F848" s="26"/>
     </row>
     <row r="849">
       <c r="D849" s="4"/>
-      <c r="E849" s="23"/>
-      <c r="F849" s="24"/>
+      <c r="E849" s="25"/>
+      <c r="F849" s="26"/>
     </row>
     <row r="850">
       <c r="D850" s="4"/>
-      <c r="E850" s="23"/>
-      <c r="F850" s="24"/>
+      <c r="E850" s="25"/>
+      <c r="F850" s="26"/>
     </row>
     <row r="851">
       <c r="D851" s="4"/>
-      <c r="E851" s="23"/>
-      <c r="F851" s="24"/>
+      <c r="E851" s="25"/>
+      <c r="F851" s="26"/>
     </row>
     <row r="852">
       <c r="D852" s="4"/>
-      <c r="E852" s="23"/>
-      <c r="F852" s="24"/>
+      <c r="E852" s="25"/>
+      <c r="F852" s="26"/>
     </row>
     <row r="853">
       <c r="D853" s="4"/>
-      <c r="E853" s="23"/>
-      <c r="F853" s="24"/>
+      <c r="E853" s="25"/>
+      <c r="F853" s="26"/>
     </row>
     <row r="854">
       <c r="D854" s="4"/>
-      <c r="E854" s="23"/>
-      <c r="F854" s="24"/>
+      <c r="E854" s="25"/>
+      <c r="F854" s="26"/>
     </row>
     <row r="855">
       <c r="D855" s="4"/>
-      <c r="E855" s="23"/>
-      <c r="F855" s="24"/>
+      <c r="E855" s="25"/>
+      <c r="F855" s="26"/>
     </row>
     <row r="856">
       <c r="D856" s="4"/>
-      <c r="E856" s="23"/>
-      <c r="F856" s="24"/>
+      <c r="E856" s="25"/>
+      <c r="F856" s="26"/>
     </row>
     <row r="857">
       <c r="D857" s="4"/>
-      <c r="E857" s="23"/>
-      <c r="F857" s="24"/>
+      <c r="E857" s="25"/>
+      <c r="F857" s="26"/>
     </row>
     <row r="858">
       <c r="D858" s="4"/>
-      <c r="E858" s="23"/>
-      <c r="F858" s="24"/>
+      <c r="E858" s="25"/>
+      <c r="F858" s="26"/>
     </row>
     <row r="859">
       <c r="D859" s="4"/>
-      <c r="E859" s="23"/>
-      <c r="F859" s="24"/>
+      <c r="E859" s="25"/>
+      <c r="F859" s="26"/>
     </row>
     <row r="860">
       <c r="D860" s="4"/>
-      <c r="E860" s="23"/>
-      <c r="F860" s="24"/>
+      <c r="E860" s="25"/>
+      <c r="F860" s="26"/>
     </row>
     <row r="861">
       <c r="D861" s="4"/>
-      <c r="E861" s="23"/>
-      <c r="F861" s="24"/>
+      <c r="E861" s="25"/>
+      <c r="F861" s="26"/>
     </row>
     <row r="862">
       <c r="D862" s="4"/>
-      <c r="E862" s="23"/>
-      <c r="F862" s="24"/>
+      <c r="E862" s="25"/>
+      <c r="F862" s="26"/>
     </row>
     <row r="863">
       <c r="D863" s="4"/>
-      <c r="E863" s="23"/>
-      <c r="F863" s="24"/>
+      <c r="E863" s="25"/>
+      <c r="F863" s="26"/>
     </row>
     <row r="864">
       <c r="D864" s="4"/>
-      <c r="E864" s="23"/>
-      <c r="F864" s="24"/>
+      <c r="E864" s="25"/>
+      <c r="F864" s="26"/>
     </row>
     <row r="865">
       <c r="D865" s="4"/>
-      <c r="E865" s="23"/>
-      <c r="F865" s="24"/>
+      <c r="E865" s="25"/>
+      <c r="F865" s="26"/>
     </row>
     <row r="866">
       <c r="D866" s="4"/>
-      <c r="E866" s="23"/>
-      <c r="F866" s="24"/>
+      <c r="E866" s="25"/>
+      <c r="F866" s="26"/>
     </row>
     <row r="867">
       <c r="D867" s="4"/>
-      <c r="E867" s="23"/>
-      <c r="F867" s="24"/>
+      <c r="E867" s="25"/>
+      <c r="F867" s="26"/>
     </row>
     <row r="868">
       <c r="D868" s="4"/>
-      <c r="E868" s="23"/>
-      <c r="F868" s="24"/>
+      <c r="E868" s="25"/>
+      <c r="F868" s="26"/>
     </row>
     <row r="869">
       <c r="D869" s="4"/>
-      <c r="E869" s="23"/>
-      <c r="F869" s="24"/>
+      <c r="E869" s="25"/>
+      <c r="F869" s="26"/>
     </row>
     <row r="870">
       <c r="D870" s="4"/>
-      <c r="E870" s="23"/>
-      <c r="F870" s="24"/>
+      <c r="E870" s="25"/>
+      <c r="F870" s="26"/>
     </row>
     <row r="871">
       <c r="D871" s="4"/>
-      <c r="E871" s="23"/>
-      <c r="F871" s="24"/>
+      <c r="E871" s="25"/>
+      <c r="F871" s="26"/>
     </row>
     <row r="872">
       <c r="D872" s="4"/>
-      <c r="E872" s="23"/>
-      <c r="F872" s="24"/>
+      <c r="E872" s="25"/>
+      <c r="F872" s="26"/>
     </row>
     <row r="873">
       <c r="D873" s="4"/>
-      <c r="E873" s="23"/>
-      <c r="F873" s="24"/>
+      <c r="E873" s="25"/>
+      <c r="F873" s="26"/>
     </row>
     <row r="874">
       <c r="D874" s="4"/>
-      <c r="E874" s="23"/>
-      <c r="F874" s="24"/>
+      <c r="E874" s="25"/>
+      <c r="F874" s="26"/>
     </row>
     <row r="875">
       <c r="D875" s="4"/>
-      <c r="E875" s="23"/>
-      <c r="F875" s="24"/>
+      <c r="E875" s="25"/>
+      <c r="F875" s="26"/>
     </row>
     <row r="876">
       <c r="D876" s="4"/>
-      <c r="E876" s="23"/>
-      <c r="F876" s="24"/>
+      <c r="E876" s="25"/>
+      <c r="F876" s="26"/>
     </row>
     <row r="877">
       <c r="D877" s="4"/>
-      <c r="E877" s="23"/>
-      <c r="F877" s="24"/>
+      <c r="E877" s="25"/>
+      <c r="F877" s="26"/>
     </row>
     <row r="878">
       <c r="D878" s="4"/>
-      <c r="E878" s="23"/>
-      <c r="F878" s="24"/>
+      <c r="E878" s="25"/>
+      <c r="F878" s="26"/>
     </row>
     <row r="879">
       <c r="D879" s="4"/>
-      <c r="E879" s="23"/>
-      <c r="F879" s="24"/>
+      <c r="E879" s="25"/>
+      <c r="F879" s="26"/>
     </row>
     <row r="880">
       <c r="D880" s="4"/>
-      <c r="E880" s="23"/>
-      <c r="F880" s="24"/>
+      <c r="E880" s="25"/>
+      <c r="F880" s="26"/>
     </row>
     <row r="881">
       <c r="D881" s="4"/>
-      <c r="E881" s="23"/>
-      <c r="F881" s="24"/>
+      <c r="E881" s="25"/>
+      <c r="F881" s="26"/>
     </row>
     <row r="882">
       <c r="D882" s="4"/>
-      <c r="E882" s="23"/>
-      <c r="F882" s="24"/>
+      <c r="E882" s="25"/>
+      <c r="F882" s="26"/>
     </row>
     <row r="883">
       <c r="D883" s="4"/>
-      <c r="E883" s="23"/>
-      <c r="F883" s="24"/>
+      <c r="E883" s="25"/>
+      <c r="F883" s="26"/>
     </row>
     <row r="884">
       <c r="D884" s="4"/>
-      <c r="E884" s="23"/>
-      <c r="F884" s="24"/>
+      <c r="E884" s="25"/>
+      <c r="F884" s="26"/>
     </row>
     <row r="885">
       <c r="D885" s="4"/>
-      <c r="E885" s="23"/>
-      <c r="F885" s="24"/>
+      <c r="E885" s="25"/>
+      <c r="F885" s="26"/>
     </row>
     <row r="886">
       <c r="D886" s="4"/>
-      <c r="E886" s="23"/>
-      <c r="F886" s="24"/>
+      <c r="E886" s="25"/>
+      <c r="F886" s="26"/>
     </row>
     <row r="887">
       <c r="D887" s="4"/>
-      <c r="E887" s="23"/>
-      <c r="F887" s="24"/>
+      <c r="E887" s="25"/>
+      <c r="F887" s="26"/>
     </row>
     <row r="888">
       <c r="D888" s="4"/>
-      <c r="E888" s="23"/>
-      <c r="F888" s="24"/>
+      <c r="E888" s="25"/>
+      <c r="F888" s="26"/>
     </row>
     <row r="889">
       <c r="D889" s="4"/>
-      <c r="E889" s="23"/>
-      <c r="F889" s="24"/>
+      <c r="E889" s="25"/>
+      <c r="F889" s="26"/>
     </row>
     <row r="890">
       <c r="D890" s="4"/>
-      <c r="E890" s="23"/>
-      <c r="F890" s="24"/>
+      <c r="E890" s="25"/>
+      <c r="F890" s="26"/>
     </row>
     <row r="891">
       <c r="D891" s="4"/>
-      <c r="E891" s="23"/>
-      <c r="F891" s="24"/>
+      <c r="E891" s="25"/>
+      <c r="F891" s="26"/>
     </row>
     <row r="892">
       <c r="D892" s="4"/>
-      <c r="E892" s="23"/>
-      <c r="F892" s="24"/>
+      <c r="E892" s="25"/>
+      <c r="F892" s="26"/>
     </row>
     <row r="893">
       <c r="D893" s="4"/>
-      <c r="E893" s="23"/>
-      <c r="F893" s="24"/>
+      <c r="E893" s="25"/>
+      <c r="F893" s="26"/>
     </row>
     <row r="894">
       <c r="D894" s="4"/>
-      <c r="E894" s="23"/>
-      <c r="F894" s="24"/>
+      <c r="E894" s="25"/>
+      <c r="F894" s="26"/>
     </row>
     <row r="895">
       <c r="D895" s="4"/>
-      <c r="E895" s="23"/>
-      <c r="F895" s="24"/>
+      <c r="E895" s="25"/>
+      <c r="F895" s="26"/>
     </row>
     <row r="896">
       <c r="D896" s="4"/>
-      <c r="E896" s="23"/>
-      <c r="F896" s="24"/>
+      <c r="E896" s="25"/>
+      <c r="F896" s="26"/>
     </row>
     <row r="897">
       <c r="D897" s="4"/>
-      <c r="E897" s="23"/>
-      <c r="F897" s="24"/>
+      <c r="E897" s="25"/>
+      <c r="F897" s="26"/>
     </row>
     <row r="898">
       <c r="D898" s="4"/>
-      <c r="E898" s="23"/>
-      <c r="F898" s="24"/>
+      <c r="E898" s="25"/>
+      <c r="F898" s="26"/>
     </row>
     <row r="899">
       <c r="D899" s="4"/>
-      <c r="E899" s="23"/>
-      <c r="F899" s="24"/>
+      <c r="E899" s="25"/>
+      <c r="F899" s="26"/>
     </row>
     <row r="900">
       <c r="D900" s="4"/>
-      <c r="E900" s="23"/>
-      <c r="F900" s="24"/>
+      <c r="E900" s="25"/>
+      <c r="F900" s="26"/>
     </row>
     <row r="901">
       <c r="D901" s="4"/>
-      <c r="E901" s="23"/>
-      <c r="F901" s="24"/>
+      <c r="E901" s="25"/>
+      <c r="F901" s="26"/>
     </row>
     <row r="902">
       <c r="D902" s="4"/>
-      <c r="E902" s="23"/>
-      <c r="F902" s="24"/>
+      <c r="E902" s="25"/>
+      <c r="F902" s="26"/>
     </row>
     <row r="903">
       <c r="D903" s="4"/>
-      <c r="E903" s="23"/>
-      <c r="F903" s="24"/>
+      <c r="E903" s="25"/>
+      <c r="F903" s="26"/>
     </row>
     <row r="904">
       <c r="D904" s="4"/>
-      <c r="E904" s="23"/>
-      <c r="F904" s="24"/>
+      <c r="E904" s="25"/>
+      <c r="F904" s="26"/>
     </row>
     <row r="905">
       <c r="D905" s="4"/>
-      <c r="E905" s="23"/>
-      <c r="F905" s="24"/>
+      <c r="E905" s="25"/>
+      <c r="F905" s="26"/>
     </row>
     <row r="906">
       <c r="D906" s="4"/>
-      <c r="E906" s="23"/>
-      <c r="F906" s="24"/>
+      <c r="E906" s="25"/>
+      <c r="F906" s="26"/>
     </row>
     <row r="907">
       <c r="D907" s="4"/>
-      <c r="E907" s="23"/>
-      <c r="F907" s="24"/>
+      <c r="E907" s="25"/>
+      <c r="F907" s="26"/>
     </row>
     <row r="908">
       <c r="D908" s="4"/>
-      <c r="E908" s="23"/>
-      <c r="F908" s="24"/>
+      <c r="E908" s="25"/>
+      <c r="F908" s="26"/>
     </row>
     <row r="909">
       <c r="D909" s="4"/>
-      <c r="E909" s="23"/>
-      <c r="F909" s="24"/>
+      <c r="E909" s="25"/>
+      <c r="F909" s="26"/>
     </row>
     <row r="910">
       <c r="D910" s="4"/>
-      <c r="E910" s="23"/>
-      <c r="F910" s="24"/>
+      <c r="E910" s="25"/>
+      <c r="F910" s="26"/>
     </row>
     <row r="911">
       <c r="D911" s="4"/>
-      <c r="E911" s="23"/>
-      <c r="F911" s="24"/>
+      <c r="E911" s="25"/>
+      <c r="F911" s="26"/>
     </row>
     <row r="912">
       <c r="D912" s="4"/>
-      <c r="E912" s="23"/>
-      <c r="F912" s="24"/>
+      <c r="E912" s="25"/>
+      <c r="F912" s="26"/>
     </row>
     <row r="913">
       <c r="D913" s="4"/>
-      <c r="E913" s="23"/>
-      <c r="F913" s="24"/>
+      <c r="E913" s="25"/>
+      <c r="F913" s="26"/>
     </row>
     <row r="914">
       <c r="D914" s="4"/>
-      <c r="E914" s="23"/>
-      <c r="F914" s="24"/>
+      <c r="E914" s="25"/>
+      <c r="F914" s="26"/>
     </row>
     <row r="915">
       <c r="D915" s="4"/>
-      <c r="E915" s="23"/>
-      <c r="F915" s="24"/>
+      <c r="E915" s="25"/>
+      <c r="F915" s="26"/>
     </row>
     <row r="916">
       <c r="D916" s="4"/>
-      <c r="E916" s="23"/>
-      <c r="F916" s="24"/>
+      <c r="E916" s="25"/>
+      <c r="F916" s="26"/>
     </row>
     <row r="917">
       <c r="D917" s="4"/>
-      <c r="E917" s="23"/>
-      <c r="F917" s="24"/>
+      <c r="E917" s="25"/>
+      <c r="F917" s="26"/>
     </row>
     <row r="918">
       <c r="D918" s="4"/>
-      <c r="E918" s="23"/>
-      <c r="F918" s="24"/>
+      <c r="E918" s="25"/>
+      <c r="F918" s="26"/>
     </row>
     <row r="919">
       <c r="D919" s="4"/>
-      <c r="E919" s="23"/>
-      <c r="F919" s="24"/>
+      <c r="E919" s="25"/>
+      <c r="F919" s="26"/>
     </row>
     <row r="920">
       <c r="D920" s="4"/>
-      <c r="E920" s="23"/>
-      <c r="F920" s="24"/>
+      <c r="E920" s="25"/>
+      <c r="F920" s="26"/>
     </row>
     <row r="921">
       <c r="D921" s="4"/>
-      <c r="E921" s="23"/>
-      <c r="F921" s="24"/>
+      <c r="E921" s="25"/>
+      <c r="F921" s="26"/>
     </row>
     <row r="922">
       <c r="D922" s="4"/>
-      <c r="E922" s="23"/>
-      <c r="F922" s="24"/>
+      <c r="E922" s="25"/>
+      <c r="F922" s="26"/>
     </row>
     <row r="923">
       <c r="D923" s="4"/>
-      <c r="E923" s="23"/>
-      <c r="F923" s="24"/>
+      <c r="E923" s="25"/>
+      <c r="F923" s="26"/>
     </row>
     <row r="924">
       <c r="D924" s="4"/>
-      <c r="E924" s="23"/>
-      <c r="F924" s="24"/>
+      <c r="E924" s="25"/>
+      <c r="F924" s="26"/>
     </row>
     <row r="925">
       <c r="D925" s="4"/>
-      <c r="E925" s="23"/>
-      <c r="F925" s="24"/>
+      <c r="E925" s="25"/>
+      <c r="F925" s="26"/>
     </row>
     <row r="926">
       <c r="D926" s="4"/>
-      <c r="E926" s="23"/>
-      <c r="F926" s="24"/>
+      <c r="E926" s="25"/>
+      <c r="F926" s="26"/>
     </row>
     <row r="927">
       <c r="D927" s="4"/>
-      <c r="E927" s="23"/>
-      <c r="F927" s="24"/>
+      <c r="E927" s="25"/>
+      <c r="F927" s="26"/>
     </row>
     <row r="928">
       <c r="D928" s="4"/>
-      <c r="E928" s="23"/>
-      <c r="F928" s="24"/>
+      <c r="E928" s="25"/>
+      <c r="F928" s="26"/>
     </row>
     <row r="929">
       <c r="D929" s="4"/>
-      <c r="E929" s="23"/>
-      <c r="F929" s="24"/>
+      <c r="E929" s="25"/>
+      <c r="F929" s="26"/>
     </row>
     <row r="930">
       <c r="D930" s="4"/>
-      <c r="E930" s="23"/>
-      <c r="F930" s="24"/>
+      <c r="E930" s="25"/>
+      <c r="F930" s="26"/>
     </row>
     <row r="931">
       <c r="D931" s="4"/>
-      <c r="E931" s="23"/>
-      <c r="F931" s="24"/>
+      <c r="E931" s="25"/>
+      <c r="F931" s="26"/>
     </row>
     <row r="932">
       <c r="D932" s="4"/>
-      <c r="E932" s="23"/>
-      <c r="F932" s="24"/>
+      <c r="E932" s="25"/>
+      <c r="F932" s="26"/>
     </row>
     <row r="933">
       <c r="D933" s="4"/>
-      <c r="E933" s="23"/>
-      <c r="F933" s="24"/>
+      <c r="E933" s="25"/>
+      <c r="F933" s="26"/>
     </row>
     <row r="934">
       <c r="D934" s="4"/>
-      <c r="E934" s="23"/>
-      <c r="F934" s="24"/>
+      <c r="E934" s="25"/>
+      <c r="F934" s="26"/>
     </row>
     <row r="935">
       <c r="D935" s="4"/>
-      <c r="E935" s="23"/>
-      <c r="F935" s="24"/>
+      <c r="E935" s="25"/>
+      <c r="F935" s="26"/>
     </row>
     <row r="936">
       <c r="D936" s="4"/>
-      <c r="E936" s="23"/>
-      <c r="F936" s="24"/>
+      <c r="E936" s="25"/>
+      <c r="F936" s="26"/>
     </row>
     <row r="937">
       <c r="D937" s="4"/>
-      <c r="E937" s="23"/>
-      <c r="F937" s="24"/>
+      <c r="E937" s="25"/>
+      <c r="F937" s="26"/>
     </row>
     <row r="938">
       <c r="D938" s="4"/>
-      <c r="E938" s="23"/>
-      <c r="F938" s="24"/>
+      <c r="E938" s="25"/>
+      <c r="F938" s="26"/>
     </row>
     <row r="939">
       <c r="D939" s="4"/>
-      <c r="E939" s="23"/>
-      <c r="F939" s="24"/>
+      <c r="E939" s="25"/>
+      <c r="F939" s="26"/>
     </row>
     <row r="940">
       <c r="D940" s="4"/>
-      <c r="E940" s="23"/>
-      <c r="F940" s="24"/>
+      <c r="E940" s="25"/>
+      <c r="F940" s="26"/>
     </row>
     <row r="941">
       <c r="D941" s="4"/>
-      <c r="E941" s="23"/>
-      <c r="F941" s="24"/>
+      <c r="E941" s="25"/>
+      <c r="F941" s="26"/>
     </row>
     <row r="942">
       <c r="D942" s="4"/>
-      <c r="E942" s="23"/>
-      <c r="F942" s="24"/>
+      <c r="E942" s="25"/>
+      <c r="F942" s="26"/>
     </row>
     <row r="943">
       <c r="D943" s="4"/>
-      <c r="E943" s="23"/>
-      <c r="F943" s="24"/>
+      <c r="E943" s="25"/>
+      <c r="F943" s="26"/>
     </row>
     <row r="944">
       <c r="D944" s="4"/>
-      <c r="E944" s="23"/>
-      <c r="F944" s="24"/>
+      <c r="E944" s="25"/>
+      <c r="F944" s="26"/>
     </row>
     <row r="945">
       <c r="D945" s="4"/>
-      <c r="E945" s="23"/>
-      <c r="F945" s="24"/>
+      <c r="E945" s="25"/>
+      <c r="F945" s="26"/>
     </row>
     <row r="946">
       <c r="D946" s="4"/>
-      <c r="E946" s="23"/>
-      <c r="F946" s="24"/>
+      <c r="E946" s="25"/>
+      <c r="F946" s="26"/>
     </row>
     <row r="947">
       <c r="D947" s="4"/>
-      <c r="E947" s="23"/>
-      <c r="F947" s="24"/>
+      <c r="E947" s="25"/>
+      <c r="F947" s="26"/>
     </row>
     <row r="948">
       <c r="D948" s="4"/>
-      <c r="E948" s="23"/>
-      <c r="F948" s="24"/>
+      <c r="E948" s="25"/>
+      <c r="F948" s="26"/>
     </row>
     <row r="949">
       <c r="D949" s="4"/>
-      <c r="E949" s="23"/>
-      <c r="F949" s="24"/>
+      <c r="E949" s="25"/>
+      <c r="F949" s="26"/>
     </row>
     <row r="950">
       <c r="D950" s="4"/>
-      <c r="E950" s="23"/>
-      <c r="F950" s="24"/>
+      <c r="E950" s="25"/>
+      <c r="F950" s="26"/>
     </row>
     <row r="951">
       <c r="D951" s="4"/>
-      <c r="E951" s="23"/>
-      <c r="F951" s="24"/>
+      <c r="E951" s="25"/>
+      <c r="F951" s="26"/>
     </row>
     <row r="952">
       <c r="D952" s="4"/>
-      <c r="E952" s="23"/>
-      <c r="F952" s="24"/>
+      <c r="E952" s="25"/>
+      <c r="F952" s="26"/>
     </row>
     <row r="953">
       <c r="D953" s="4"/>
-      <c r="E953" s="23"/>
-      <c r="F953" s="24"/>
+      <c r="E953" s="25"/>
+      <c r="F953" s="26"/>
     </row>
     <row r="954">
       <c r="D954" s="4"/>
-      <c r="E954" s="23"/>
-      <c r="F954" s="24"/>
+      <c r="E954" s="25"/>
+      <c r="F954" s="26"/>
     </row>
     <row r="955">
       <c r="D955" s="4"/>
-      <c r="E955" s="23"/>
-      <c r="F955" s="24"/>
+      <c r="E955" s="25"/>
+      <c r="F955" s="26"/>
     </row>
     <row r="956">
       <c r="D956" s="4"/>
-      <c r="E956" s="23"/>
-      <c r="F956" s="24"/>
+      <c r="E956" s="25"/>
+      <c r="F956" s="26"/>
     </row>
     <row r="957">
       <c r="D957" s="4"/>
-      <c r="E957" s="23"/>
-      <c r="F957" s="24"/>
+      <c r="E957" s="25"/>
+      <c r="F957" s="26"/>
     </row>
     <row r="958">
       <c r="D958" s="4"/>
-      <c r="E958" s="23"/>
-      <c r="F958" s="24"/>
+      <c r="E958" s="25"/>
+      <c r="F958" s="26"/>
     </row>
     <row r="959">
       <c r="D959" s="4"/>
-      <c r="E959" s="23"/>
-      <c r="F959" s="24"/>
+      <c r="E959" s="25"/>
+      <c r="F959" s="26"/>
     </row>
     <row r="960">
       <c r="D960" s="4"/>
-      <c r="E960" s="23"/>
-      <c r="F960" s="24"/>
+      <c r="E960" s="25"/>
+      <c r="F960" s="26"/>
     </row>
     <row r="961">
       <c r="D961" s="4"/>
-      <c r="E961" s="23"/>
-      <c r="F961" s="24"/>
+      <c r="E961" s="25"/>
+      <c r="F961" s="26"/>
     </row>
     <row r="962">
       <c r="D962" s="4"/>
-      <c r="E962" s="23"/>
-      <c r="F962" s="24"/>
+      <c r="E962" s="25"/>
+      <c r="F962" s="26"/>
     </row>
     <row r="963">
       <c r="D963" s="4"/>
-      <c r="E963" s="23"/>
-      <c r="F963" s="24"/>
+      <c r="E963" s="25"/>
+      <c r="F963" s="26"/>
     </row>
     <row r="964">
       <c r="D964" s="4"/>
-      <c r="E964" s="23"/>
-      <c r="F964" s="24"/>
+      <c r="E964" s="25"/>
+      <c r="F964" s="26"/>
     </row>
     <row r="965">
       <c r="D965" s="4"/>
-      <c r="E965" s="23"/>
-      <c r="F965" s="24"/>
+      <c r="E965" s="25"/>
+      <c r="F965" s="26"/>
     </row>
     <row r="966">
       <c r="D966" s="4"/>
-      <c r="E966" s="23"/>
-      <c r="F966" s="24"/>
+      <c r="E966" s="25"/>
+      <c r="F966" s="26"/>
     </row>
     <row r="967">
       <c r="D967" s="4"/>
-      <c r="E967" s="23"/>
-      <c r="F967" s="24"/>
+      <c r="E967" s="25"/>
+      <c r="F967" s="26"/>
     </row>
     <row r="968">
       <c r="D968" s="4"/>
-      <c r="E968" s="23"/>
-      <c r="F968" s="24"/>
+      <c r="E968" s="25"/>
+      <c r="F968" s="26"/>
     </row>
     <row r="969">
       <c r="D969" s="4"/>
-      <c r="E969" s="23"/>
-      <c r="F969" s="24"/>
+      <c r="E969" s="25"/>
+      <c r="F969" s="26"/>
     </row>
     <row r="970">
       <c r="D970" s="4"/>
-      <c r="E970" s="23"/>
-      <c r="F970" s="24"/>
+      <c r="E970" s="25"/>
+      <c r="F970" s="26"/>
     </row>
     <row r="971">
       <c r="D971" s="4"/>
-      <c r="E971" s="23"/>
-      <c r="F971" s="24"/>
+      <c r="E971" s="25"/>
+      <c r="F971" s="26"/>
     </row>
     <row r="972">
       <c r="D972" s="4"/>
-      <c r="E972" s="23"/>
-      <c r="F972" s="24"/>
+      <c r="E972" s="25"/>
+      <c r="F972" s="26"/>
     </row>
     <row r="973">
       <c r="D973" s="4"/>
-      <c r="E973" s="23"/>
-      <c r="F973" s="24"/>
+      <c r="E973" s="25"/>
+      <c r="F973" s="26"/>
     </row>
     <row r="974">
       <c r="D974" s="4"/>
-      <c r="E974" s="23"/>
-      <c r="F974" s="24"/>
+      <c r="E974" s="25"/>
+      <c r="F974" s="26"/>
     </row>
     <row r="975">
       <c r="D975" s="4"/>
-      <c r="E975" s="23"/>
-      <c r="F975" s="24"/>
+      <c r="E975" s="25"/>
+      <c r="F975" s="26"/>
     </row>
     <row r="976">
       <c r="D976" s="4"/>
-      <c r="E976" s="23"/>
-      <c r="F976" s="24"/>
+      <c r="E976" s="25"/>
+      <c r="F976" s="26"/>
     </row>
     <row r="977">
       <c r="D977" s="4"/>
-      <c r="E977" s="23"/>
-      <c r="F977" s="24"/>
+      <c r="E977" s="25"/>
+      <c r="F977" s="26"/>
     </row>
     <row r="978">
       <c r="D978" s="4"/>
-      <c r="E978" s="23"/>
-      <c r="F978" s="24"/>
+      <c r="E978" s="25"/>
+      <c r="F978" s="26"/>
     </row>
     <row r="979">
       <c r="D979" s="4"/>
-      <c r="E979" s="23"/>
-      <c r="F979" s="24"/>
+      <c r="E979" s="25"/>
+      <c r="F979" s="26"/>
     </row>
     <row r="980">
       <c r="D980" s="4"/>
-      <c r="E980" s="23"/>
-      <c r="F980" s="24"/>
+      <c r="E980" s="25"/>
+      <c r="F980" s="26"/>
     </row>
     <row r="981">
       <c r="D981" s="4"/>
-      <c r="E981" s="23"/>
-      <c r="F981" s="24"/>
+      <c r="E981" s="25"/>
+      <c r="F981" s="26"/>
     </row>
     <row r="982">
       <c r="D982" s="4"/>
-      <c r="E982" s="23"/>
-      <c r="F982" s="24"/>
+      <c r="E982" s="25"/>
+      <c r="F982" s="26"/>
     </row>
     <row r="983">
       <c r="D983" s="4"/>
-      <c r="E983" s="23"/>
-      <c r="F983" s="24"/>
+      <c r="E983" s="25"/>
+      <c r="F983" s="26"/>
     </row>
     <row r="984">
       <c r="D984" s="4"/>
-      <c r="E984" s="23"/>
-      <c r="F984" s="24"/>
+      <c r="E984" s="25"/>
+      <c r="F984" s="26"/>
     </row>
     <row r="985">
       <c r="D985" s="4"/>
-      <c r="E985" s="23"/>
-      <c r="F985" s="24"/>
+      <c r="E985" s="25"/>
+      <c r="F985" s="26"/>
     </row>
     <row r="986">
       <c r="D986" s="4"/>
-      <c r="E986" s="23"/>
-      <c r="F986" s="24"/>
+      <c r="E986" s="25"/>
+      <c r="F986" s="26"/>
     </row>
     <row r="987">
       <c r="D987" s="4"/>
-      <c r="E987" s="23"/>
-      <c r="F987" s="24"/>
+      <c r="E987" s="25"/>
+      <c r="F987" s="26"/>
     </row>
     <row r="988">
       <c r="D988" s="4"/>
-      <c r="E988" s="23"/>
-      <c r="F988" s="24"/>
+      <c r="E988" s="25"/>
+      <c r="F988" s="26"/>
     </row>
     <row r="989">
       <c r="D989" s="4"/>
-      <c r="E989" s="23"/>
-      <c r="F989" s="24"/>
+      <c r="E989" s="25"/>
+      <c r="F989" s="26"/>
     </row>
     <row r="990">
       <c r="D990" s="4"/>
-      <c r="E990" s="23"/>
-      <c r="F990" s="24"/>
+      <c r="E990" s="25"/>
+      <c r="F990" s="26"/>
     </row>
     <row r="991">
       <c r="D991" s="4"/>
-      <c r="E991" s="23"/>
-      <c r="F991" s="24"/>
+      <c r="E991" s="25"/>
+      <c r="F991" s="26"/>
     </row>
     <row r="992">
       <c r="D992" s="4"/>
-      <c r="E992" s="23"/>
-      <c r="F992" s="24"/>
+      <c r="E992" s="25"/>
+      <c r="F992" s="26"/>
     </row>
     <row r="993">
       <c r="D993" s="4"/>
-      <c r="E993" s="23"/>
-      <c r="F993" s="24"/>
+      <c r="E993" s="25"/>
+      <c r="F993" s="26"/>
     </row>
     <row r="994">
       <c r="D994" s="4"/>
-      <c r="E994" s="23"/>
-      <c r="F994" s="24"/>
+      <c r="E994" s="25"/>
+      <c r="F994" s="26"/>
     </row>
     <row r="995">
       <c r="D995" s="4"/>
-      <c r="E995" s="23"/>
-      <c r="F995" s="24"/>
+      <c r="E995" s="25"/>
+      <c r="F995" s="26"/>
     </row>
     <row r="996">
       <c r="D996" s="4"/>
-      <c r="E996" s="23"/>
-      <c r="F996" s="24"/>
+      <c r="E996" s="25"/>
+      <c r="F996" s="26"/>
     </row>
     <row r="997">
       <c r="D997" s="4"/>
-      <c r="E997" s="23"/>
-      <c r="F997" s="24"/>
+      <c r="E997" s="25"/>
+      <c r="F997" s="26"/>
     </row>
     <row r="998">
       <c r="D998" s="4"/>
-      <c r="E998" s="23"/>
-      <c r="F998" s="24"/>
+      <c r="E998" s="25"/>
+      <c r="F998" s="26"/>
     </row>
     <row r="999">
       <c r="D999" s="4"/>
-      <c r="E999" s="23"/>
-      <c r="F999" s="24"/>
+      <c r="E999" s="25"/>
+      <c r="F999" s="26"/>
     </row>
     <row r="1000">
       <c r="D1000" s="4"/>
-      <c r="E1000" s="23"/>
-      <c r="F1000" s="24"/>
+      <c r="E1000" s="25"/>
+      <c r="F1000" s="26"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$Z$141"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -15711,7 +16044,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10">
       <c r="D10" s="1"/>
@@ -16380,7 +16713,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="6"/>
       <c r="F142" s="3"/>
-      <c r="G142" s="20"/>
+      <c r="G142" s="22"/>
     </row>
     <row r="143">
       <c r="D143" s="1"/>
@@ -16463,8 +16796,8 @@
       <c r="C158" s="10"/>
       <c r="D158" s="11"/>
       <c r="E158" s="12"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="22"/>
+      <c r="F158" s="23"/>
+      <c r="G158" s="24"/>
     </row>
     <row r="159">
       <c r="A159" s="10"/>
@@ -16472,8 +16805,8 @@
       <c r="C159" s="10"/>
       <c r="D159" s="15"/>
       <c r="E159" s="12"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="22"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="24"/>
     </row>
     <row r="160">
       <c r="A160" s="10"/>
@@ -16481,8 +16814,8 @@
       <c r="C160" s="10"/>
       <c r="D160" s="11"/>
       <c r="E160" s="12"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="22"/>
+      <c r="F160" s="23"/>
+      <c r="G160" s="24"/>
     </row>
     <row r="161">
       <c r="D161" s="1"/>
@@ -16731,7 +17064,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="6"/>
       <c r="F209" s="3"/>
-      <c r="G209" s="20"/>
+      <c r="G209" s="22"/>
     </row>
     <row r="210">
       <c r="D210" s="1"/>
